--- a/Mau.xlsx
+++ b/Mau.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichvu\Documents\GitHub\nvexcel-react\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\nvexcel-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{04CE5CE3-F535-4A3B-B79B-90041E2BC7B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF2177-75B3-43D2-AC71-980977544BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{257AB335-7A00-4FE0-AC24-7A3D3259B442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{257AB335-7A00-4FE0-AC24-7A3D3259B442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu khối lượng" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -73,6 +74,15 @@
   </si>
   <si>
     <t>Địa điểm:</t>
+  </si>
+  <si>
+    <t>BẢNG MẪU KHỐI LƯỢNG CÔNG TRÌNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công trình: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa điểm: </t>
   </si>
 </sst>
 </file>
@@ -127,12 +137,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +457,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -467,99 +477,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602ACF9-4DAE-4852-BB22-72E979E4BACA}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="22.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="30.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="22.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -578,41 +588,49 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f>A7+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" ref="A9:A15" si="0">A8+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -625,4 +643,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BBA79-C2FC-4148-A7EE-2238253760A1}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="b">
+        <f ca="1">IF(B8&gt;INDIRECT("RC[-1]",0),TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:J1048576">
+    <cfRule type="expression" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mau.xlsx
+++ b/Mau.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\nvexcel-react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF2177-75B3-43D2-AC71-980977544BF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E02B0F-097D-4358-98C1-542EE9F5BC9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{257AB335-7A00-4FE0-AC24-7A3D3259B442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Mẫu khối lượng" sheetId="15" r:id="rId2"/>
+    <sheet name="Mẫu khối lượng" sheetId="16" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -84,12 +85,24 @@
   <si>
     <t xml:space="preserve">Địa điểm: </t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Kè</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +123,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -143,11 +167,195 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+      </font>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +366,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCEB914B-DC4E-472D-9018-28FAD5C6B16B}" name="mau_tong_hop_khoi_luong" displayName="mau_tong_hop_khoi_luong" ref="A5:J24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A5:J24" xr:uid="{9A8009EA-E160-4737-AB46-47D382DB50B9}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4D426C6B-BC81-4FE6-8047-12DAB30EFA06}" name="Ký hiệu" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{587E7567-77EB-4E0B-8110-2F8C6E2D8C6F}" name="STT" dataDxfId="8">
+      <calculatedColumnFormula>IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C0A96F92-0102-4405-817F-E4089642337B}" name="Mã đơn giá" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F673E333-24F0-4097-A64B-8E619EBE1B02}" name="Tên công việc" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2DCE8257-F55B-4808-87E7-95B39C163679}" name="Đơn vị" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0A8F903A-0515-43CE-9832-63A6A20CFF34}" name="Hệ số" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0C44E365-84E1-42C6-BAB1-1BDCC6B4C8BD}" name="Số lượng" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{98A06AF2-F223-4C9C-ACA7-830A3137F76E}" name="Diễn giải" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{17319F23-4B6E-4618-A2BE-5ACFCEF32D99}" name="Khối lượng 1 cấu kiện" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{5ABAC8AB-139E-4B3D-855C-19A16E38D2C9}" name="Khối lượng" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,6 +689,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="438" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -473,12 +705,31 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{ADF2CC11-767B-4101-8ED3-ADDA92B46474}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_SCRIPTLAB_BASICCUSTOMFUNCTION_SPHEREVOLUME</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602ACF9-4DAE-4852-BB22-72E979E4BACA}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -646,70 +897,8641 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47BBA79-C2FC-4148-A7EE-2238253760A1}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7522D8-1CF5-4059-92C3-40FB8D6B13B7}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="5.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="14.77734375" style="9" customWidth="1"/>
+    <col min="11" max="26" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>HM</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>I</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>II</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>12</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>13</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>14</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>15</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <v>III</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="8"/>
+      <c r="G230" s="8"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="8"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="8"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8"/>
+      <c r="G233" s="8"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="8"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="8"/>
+      <c r="G249" s="8"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
+      <c r="G250" s="8"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
+      <c r="G252" s="8"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="8"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="8"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
+      <c r="G260" s="8"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="8"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="8"/>
+      <c r="G262" s="8"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="8"/>
+      <c r="G266" s="8"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="8"/>
+      <c r="G278" s="8"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="8"/>
+      <c r="G279" s="8"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="8"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="8"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="8"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
+      <c r="G291" s="8"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="8"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
+      <c r="G293" s="8"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
+      <c r="C297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="8"/>
+      <c r="G297" s="8"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="8"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="8"/>
+      <c r="G299" s="8"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="8"/>
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="8"/>
+      <c r="G302" s="8"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="8"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="8"/>
+      <c r="B304" s="8"/>
+      <c r="C304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="8"/>
+      <c r="G304" s="8"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
+      <c r="C305" s="8"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="8"/>
+      <c r="G305" s="8"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
+      <c r="C306" s="8"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="8"/>
+      <c r="G306" s="8"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="8"/>
+      <c r="G307" s="8"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="8"/>
+      <c r="G308" s="8"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
+      <c r="C309" s="8"/>
+      <c r="E309" s="8"/>
+      <c r="F309" s="8"/>
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
+      <c r="C310" s="8"/>
+      <c r="E310" s="8"/>
+      <c r="F310" s="8"/>
+      <c r="G310" s="8"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
+      <c r="C311" s="8"/>
+      <c r="E311" s="8"/>
+      <c r="F311" s="8"/>
+      <c r="G311" s="8"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
+      <c r="C312" s="8"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="8"/>
+      <c r="G312" s="8"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="8"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="8"/>
+      <c r="G313" s="8"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
+      <c r="C314" s="8"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="8"/>
+      <c r="G314" s="8"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
+      <c r="C315" s="8"/>
+      <c r="E315" s="8"/>
+      <c r="F315" s="8"/>
+      <c r="G315" s="8"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
+      <c r="C316" s="8"/>
+      <c r="E316" s="8"/>
+      <c r="F316" s="8"/>
+      <c r="G316" s="8"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="8"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="8"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
+      <c r="C318" s="8"/>
+      <c r="E318" s="8"/>
+      <c r="F318" s="8"/>
+      <c r="G318" s="8"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
+      <c r="C319" s="8"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="8"/>
+      <c r="G319" s="8"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
+      <c r="C320" s="8"/>
+      <c r="E320" s="8"/>
+      <c r="F320" s="8"/>
+      <c r="G320" s="8"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="8"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
+      <c r="C322" s="8"/>
+      <c r="E322" s="8"/>
+      <c r="F322" s="8"/>
+      <c r="G322" s="8"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
+      <c r="C323" s="8"/>
+      <c r="E323" s="8"/>
+      <c r="F323" s="8"/>
+      <c r="G323" s="8"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
+      <c r="C324" s="8"/>
+      <c r="E324" s="8"/>
+      <c r="F324" s="8"/>
+      <c r="G324" s="8"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
+      <c r="C325" s="8"/>
+      <c r="E325" s="8"/>
+      <c r="F325" s="8"/>
+      <c r="G325" s="8"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
+      <c r="C326" s="8"/>
+      <c r="E326" s="8"/>
+      <c r="F326" s="8"/>
+      <c r="G326" s="8"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
+      <c r="E327" s="8"/>
+      <c r="F327" s="8"/>
+      <c r="G327" s="8"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="8"/>
+      <c r="E328" s="8"/>
+      <c r="F328" s="8"/>
+      <c r="G328" s="8"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" s="8"/>
+      <c r="B329" s="8"/>
+      <c r="C329" s="8"/>
+      <c r="E329" s="8"/>
+      <c r="F329" s="8"/>
+      <c r="G329" s="8"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" s="8"/>
+      <c r="B330" s="8"/>
+      <c r="C330" s="8"/>
+      <c r="E330" s="8"/>
+      <c r="F330" s="8"/>
+      <c r="G330" s="8"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" s="8"/>
+      <c r="B331" s="8"/>
+      <c r="C331" s="8"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="8"/>
+      <c r="G331" s="8"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="8"/>
+      <c r="B332" s="8"/>
+      <c r="C332" s="8"/>
+      <c r="E332" s="8"/>
+      <c r="F332" s="8"/>
+      <c r="G332" s="8"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="8"/>
+      <c r="E333" s="8"/>
+      <c r="F333" s="8"/>
+      <c r="G333" s="8"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" s="8"/>
+      <c r="B334" s="8"/>
+      <c r="C334" s="8"/>
+      <c r="E334" s="8"/>
+      <c r="F334" s="8"/>
+      <c r="G334" s="8"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="E335" s="8"/>
+      <c r="F335" s="8"/>
+      <c r="G335" s="8"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
+      <c r="C336" s="8"/>
+      <c r="E336" s="8"/>
+      <c r="F336" s="8"/>
+      <c r="G336" s="8"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
+      <c r="C337" s="8"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="8"/>
+      <c r="G337" s="8"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" s="8"/>
+      <c r="B338" s="8"/>
+      <c r="C338" s="8"/>
+      <c r="E338" s="8"/>
+      <c r="F338" s="8"/>
+      <c r="G338" s="8"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="8"/>
+      <c r="B339" s="8"/>
+      <c r="C339" s="8"/>
+      <c r="E339" s="8"/>
+      <c r="F339" s="8"/>
+      <c r="G339" s="8"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="8"/>
+      <c r="B340" s="8"/>
+      <c r="C340" s="8"/>
+      <c r="E340" s="8"/>
+      <c r="F340" s="8"/>
+      <c r="G340" s="8"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" s="8"/>
+      <c r="B341" s="8"/>
+      <c r="C341" s="8"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8"/>
+      <c r="G341" s="8"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" s="8"/>
+      <c r="B342" s="8"/>
+      <c r="C342" s="8"/>
+      <c r="E342" s="8"/>
+      <c r="F342" s="8"/>
+      <c r="G342" s="8"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" s="8"/>
+      <c r="B343" s="8"/>
+      <c r="C343" s="8"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="8"/>
+      <c r="G343" s="8"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" s="8"/>
+      <c r="B344" s="8"/>
+      <c r="C344" s="8"/>
+      <c r="E344" s="8"/>
+      <c r="F344" s="8"/>
+      <c r="G344" s="8"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
+      <c r="C345" s="8"/>
+      <c r="E345" s="8"/>
+      <c r="F345" s="8"/>
+      <c r="G345" s="8"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" s="8"/>
+      <c r="B346" s="8"/>
+      <c r="C346" s="8"/>
+      <c r="E346" s="8"/>
+      <c r="F346" s="8"/>
+      <c r="G346" s="8"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" s="8"/>
+      <c r="B347" s="8"/>
+      <c r="C347" s="8"/>
+      <c r="E347" s="8"/>
+      <c r="F347" s="8"/>
+      <c r="G347" s="8"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" s="8"/>
+      <c r="B348" s="8"/>
+      <c r="C348" s="8"/>
+      <c r="E348" s="8"/>
+      <c r="F348" s="8"/>
+      <c r="G348" s="8"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
+      <c r="C349" s="8"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8"/>
+      <c r="G349" s="8"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" s="8"/>
+      <c r="B350" s="8"/>
+      <c r="C350" s="8"/>
+      <c r="E350" s="8"/>
+      <c r="F350" s="8"/>
+      <c r="G350" s="8"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" s="8"/>
+      <c r="B351" s="8"/>
+      <c r="C351" s="8"/>
+      <c r="E351" s="8"/>
+      <c r="F351" s="8"/>
+      <c r="G351" s="8"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="8"/>
+      <c r="B352" s="8"/>
+      <c r="C352" s="8"/>
+      <c r="E352" s="8"/>
+      <c r="F352" s="8"/>
+      <c r="G352" s="8"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="8"/>
+      <c r="B353" s="8"/>
+      <c r="C353" s="8"/>
+      <c r="E353" s="8"/>
+      <c r="F353" s="8"/>
+      <c r="G353" s="8"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" s="8"/>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="E354" s="8"/>
+      <c r="F354" s="8"/>
+      <c r="G354" s="8"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
+      <c r="C355" s="8"/>
+      <c r="E355" s="8"/>
+      <c r="F355" s="8"/>
+      <c r="G355" s="8"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" s="8"/>
+      <c r="B356" s="8"/>
+      <c r="C356" s="8"/>
+      <c r="E356" s="8"/>
+      <c r="F356" s="8"/>
+      <c r="G356" s="8"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="8"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="8"/>
+      <c r="G357" s="8"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" s="8"/>
+      <c r="B358" s="8"/>
+      <c r="C358" s="8"/>
+      <c r="E358" s="8"/>
+      <c r="F358" s="8"/>
+      <c r="G358" s="8"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" s="8"/>
+      <c r="B359" s="8"/>
+      <c r="C359" s="8"/>
+      <c r="E359" s="8"/>
+      <c r="F359" s="8"/>
+      <c r="G359" s="8"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" s="8"/>
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="E360" s="8"/>
+      <c r="F360" s="8"/>
+      <c r="G360" s="8"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" s="8"/>
+      <c r="B361" s="8"/>
+      <c r="C361" s="8"/>
+      <c r="E361" s="8"/>
+      <c r="F361" s="8"/>
+      <c r="G361" s="8"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" s="8"/>
+      <c r="B362" s="8"/>
+      <c r="C362" s="8"/>
+      <c r="E362" s="8"/>
+      <c r="F362" s="8"/>
+      <c r="G362" s="8"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="8"/>
+      <c r="E363" s="8"/>
+      <c r="F363" s="8"/>
+      <c r="G363" s="8"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" s="8"/>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="E364" s="8"/>
+      <c r="F364" s="8"/>
+      <c r="G364" s="8"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="E365" s="8"/>
+      <c r="F365" s="8"/>
+      <c r="G365" s="8"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" s="8"/>
+      <c r="B366" s="8"/>
+      <c r="C366" s="8"/>
+      <c r="E366" s="8"/>
+      <c r="F366" s="8"/>
+      <c r="G366" s="8"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" s="8"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="8"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="8"/>
+      <c r="G367" s="8"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" s="8"/>
+      <c r="B368" s="8"/>
+      <c r="C368" s="8"/>
+      <c r="E368" s="8"/>
+      <c r="F368" s="8"/>
+      <c r="G368" s="8"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" s="8"/>
+      <c r="B369" s="8"/>
+      <c r="C369" s="8"/>
+      <c r="E369" s="8"/>
+      <c r="F369" s="8"/>
+      <c r="G369" s="8"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="8"/>
+      <c r="B370" s="8"/>
+      <c r="C370" s="8"/>
+      <c r="E370" s="8"/>
+      <c r="F370" s="8"/>
+      <c r="G370" s="8"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" s="8"/>
+      <c r="B371" s="8"/>
+      <c r="C371" s="8"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="8"/>
+      <c r="G371" s="8"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" s="8"/>
+      <c r="B372" s="8"/>
+      <c r="C372" s="8"/>
+      <c r="E372" s="8"/>
+      <c r="F372" s="8"/>
+      <c r="G372" s="8"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="8"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="8"/>
+      <c r="G373" s="8"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="8"/>
+      <c r="B374" s="8"/>
+      <c r="C374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="8"/>
+      <c r="G374" s="8"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="8"/>
+      <c r="B375" s="8"/>
+      <c r="C375" s="8"/>
+      <c r="E375" s="8"/>
+      <c r="F375" s="8"/>
+      <c r="G375" s="8"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" s="8"/>
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="E376" s="8"/>
+      <c r="F376" s="8"/>
+      <c r="G376" s="8"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="E377" s="8"/>
+      <c r="F377" s="8"/>
+      <c r="G377" s="8"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="8"/>
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="E378" s="8"/>
+      <c r="F378" s="8"/>
+      <c r="G378" s="8"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="8"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="8"/>
+      <c r="E379" s="8"/>
+      <c r="F379" s="8"/>
+      <c r="G379" s="8"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="8"/>
+      <c r="B380" s="8"/>
+      <c r="C380" s="8"/>
+      <c r="E380" s="8"/>
+      <c r="F380" s="8"/>
+      <c r="G380" s="8"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="8"/>
+      <c r="G381" s="8"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" s="8"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="E382" s="8"/>
+      <c r="F382" s="8"/>
+      <c r="G382" s="8"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" s="8"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="8"/>
+      <c r="E383" s="8"/>
+      <c r="F383" s="8"/>
+      <c r="G383" s="8"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" s="8"/>
+      <c r="B384" s="8"/>
+      <c r="C384" s="8"/>
+      <c r="E384" s="8"/>
+      <c r="F384" s="8"/>
+      <c r="G384" s="8"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385" s="8"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="8"/>
+      <c r="E385" s="8"/>
+      <c r="F385" s="8"/>
+      <c r="G385" s="8"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386" s="8"/>
+      <c r="B386" s="8"/>
+      <c r="C386" s="8"/>
+      <c r="E386" s="8"/>
+      <c r="F386" s="8"/>
+      <c r="G386" s="8"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" s="8"/>
+      <c r="B387" s="8"/>
+      <c r="C387" s="8"/>
+      <c r="E387" s="8"/>
+      <c r="F387" s="8"/>
+      <c r="G387" s="8"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" s="8"/>
+      <c r="B388" s="8"/>
+      <c r="C388" s="8"/>
+      <c r="E388" s="8"/>
+      <c r="F388" s="8"/>
+      <c r="G388" s="8"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="8"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="8"/>
+      <c r="G389" s="8"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390" s="8"/>
+      <c r="B390" s="8"/>
+      <c r="C390" s="8"/>
+      <c r="E390" s="8"/>
+      <c r="F390" s="8"/>
+      <c r="G390" s="8"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="8"/>
+      <c r="E391" s="8"/>
+      <c r="F391" s="8"/>
+      <c r="G391" s="8"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392" s="8"/>
+      <c r="B392" s="8"/>
+      <c r="C392" s="8"/>
+      <c r="E392" s="8"/>
+      <c r="F392" s="8"/>
+      <c r="G392" s="8"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
+      <c r="C393" s="8"/>
+      <c r="E393" s="8"/>
+      <c r="F393" s="8"/>
+      <c r="G393" s="8"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394" s="8"/>
+      <c r="B394" s="8"/>
+      <c r="C394" s="8"/>
+      <c r="E394" s="8"/>
+      <c r="F394" s="8"/>
+      <c r="G394" s="8"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="8"/>
+      <c r="E395" s="8"/>
+      <c r="F395" s="8"/>
+      <c r="G395" s="8"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396" s="8"/>
+      <c r="B396" s="8"/>
+      <c r="C396" s="8"/>
+      <c r="E396" s="8"/>
+      <c r="F396" s="8"/>
+      <c r="G396" s="8"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
+      <c r="C397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8"/>
+      <c r="G397" s="8"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
+      <c r="C398" s="8"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="8"/>
+      <c r="G398" s="8"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
+      <c r="C399" s="8"/>
+      <c r="E399" s="8"/>
+      <c r="F399" s="8"/>
+      <c r="G399" s="8"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400" s="8"/>
+      <c r="B400" s="8"/>
+      <c r="C400" s="8"/>
+      <c r="E400" s="8"/>
+      <c r="F400" s="8"/>
+      <c r="G400" s="8"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
+      <c r="C401" s="8"/>
+      <c r="E401" s="8"/>
+      <c r="F401" s="8"/>
+      <c r="G401" s="8"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402" s="8"/>
+      <c r="B402" s="8"/>
+      <c r="C402" s="8"/>
+      <c r="E402" s="8"/>
+      <c r="F402" s="8"/>
+      <c r="G402" s="8"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403" s="8"/>
+      <c r="B403" s="8"/>
+      <c r="C403" s="8"/>
+      <c r="E403" s="8"/>
+      <c r="F403" s="8"/>
+      <c r="G403" s="8"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
+      <c r="C404" s="8"/>
+      <c r="E404" s="8"/>
+      <c r="F404" s="8"/>
+      <c r="G404" s="8"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
+      <c r="C405" s="8"/>
+      <c r="E405" s="8"/>
+      <c r="F405" s="8"/>
+      <c r="G405" s="8"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406" s="8"/>
+      <c r="B406" s="8"/>
+      <c r="C406" s="8"/>
+      <c r="E406" s="8"/>
+      <c r="F406" s="8"/>
+      <c r="G406" s="8"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="8"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="8"/>
+      <c r="G407" s="8"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408" s="8"/>
+      <c r="B408" s="8"/>
+      <c r="C408" s="8"/>
+      <c r="E408" s="8"/>
+      <c r="F408" s="8"/>
+      <c r="G408" s="8"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" s="8"/>
+      <c r="B409" s="8"/>
+      <c r="C409" s="8"/>
+      <c r="E409" s="8"/>
+      <c r="F409" s="8"/>
+      <c r="G409" s="8"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410" s="8"/>
+      <c r="B410" s="8"/>
+      <c r="C410" s="8"/>
+      <c r="E410" s="8"/>
+      <c r="F410" s="8"/>
+      <c r="G410" s="8"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411" s="8"/>
+      <c r="B411" s="8"/>
+      <c r="C411" s="8"/>
+      <c r="E411" s="8"/>
+      <c r="F411" s="8"/>
+      <c r="G411" s="8"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412" s="8"/>
+      <c r="B412" s="8"/>
+      <c r="C412" s="8"/>
+      <c r="E412" s="8"/>
+      <c r="F412" s="8"/>
+      <c r="G412" s="8"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
+      <c r="C413" s="8"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="8"/>
+      <c r="G413" s="8"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414" s="8"/>
+      <c r="B414" s="8"/>
+      <c r="C414" s="8"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="8"/>
+      <c r="G414" s="8"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415" s="8"/>
+      <c r="B415" s="8"/>
+      <c r="C415" s="8"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="8"/>
+      <c r="G415" s="8"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" s="8"/>
+      <c r="B416" s="8"/>
+      <c r="C416" s="8"/>
+      <c r="E416" s="8"/>
+      <c r="F416" s="8"/>
+      <c r="G416" s="8"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" s="8"/>
+      <c r="B417" s="8"/>
+      <c r="C417" s="8"/>
+      <c r="E417" s="8"/>
+      <c r="F417" s="8"/>
+      <c r="G417" s="8"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" s="8"/>
+      <c r="B418" s="8"/>
+      <c r="C418" s="8"/>
+      <c r="E418" s="8"/>
+      <c r="F418" s="8"/>
+      <c r="G418" s="8"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
+      <c r="C419" s="8"/>
+      <c r="E419" s="8"/>
+      <c r="F419" s="8"/>
+      <c r="G419" s="8"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="8"/>
+      <c r="B420" s="8"/>
+      <c r="C420" s="8"/>
+      <c r="E420" s="8"/>
+      <c r="F420" s="8"/>
+      <c r="G420" s="8"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="8"/>
+      <c r="E421" s="8"/>
+      <c r="F421" s="8"/>
+      <c r="G421" s="8"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" s="8"/>
+      <c r="B422" s="8"/>
+      <c r="C422" s="8"/>
+      <c r="E422" s="8"/>
+      <c r="F422" s="8"/>
+      <c r="G422" s="8"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
+      <c r="C423" s="8"/>
+      <c r="E423" s="8"/>
+      <c r="F423" s="8"/>
+      <c r="G423" s="8"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" s="8"/>
+      <c r="B424" s="8"/>
+      <c r="C424" s="8"/>
+      <c r="E424" s="8"/>
+      <c r="F424" s="8"/>
+      <c r="G424" s="8"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
+      <c r="C425" s="8"/>
+      <c r="E425" s="8"/>
+      <c r="F425" s="8"/>
+      <c r="G425" s="8"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426" s="8"/>
+      <c r="B426" s="8"/>
+      <c r="C426" s="8"/>
+      <c r="E426" s="8"/>
+      <c r="F426" s="8"/>
+      <c r="G426" s="8"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
+      <c r="C427" s="8"/>
+      <c r="E427" s="8"/>
+      <c r="F427" s="8"/>
+      <c r="G427" s="8"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" s="8"/>
+      <c r="B428" s="8"/>
+      <c r="C428" s="8"/>
+      <c r="E428" s="8"/>
+      <c r="F428" s="8"/>
+      <c r="G428" s="8"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
+      <c r="C429" s="8"/>
+      <c r="E429" s="8"/>
+      <c r="F429" s="8"/>
+      <c r="G429" s="8"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" s="8"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="8"/>
+      <c r="E430" s="8"/>
+      <c r="F430" s="8"/>
+      <c r="G430" s="8"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431" s="8"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="8"/>
+      <c r="E431" s="8"/>
+      <c r="F431" s="8"/>
+      <c r="G431" s="8"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" s="8"/>
+      <c r="B432" s="8"/>
+      <c r="C432" s="8"/>
+      <c r="E432" s="8"/>
+      <c r="F432" s="8"/>
+      <c r="G432" s="8"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" s="8"/>
+      <c r="B433" s="8"/>
+      <c r="C433" s="8"/>
+      <c r="E433" s="8"/>
+      <c r="F433" s="8"/>
+      <c r="G433" s="8"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" s="8"/>
+      <c r="B434" s="8"/>
+      <c r="C434" s="8"/>
+      <c r="E434" s="8"/>
+      <c r="F434" s="8"/>
+      <c r="G434" s="8"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" s="8"/>
+      <c r="B435" s="8"/>
+      <c r="C435" s="8"/>
+      <c r="E435" s="8"/>
+      <c r="F435" s="8"/>
+      <c r="G435" s="8"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" s="8"/>
+      <c r="B436" s="8"/>
+      <c r="C436" s="8"/>
+      <c r="E436" s="8"/>
+      <c r="F436" s="8"/>
+      <c r="G436" s="8"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" s="8"/>
+      <c r="B437" s="8"/>
+      <c r="C437" s="8"/>
+      <c r="E437" s="8"/>
+      <c r="F437" s="8"/>
+      <c r="G437" s="8"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" s="8"/>
+      <c r="B438" s="8"/>
+      <c r="C438" s="8"/>
+      <c r="E438" s="8"/>
+      <c r="F438" s="8"/>
+      <c r="G438" s="8"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" s="8"/>
+      <c r="B439" s="8"/>
+      <c r="C439" s="8"/>
+      <c r="E439" s="8"/>
+      <c r="F439" s="8"/>
+      <c r="G439" s="8"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A440" s="8"/>
+      <c r="B440" s="8"/>
+      <c r="C440" s="8"/>
+      <c r="E440" s="8"/>
+      <c r="F440" s="8"/>
+      <c r="G440" s="8"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A441" s="8"/>
+      <c r="B441" s="8"/>
+      <c r="C441" s="8"/>
+      <c r="E441" s="8"/>
+      <c r="F441" s="8"/>
+      <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A442" s="8"/>
+      <c r="B442" s="8"/>
+      <c r="C442" s="8"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8"/>
+      <c r="G442" s="8"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A443" s="8"/>
+      <c r="B443" s="8"/>
+      <c r="C443" s="8"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="8"/>
+      <c r="G443" s="8"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A444" s="8"/>
+      <c r="B444" s="8"/>
+      <c r="C444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+      <c r="G444" s="8"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A446" s="8"/>
+      <c r="B446" s="8"/>
+      <c r="C446" s="8"/>
+      <c r="E446" s="8"/>
+      <c r="F446" s="8"/>
+      <c r="G446" s="8"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A447" s="8"/>
+      <c r="B447" s="8"/>
+      <c r="C447" s="8"/>
+      <c r="E447" s="8"/>
+      <c r="F447" s="8"/>
+      <c r="G447" s="8"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A448" s="8"/>
+      <c r="B448" s="8"/>
+      <c r="C448" s="8"/>
+      <c r="E448" s="8"/>
+      <c r="F448" s="8"/>
+      <c r="G448" s="8"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
+      <c r="C449" s="8"/>
+      <c r="E449" s="8"/>
+      <c r="F449" s="8"/>
+      <c r="G449" s="8"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A450" s="8"/>
+      <c r="B450" s="8"/>
+      <c r="C450" s="8"/>
+      <c r="E450" s="8"/>
+      <c r="F450" s="8"/>
+      <c r="G450" s="8"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A451" s="8"/>
+      <c r="B451" s="8"/>
+      <c r="C451" s="8"/>
+      <c r="E451" s="8"/>
+      <c r="F451" s="8"/>
+      <c r="G451" s="8"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A452" s="8"/>
+      <c r="B452" s="8"/>
+      <c r="C452" s="8"/>
+      <c r="E452" s="8"/>
+      <c r="F452" s="8"/>
+      <c r="G452" s="8"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
+      <c r="C453" s="8"/>
+      <c r="E453" s="8"/>
+      <c r="F453" s="8"/>
+      <c r="G453" s="8"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A454" s="8"/>
+      <c r="B454" s="8"/>
+      <c r="C454" s="8"/>
+      <c r="E454" s="8"/>
+      <c r="F454" s="8"/>
+      <c r="G454" s="8"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A455" s="8"/>
+      <c r="B455" s="8"/>
+      <c r="C455" s="8"/>
+      <c r="E455" s="8"/>
+      <c r="F455" s="8"/>
+      <c r="G455" s="8"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A456" s="8"/>
+      <c r="B456" s="8"/>
+      <c r="C456" s="8"/>
+      <c r="E456" s="8"/>
+      <c r="F456" s="8"/>
+      <c r="G456" s="8"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A457" s="8"/>
+      <c r="B457" s="8"/>
+      <c r="C457" s="8"/>
+      <c r="E457" s="8"/>
+      <c r="F457" s="8"/>
+      <c r="G457" s="8"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A458" s="8"/>
+      <c r="B458" s="8"/>
+      <c r="C458" s="8"/>
+      <c r="E458" s="8"/>
+      <c r="F458" s="8"/>
+      <c r="G458" s="8"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A459" s="8"/>
+      <c r="B459" s="8"/>
+      <c r="C459" s="8"/>
+      <c r="E459" s="8"/>
+      <c r="F459" s="8"/>
+      <c r="G459" s="8"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A460" s="8"/>
+      <c r="B460" s="8"/>
+      <c r="C460" s="8"/>
+      <c r="E460" s="8"/>
+      <c r="F460" s="8"/>
+      <c r="G460" s="8"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A461" s="8"/>
+      <c r="B461" s="8"/>
+      <c r="C461" s="8"/>
+      <c r="E461" s="8"/>
+      <c r="F461" s="8"/>
+      <c r="G461" s="8"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A462" s="8"/>
+      <c r="B462" s="8"/>
+      <c r="C462" s="8"/>
+      <c r="E462" s="8"/>
+      <c r="F462" s="8"/>
+      <c r="G462" s="8"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A463" s="8"/>
+      <c r="B463" s="8"/>
+      <c r="C463" s="8"/>
+      <c r="E463" s="8"/>
+      <c r="F463" s="8"/>
+      <c r="G463" s="8"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A464" s="8"/>
+      <c r="B464" s="8"/>
+      <c r="C464" s="8"/>
+      <c r="E464" s="8"/>
+      <c r="F464" s="8"/>
+      <c r="G464" s="8"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A465" s="8"/>
+      <c r="B465" s="8"/>
+      <c r="C465" s="8"/>
+      <c r="E465" s="8"/>
+      <c r="F465" s="8"/>
+      <c r="G465" s="8"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="8"/>
+      <c r="B466" s="8"/>
+      <c r="C466" s="8"/>
+      <c r="E466" s="8"/>
+      <c r="F466" s="8"/>
+      <c r="G466" s="8"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A467" s="8"/>
+      <c r="B467" s="8"/>
+      <c r="C467" s="8"/>
+      <c r="E467" s="8"/>
+      <c r="F467" s="8"/>
+      <c r="G467" s="8"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A468" s="8"/>
+      <c r="B468" s="8"/>
+      <c r="C468" s="8"/>
+      <c r="E468" s="8"/>
+      <c r="F468" s="8"/>
+      <c r="G468" s="8"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="8"/>
+      <c r="E469" s="8"/>
+      <c r="F469" s="8"/>
+      <c r="G469" s="8"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A470" s="8"/>
+      <c r="B470" s="8"/>
+      <c r="C470" s="8"/>
+      <c r="E470" s="8"/>
+      <c r="F470" s="8"/>
+      <c r="G470" s="8"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A471" s="8"/>
+      <c r="B471" s="8"/>
+      <c r="C471" s="8"/>
+      <c r="E471" s="8"/>
+      <c r="F471" s="8"/>
+      <c r="G471" s="8"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A472" s="8"/>
+      <c r="B472" s="8"/>
+      <c r="C472" s="8"/>
+      <c r="E472" s="8"/>
+      <c r="F472" s="8"/>
+      <c r="G472" s="8"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A473" s="8"/>
+      <c r="B473" s="8"/>
+      <c r="C473" s="8"/>
+      <c r="E473" s="8"/>
+      <c r="F473" s="8"/>
+      <c r="G473" s="8"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A474" s="8"/>
+      <c r="B474" s="8"/>
+      <c r="C474" s="8"/>
+      <c r="E474" s="8"/>
+      <c r="F474" s="8"/>
+      <c r="G474" s="8"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A475" s="8"/>
+      <c r="B475" s="8"/>
+      <c r="C475" s="8"/>
+      <c r="E475" s="8"/>
+      <c r="F475" s="8"/>
+      <c r="G475" s="8"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A476" s="8"/>
+      <c r="B476" s="8"/>
+      <c r="C476" s="8"/>
+      <c r="E476" s="8"/>
+      <c r="F476" s="8"/>
+      <c r="G476" s="8"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A477" s="8"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="8"/>
+      <c r="E477" s="8"/>
+      <c r="F477" s="8"/>
+      <c r="G477" s="8"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A478" s="8"/>
+      <c r="B478" s="8"/>
+      <c r="C478" s="8"/>
+      <c r="E478" s="8"/>
+      <c r="F478" s="8"/>
+      <c r="G478" s="8"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A479" s="8"/>
+      <c r="B479" s="8"/>
+      <c r="C479" s="8"/>
+      <c r="E479" s="8"/>
+      <c r="F479" s="8"/>
+      <c r="G479" s="8"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A480" s="8"/>
+      <c r="B480" s="8"/>
+      <c r="C480" s="8"/>
+      <c r="E480" s="8"/>
+      <c r="F480" s="8"/>
+      <c r="G480" s="8"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A481" s="8"/>
+      <c r="B481" s="8"/>
+      <c r="C481" s="8"/>
+      <c r="E481" s="8"/>
+      <c r="F481" s="8"/>
+      <c r="G481" s="8"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A482" s="8"/>
+      <c r="B482" s="8"/>
+      <c r="C482" s="8"/>
+      <c r="E482" s="8"/>
+      <c r="F482" s="8"/>
+      <c r="G482" s="8"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A483" s="8"/>
+      <c r="B483" s="8"/>
+      <c r="C483" s="8"/>
+      <c r="E483" s="8"/>
+      <c r="F483" s="8"/>
+      <c r="G483" s="8"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A484" s="8"/>
+      <c r="B484" s="8"/>
+      <c r="C484" s="8"/>
+      <c r="E484" s="8"/>
+      <c r="F484" s="8"/>
+      <c r="G484" s="8"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A485" s="8"/>
+      <c r="B485" s="8"/>
+      <c r="C485" s="8"/>
+      <c r="E485" s="8"/>
+      <c r="F485" s="8"/>
+      <c r="G485" s="8"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A486" s="8"/>
+      <c r="B486" s="8"/>
+      <c r="C486" s="8"/>
+      <c r="E486" s="8"/>
+      <c r="F486" s="8"/>
+      <c r="G486" s="8"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A487" s="8"/>
+      <c r="B487" s="8"/>
+      <c r="C487" s="8"/>
+      <c r="E487" s="8"/>
+      <c r="F487" s="8"/>
+      <c r="G487" s="8"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A488" s="8"/>
+      <c r="B488" s="8"/>
+      <c r="C488" s="8"/>
+      <c r="E488" s="8"/>
+      <c r="F488" s="8"/>
+      <c r="G488" s="8"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A489" s="8"/>
+      <c r="B489" s="8"/>
+      <c r="C489" s="8"/>
+      <c r="E489" s="8"/>
+      <c r="F489" s="8"/>
+      <c r="G489" s="8"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A490" s="8"/>
+      <c r="B490" s="8"/>
+      <c r="C490" s="8"/>
+      <c r="E490" s="8"/>
+      <c r="F490" s="8"/>
+      <c r="G490" s="8"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A491" s="8"/>
+      <c r="B491" s="8"/>
+      <c r="C491" s="8"/>
+      <c r="E491" s="8"/>
+      <c r="F491" s="8"/>
+      <c r="G491" s="8"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A492" s="8"/>
+      <c r="B492" s="8"/>
+      <c r="C492" s="8"/>
+      <c r="E492" s="8"/>
+      <c r="F492" s="8"/>
+      <c r="G492" s="8"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A493" s="8"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="8"/>
+      <c r="E493" s="8"/>
+      <c r="F493" s="8"/>
+      <c r="G493" s="8"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A494" s="8"/>
+      <c r="B494" s="8"/>
+      <c r="C494" s="8"/>
+      <c r="E494" s="8"/>
+      <c r="F494" s="8"/>
+      <c r="G494" s="8"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A495" s="8"/>
+      <c r="B495" s="8"/>
+      <c r="C495" s="8"/>
+      <c r="E495" s="8"/>
+      <c r="F495" s="8"/>
+      <c r="G495" s="8"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A496" s="8"/>
+      <c r="B496" s="8"/>
+      <c r="C496" s="8"/>
+      <c r="E496" s="8"/>
+      <c r="F496" s="8"/>
+      <c r="G496" s="8"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A497" s="8"/>
+      <c r="B497" s="8"/>
+      <c r="C497" s="8"/>
+      <c r="E497" s="8"/>
+      <c r="F497" s="8"/>
+      <c r="G497" s="8"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A498" s="8"/>
+      <c r="B498" s="8"/>
+      <c r="C498" s="8"/>
+      <c r="E498" s="8"/>
+      <c r="F498" s="8"/>
+      <c r="G498" s="8"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A499" s="8"/>
+      <c r="B499" s="8"/>
+      <c r="C499" s="8"/>
+      <c r="E499" s="8"/>
+      <c r="F499" s="8"/>
+      <c r="G499" s="8"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A500" s="8"/>
+      <c r="B500" s="8"/>
+      <c r="C500" s="8"/>
+      <c r="E500" s="8"/>
+      <c r="F500" s="8"/>
+      <c r="G500" s="8"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A501" s="8"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="8"/>
+      <c r="E501" s="8"/>
+      <c r="F501" s="8"/>
+      <c r="G501" s="8"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502" s="8"/>
+      <c r="B502" s="8"/>
+      <c r="C502" s="8"/>
+      <c r="E502" s="8"/>
+      <c r="F502" s="8"/>
+      <c r="G502" s="8"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A503" s="8"/>
+      <c r="B503" s="8"/>
+      <c r="C503" s="8"/>
+      <c r="E503" s="8"/>
+      <c r="F503" s="8"/>
+      <c r="G503" s="8"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A504" s="8"/>
+      <c r="B504" s="8"/>
+      <c r="C504" s="8"/>
+      <c r="E504" s="8"/>
+      <c r="F504" s="8"/>
+      <c r="G504" s="8"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A505" s="8"/>
+      <c r="B505" s="8"/>
+      <c r="C505" s="8"/>
+      <c r="E505" s="8"/>
+      <c r="F505" s="8"/>
+      <c r="G505" s="8"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A506" s="8"/>
+      <c r="B506" s="8"/>
+      <c r="C506" s="8"/>
+      <c r="E506" s="8"/>
+      <c r="F506" s="8"/>
+      <c r="G506" s="8"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507" s="8"/>
+      <c r="B507" s="8"/>
+      <c r="C507" s="8"/>
+      <c r="E507" s="8"/>
+      <c r="F507" s="8"/>
+      <c r="G507" s="8"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A508" s="8"/>
+      <c r="B508" s="8"/>
+      <c r="C508" s="8"/>
+      <c r="E508" s="8"/>
+      <c r="F508" s="8"/>
+      <c r="G508" s="8"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A509" s="8"/>
+      <c r="B509" s="8"/>
+      <c r="C509" s="8"/>
+      <c r="E509" s="8"/>
+      <c r="F509" s="8"/>
+      <c r="G509" s="8"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A510" s="8"/>
+      <c r="B510" s="8"/>
+      <c r="C510" s="8"/>
+      <c r="E510" s="8"/>
+      <c r="F510" s="8"/>
+      <c r="G510" s="8"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" s="8"/>
+      <c r="B511" s="8"/>
+      <c r="C511" s="8"/>
+      <c r="E511" s="8"/>
+      <c r="F511" s="8"/>
+      <c r="G511" s="8"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A512" s="8"/>
+      <c r="B512" s="8"/>
+      <c r="C512" s="8"/>
+      <c r="E512" s="8"/>
+      <c r="F512" s="8"/>
+      <c r="G512" s="8"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A513" s="8"/>
+      <c r="B513" s="8"/>
+      <c r="C513" s="8"/>
+      <c r="E513" s="8"/>
+      <c r="F513" s="8"/>
+      <c r="G513" s="8"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A514" s="8"/>
+      <c r="B514" s="8"/>
+      <c r="C514" s="8"/>
+      <c r="E514" s="8"/>
+      <c r="F514" s="8"/>
+      <c r="G514" s="8"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A515" s="8"/>
+      <c r="B515" s="8"/>
+      <c r="C515" s="8"/>
+      <c r="E515" s="8"/>
+      <c r="F515" s="8"/>
+      <c r="G515" s="8"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A516" s="8"/>
+      <c r="B516" s="8"/>
+      <c r="C516" s="8"/>
+      <c r="E516" s="8"/>
+      <c r="F516" s="8"/>
+      <c r="G516" s="8"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A517" s="8"/>
+      <c r="B517" s="8"/>
+      <c r="C517" s="8"/>
+      <c r="E517" s="8"/>
+      <c r="F517" s="8"/>
+      <c r="G517" s="8"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A518" s="8"/>
+      <c r="B518" s="8"/>
+      <c r="C518" s="8"/>
+      <c r="E518" s="8"/>
+      <c r="F518" s="8"/>
+      <c r="G518" s="8"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A519" s="8"/>
+      <c r="B519" s="8"/>
+      <c r="C519" s="8"/>
+      <c r="E519" s="8"/>
+      <c r="F519" s="8"/>
+      <c r="G519" s="8"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A520" s="8"/>
+      <c r="B520" s="8"/>
+      <c r="C520" s="8"/>
+      <c r="E520" s="8"/>
+      <c r="F520" s="8"/>
+      <c r="G520" s="8"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A521" s="8"/>
+      <c r="B521" s="8"/>
+      <c r="C521" s="8"/>
+      <c r="E521" s="8"/>
+      <c r="F521" s="8"/>
+      <c r="G521" s="8"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A522" s="8"/>
+      <c r="B522" s="8"/>
+      <c r="C522" s="8"/>
+      <c r="E522" s="8"/>
+      <c r="F522" s="8"/>
+      <c r="G522" s="8"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A523" s="8"/>
+      <c r="B523" s="8"/>
+      <c r="C523" s="8"/>
+      <c r="E523" s="8"/>
+      <c r="F523" s="8"/>
+      <c r="G523" s="8"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A524" s="8"/>
+      <c r="B524" s="8"/>
+      <c r="C524" s="8"/>
+      <c r="E524" s="8"/>
+      <c r="F524" s="8"/>
+      <c r="G524" s="8"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A525" s="8"/>
+      <c r="B525" s="8"/>
+      <c r="C525" s="8"/>
+      <c r="E525" s="8"/>
+      <c r="F525" s="8"/>
+      <c r="G525" s="8"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A526" s="8"/>
+      <c r="B526" s="8"/>
+      <c r="C526" s="8"/>
+      <c r="E526" s="8"/>
+      <c r="F526" s="8"/>
+      <c r="G526" s="8"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A527" s="8"/>
+      <c r="B527" s="8"/>
+      <c r="C527" s="8"/>
+      <c r="E527" s="8"/>
+      <c r="F527" s="8"/>
+      <c r="G527" s="8"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A528" s="8"/>
+      <c r="B528" s="8"/>
+      <c r="C528" s="8"/>
+      <c r="E528" s="8"/>
+      <c r="F528" s="8"/>
+      <c r="G528" s="8"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A529" s="8"/>
+      <c r="B529" s="8"/>
+      <c r="C529" s="8"/>
+      <c r="E529" s="8"/>
+      <c r="F529" s="8"/>
+      <c r="G529" s="8"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A530" s="8"/>
+      <c r="B530" s="8"/>
+      <c r="C530" s="8"/>
+      <c r="E530" s="8"/>
+      <c r="F530" s="8"/>
+      <c r="G530" s="8"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A531" s="8"/>
+      <c r="B531" s="8"/>
+      <c r="C531" s="8"/>
+      <c r="E531" s="8"/>
+      <c r="F531" s="8"/>
+      <c r="G531" s="8"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A532" s="8"/>
+      <c r="B532" s="8"/>
+      <c r="C532" s="8"/>
+      <c r="E532" s="8"/>
+      <c r="F532" s="8"/>
+      <c r="G532" s="8"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A533" s="8"/>
+      <c r="B533" s="8"/>
+      <c r="C533" s="8"/>
+      <c r="E533" s="8"/>
+      <c r="F533" s="8"/>
+      <c r="G533" s="8"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A534" s="8"/>
+      <c r="B534" s="8"/>
+      <c r="C534" s="8"/>
+      <c r="E534" s="8"/>
+      <c r="F534" s="8"/>
+      <c r="G534" s="8"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A535" s="8"/>
+      <c r="B535" s="8"/>
+      <c r="C535" s="8"/>
+      <c r="E535" s="8"/>
+      <c r="F535" s="8"/>
+      <c r="G535" s="8"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A536" s="8"/>
+      <c r="B536" s="8"/>
+      <c r="C536" s="8"/>
+      <c r="E536" s="8"/>
+      <c r="F536" s="8"/>
+      <c r="G536" s="8"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A537" s="8"/>
+      <c r="B537" s="8"/>
+      <c r="C537" s="8"/>
+      <c r="E537" s="8"/>
+      <c r="F537" s="8"/>
+      <c r="G537" s="8"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A538" s="8"/>
+      <c r="B538" s="8"/>
+      <c r="C538" s="8"/>
+      <c r="E538" s="8"/>
+      <c r="F538" s="8"/>
+      <c r="G538" s="8"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A539" s="8"/>
+      <c r="B539" s="8"/>
+      <c r="C539" s="8"/>
+      <c r="E539" s="8"/>
+      <c r="F539" s="8"/>
+      <c r="G539" s="8"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A540" s="8"/>
+      <c r="B540" s="8"/>
+      <c r="C540" s="8"/>
+      <c r="E540" s="8"/>
+      <c r="F540" s="8"/>
+      <c r="G540" s="8"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A541" s="8"/>
+      <c r="B541" s="8"/>
+      <c r="C541" s="8"/>
+      <c r="E541" s="8"/>
+      <c r="F541" s="8"/>
+      <c r="G541" s="8"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A542" s="8"/>
+      <c r="B542" s="8"/>
+      <c r="C542" s="8"/>
+      <c r="E542" s="8"/>
+      <c r="F542" s="8"/>
+      <c r="G542" s="8"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A543" s="8"/>
+      <c r="B543" s="8"/>
+      <c r="C543" s="8"/>
+      <c r="E543" s="8"/>
+      <c r="F543" s="8"/>
+      <c r="G543" s="8"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A544" s="8"/>
+      <c r="B544" s="8"/>
+      <c r="C544" s="8"/>
+      <c r="E544" s="8"/>
+      <c r="F544" s="8"/>
+      <c r="G544" s="8"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A545" s="8"/>
+      <c r="B545" s="8"/>
+      <c r="C545" s="8"/>
+      <c r="E545" s="8"/>
+      <c r="F545" s="8"/>
+      <c r="G545" s="8"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A546" s="8"/>
+      <c r="B546" s="8"/>
+      <c r="C546" s="8"/>
+      <c r="E546" s="8"/>
+      <c r="F546" s="8"/>
+      <c r="G546" s="8"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A547" s="8"/>
+      <c r="B547" s="8"/>
+      <c r="C547" s="8"/>
+      <c r="E547" s="8"/>
+      <c r="F547" s="8"/>
+      <c r="G547" s="8"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A548" s="8"/>
+      <c r="B548" s="8"/>
+      <c r="C548" s="8"/>
+      <c r="E548" s="8"/>
+      <c r="F548" s="8"/>
+      <c r="G548" s="8"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A549" s="8"/>
+      <c r="B549" s="8"/>
+      <c r="C549" s="8"/>
+      <c r="E549" s="8"/>
+      <c r="F549" s="8"/>
+      <c r="G549" s="8"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A550" s="8"/>
+      <c r="B550" s="8"/>
+      <c r="C550" s="8"/>
+      <c r="E550" s="8"/>
+      <c r="F550" s="8"/>
+      <c r="G550" s="8"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A551" s="8"/>
+      <c r="B551" s="8"/>
+      <c r="C551" s="8"/>
+      <c r="E551" s="8"/>
+      <c r="F551" s="8"/>
+      <c r="G551" s="8"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A552" s="8"/>
+      <c r="B552" s="8"/>
+      <c r="C552" s="8"/>
+      <c r="E552" s="8"/>
+      <c r="F552" s="8"/>
+      <c r="G552" s="8"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" s="8"/>
+      <c r="B553" s="8"/>
+      <c r="C553" s="8"/>
+      <c r="E553" s="8"/>
+      <c r="F553" s="8"/>
+      <c r="G553" s="8"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554" s="8"/>
+      <c r="B554" s="8"/>
+      <c r="C554" s="8"/>
+      <c r="E554" s="8"/>
+      <c r="F554" s="8"/>
+      <c r="G554" s="8"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A555" s="8"/>
+      <c r="B555" s="8"/>
+      <c r="C555" s="8"/>
+      <c r="E555" s="8"/>
+      <c r="F555" s="8"/>
+      <c r="G555" s="8"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" s="8"/>
+      <c r="B556" s="8"/>
+      <c r="C556" s="8"/>
+      <c r="E556" s="8"/>
+      <c r="F556" s="8"/>
+      <c r="G556" s="8"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="8"/>
+      <c r="B557" s="8"/>
+      <c r="C557" s="8"/>
+      <c r="E557" s="8"/>
+      <c r="F557" s="8"/>
+      <c r="G557" s="8"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A558" s="8"/>
+      <c r="B558" s="8"/>
+      <c r="C558" s="8"/>
+      <c r="E558" s="8"/>
+      <c r="F558" s="8"/>
+      <c r="G558" s="8"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A559" s="8"/>
+      <c r="B559" s="8"/>
+      <c r="C559" s="8"/>
+      <c r="E559" s="8"/>
+      <c r="F559" s="8"/>
+      <c r="G559" s="8"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A560" s="8"/>
+      <c r="B560" s="8"/>
+      <c r="C560" s="8"/>
+      <c r="E560" s="8"/>
+      <c r="F560" s="8"/>
+      <c r="G560" s="8"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A561" s="8"/>
+      <c r="B561" s="8"/>
+      <c r="C561" s="8"/>
+      <c r="E561" s="8"/>
+      <c r="F561" s="8"/>
+      <c r="G561" s="8"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A562" s="8"/>
+      <c r="B562" s="8"/>
+      <c r="C562" s="8"/>
+      <c r="E562" s="8"/>
+      <c r="F562" s="8"/>
+      <c r="G562" s="8"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A563" s="8"/>
+      <c r="B563" s="8"/>
+      <c r="C563" s="8"/>
+      <c r="E563" s="8"/>
+      <c r="F563" s="8"/>
+      <c r="G563" s="8"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A564" s="8"/>
+      <c r="B564" s="8"/>
+      <c r="C564" s="8"/>
+      <c r="E564" s="8"/>
+      <c r="F564" s="8"/>
+      <c r="G564" s="8"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A565" s="8"/>
+      <c r="B565" s="8"/>
+      <c r="C565" s="8"/>
+      <c r="E565" s="8"/>
+      <c r="F565" s="8"/>
+      <c r="G565" s="8"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A566" s="8"/>
+      <c r="B566" s="8"/>
+      <c r="C566" s="8"/>
+      <c r="E566" s="8"/>
+      <c r="F566" s="8"/>
+      <c r="G566" s="8"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A567" s="8"/>
+      <c r="B567" s="8"/>
+      <c r="C567" s="8"/>
+      <c r="E567" s="8"/>
+      <c r="F567" s="8"/>
+      <c r="G567" s="8"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A568" s="8"/>
+      <c r="B568" s="8"/>
+      <c r="C568" s="8"/>
+      <c r="E568" s="8"/>
+      <c r="F568" s="8"/>
+      <c r="G568" s="8"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A569" s="8"/>
+      <c r="B569" s="8"/>
+      <c r="C569" s="8"/>
+      <c r="E569" s="8"/>
+      <c r="F569" s="8"/>
+      <c r="G569" s="8"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A570" s="8"/>
+      <c r="B570" s="8"/>
+      <c r="C570" s="8"/>
+      <c r="E570" s="8"/>
+      <c r="F570" s="8"/>
+      <c r="G570" s="8"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A571" s="8"/>
+      <c r="B571" s="8"/>
+      <c r="C571" s="8"/>
+      <c r="E571" s="8"/>
+      <c r="F571" s="8"/>
+      <c r="G571" s="8"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A572" s="8"/>
+      <c r="B572" s="8"/>
+      <c r="C572" s="8"/>
+      <c r="E572" s="8"/>
+      <c r="F572" s="8"/>
+      <c r="G572" s="8"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A573" s="8"/>
+      <c r="B573" s="8"/>
+      <c r="C573" s="8"/>
+      <c r="E573" s="8"/>
+      <c r="F573" s="8"/>
+      <c r="G573" s="8"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A574" s="8"/>
+      <c r="B574" s="8"/>
+      <c r="C574" s="8"/>
+      <c r="E574" s="8"/>
+      <c r="F574" s="8"/>
+      <c r="G574" s="8"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A575" s="8"/>
+      <c r="B575" s="8"/>
+      <c r="C575" s="8"/>
+      <c r="E575" s="8"/>
+      <c r="F575" s="8"/>
+      <c r="G575" s="8"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A576" s="8"/>
+      <c r="B576" s="8"/>
+      <c r="C576" s="8"/>
+      <c r="E576" s="8"/>
+      <c r="F576" s="8"/>
+      <c r="G576" s="8"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A577" s="8"/>
+      <c r="B577" s="8"/>
+      <c r="C577" s="8"/>
+      <c r="E577" s="8"/>
+      <c r="F577" s="8"/>
+      <c r="G577" s="8"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A578" s="8"/>
+      <c r="B578" s="8"/>
+      <c r="C578" s="8"/>
+      <c r="E578" s="8"/>
+      <c r="F578" s="8"/>
+      <c r="G578" s="8"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A579" s="8"/>
+      <c r="B579" s="8"/>
+      <c r="C579" s="8"/>
+      <c r="E579" s="8"/>
+      <c r="F579" s="8"/>
+      <c r="G579" s="8"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A580" s="8"/>
+      <c r="B580" s="8"/>
+      <c r="C580" s="8"/>
+      <c r="E580" s="8"/>
+      <c r="F580" s="8"/>
+      <c r="G580" s="8"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A581" s="8"/>
+      <c r="B581" s="8"/>
+      <c r="C581" s="8"/>
+      <c r="E581" s="8"/>
+      <c r="F581" s="8"/>
+      <c r="G581" s="8"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A582" s="8"/>
+      <c r="B582" s="8"/>
+      <c r="C582" s="8"/>
+      <c r="E582" s="8"/>
+      <c r="F582" s="8"/>
+      <c r="G582" s="8"/>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A583" s="8"/>
+      <c r="B583" s="8"/>
+      <c r="C583" s="8"/>
+      <c r="E583" s="8"/>
+      <c r="F583" s="8"/>
+      <c r="G583" s="8"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A584" s="8"/>
+      <c r="B584" s="8"/>
+      <c r="C584" s="8"/>
+      <c r="E584" s="8"/>
+      <c r="F584" s="8"/>
+      <c r="G584" s="8"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A585" s="8"/>
+      <c r="B585" s="8"/>
+      <c r="C585" s="8"/>
+      <c r="E585" s="8"/>
+      <c r="F585" s="8"/>
+      <c r="G585" s="8"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A586" s="8"/>
+      <c r="B586" s="8"/>
+      <c r="C586" s="8"/>
+      <c r="E586" s="8"/>
+      <c r="F586" s="8"/>
+      <c r="G586" s="8"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A587" s="8"/>
+      <c r="B587" s="8"/>
+      <c r="C587" s="8"/>
+      <c r="E587" s="8"/>
+      <c r="F587" s="8"/>
+      <c r="G587" s="8"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A588" s="8"/>
+      <c r="B588" s="8"/>
+      <c r="C588" s="8"/>
+      <c r="E588" s="8"/>
+      <c r="F588" s="8"/>
+      <c r="G588" s="8"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A589" s="8"/>
+      <c r="B589" s="8"/>
+      <c r="C589" s="8"/>
+      <c r="E589" s="8"/>
+      <c r="F589" s="8"/>
+      <c r="G589" s="8"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A590" s="8"/>
+      <c r="B590" s="8"/>
+      <c r="C590" s="8"/>
+      <c r="E590" s="8"/>
+      <c r="F590" s="8"/>
+      <c r="G590" s="8"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A591" s="8"/>
+      <c r="B591" s="8"/>
+      <c r="C591" s="8"/>
+      <c r="E591" s="8"/>
+      <c r="F591" s="8"/>
+      <c r="G591" s="8"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A592" s="8"/>
+      <c r="B592" s="8"/>
+      <c r="C592" s="8"/>
+      <c r="E592" s="8"/>
+      <c r="F592" s="8"/>
+      <c r="G592" s="8"/>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A593" s="8"/>
+      <c r="B593" s="8"/>
+      <c r="C593" s="8"/>
+      <c r="E593" s="8"/>
+      <c r="F593" s="8"/>
+      <c r="G593" s="8"/>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A594" s="8"/>
+      <c r="B594" s="8"/>
+      <c r="C594" s="8"/>
+      <c r="E594" s="8"/>
+      <c r="F594" s="8"/>
+      <c r="G594" s="8"/>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A595" s="8"/>
+      <c r="B595" s="8"/>
+      <c r="C595" s="8"/>
+      <c r="E595" s="8"/>
+      <c r="F595" s="8"/>
+      <c r="G595" s="8"/>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A596" s="8"/>
+      <c r="B596" s="8"/>
+      <c r="C596" s="8"/>
+      <c r="E596" s="8"/>
+      <c r="F596" s="8"/>
+      <c r="G596" s="8"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A597" s="8"/>
+      <c r="B597" s="8"/>
+      <c r="C597" s="8"/>
+      <c r="E597" s="8"/>
+      <c r="F597" s="8"/>
+      <c r="G597" s="8"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A598" s="8"/>
+      <c r="B598" s="8"/>
+      <c r="C598" s="8"/>
+      <c r="E598" s="8"/>
+      <c r="F598" s="8"/>
+      <c r="G598" s="8"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A599" s="8"/>
+      <c r="B599" s="8"/>
+      <c r="C599" s="8"/>
+      <c r="E599" s="8"/>
+      <c r="F599" s="8"/>
+      <c r="G599" s="8"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A600" s="8"/>
+      <c r="B600" s="8"/>
+      <c r="C600" s="8"/>
+      <c r="E600" s="8"/>
+      <c r="F600" s="8"/>
+      <c r="G600" s="8"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A601" s="8"/>
+      <c r="B601" s="8"/>
+      <c r="C601" s="8"/>
+      <c r="E601" s="8"/>
+      <c r="F601" s="8"/>
+      <c r="G601" s="8"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A602" s="8"/>
+      <c r="B602" s="8"/>
+      <c r="C602" s="8"/>
+      <c r="E602" s="8"/>
+      <c r="F602" s="8"/>
+      <c r="G602" s="8"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A603" s="8"/>
+      <c r="B603" s="8"/>
+      <c r="C603" s="8"/>
+      <c r="E603" s="8"/>
+      <c r="F603" s="8"/>
+      <c r="G603" s="8"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A604" s="8"/>
+      <c r="B604" s="8"/>
+      <c r="C604" s="8"/>
+      <c r="E604" s="8"/>
+      <c r="F604" s="8"/>
+      <c r="G604" s="8"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A605" s="8"/>
+      <c r="B605" s="8"/>
+      <c r="C605" s="8"/>
+      <c r="E605" s="8"/>
+      <c r="F605" s="8"/>
+      <c r="G605" s="8"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A606" s="8"/>
+      <c r="B606" s="8"/>
+      <c r="C606" s="8"/>
+      <c r="E606" s="8"/>
+      <c r="F606" s="8"/>
+      <c r="G606" s="8"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A607" s="8"/>
+      <c r="B607" s="8"/>
+      <c r="C607" s="8"/>
+      <c r="E607" s="8"/>
+      <c r="F607" s="8"/>
+      <c r="G607" s="8"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A608" s="8"/>
+      <c r="B608" s="8"/>
+      <c r="C608" s="8"/>
+      <c r="E608" s="8"/>
+      <c r="F608" s="8"/>
+      <c r="G608" s="8"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A609" s="8"/>
+      <c r="B609" s="8"/>
+      <c r="C609" s="8"/>
+      <c r="E609" s="8"/>
+      <c r="F609" s="8"/>
+      <c r="G609" s="8"/>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A610" s="8"/>
+      <c r="B610" s="8"/>
+      <c r="C610" s="8"/>
+      <c r="E610" s="8"/>
+      <c r="F610" s="8"/>
+      <c r="G610" s="8"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A611" s="8"/>
+      <c r="B611" s="8"/>
+      <c r="C611" s="8"/>
+      <c r="E611" s="8"/>
+      <c r="F611" s="8"/>
+      <c r="G611" s="8"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A612" s="8"/>
+      <c r="B612" s="8"/>
+      <c r="C612" s="8"/>
+      <c r="E612" s="8"/>
+      <c r="F612" s="8"/>
+      <c r="G612" s="8"/>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A613" s="8"/>
+      <c r="B613" s="8"/>
+      <c r="C613" s="8"/>
+      <c r="E613" s="8"/>
+      <c r="F613" s="8"/>
+      <c r="G613" s="8"/>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A614" s="8"/>
+      <c r="B614" s="8"/>
+      <c r="C614" s="8"/>
+      <c r="E614" s="8"/>
+      <c r="F614" s="8"/>
+      <c r="G614" s="8"/>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A615" s="8"/>
+      <c r="B615" s="8"/>
+      <c r="C615" s="8"/>
+      <c r="E615" s="8"/>
+      <c r="F615" s="8"/>
+      <c r="G615" s="8"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A616" s="8"/>
+      <c r="B616" s="8"/>
+      <c r="C616" s="8"/>
+      <c r="E616" s="8"/>
+      <c r="F616" s="8"/>
+      <c r="G616" s="8"/>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A617" s="8"/>
+      <c r="B617" s="8"/>
+      <c r="C617" s="8"/>
+      <c r="E617" s="8"/>
+      <c r="F617" s="8"/>
+      <c r="G617" s="8"/>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A618" s="8"/>
+      <c r="B618" s="8"/>
+      <c r="C618" s="8"/>
+      <c r="E618" s="8"/>
+      <c r="F618" s="8"/>
+      <c r="G618" s="8"/>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A619" s="8"/>
+      <c r="B619" s="8"/>
+      <c r="C619" s="8"/>
+      <c r="E619" s="8"/>
+      <c r="F619" s="8"/>
+      <c r="G619" s="8"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A620" s="8"/>
+      <c r="B620" s="8"/>
+      <c r="C620" s="8"/>
+      <c r="E620" s="8"/>
+      <c r="F620" s="8"/>
+      <c r="G620" s="8"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A621" s="8"/>
+      <c r="B621" s="8"/>
+      <c r="C621" s="8"/>
+      <c r="E621" s="8"/>
+      <c r="F621" s="8"/>
+      <c r="G621" s="8"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A622" s="8"/>
+      <c r="B622" s="8"/>
+      <c r="C622" s="8"/>
+      <c r="E622" s="8"/>
+      <c r="F622" s="8"/>
+      <c r="G622" s="8"/>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A623" s="8"/>
+      <c r="B623" s="8"/>
+      <c r="C623" s="8"/>
+      <c r="E623" s="8"/>
+      <c r="F623" s="8"/>
+      <c r="G623" s="8"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A624" s="8"/>
+      <c r="B624" s="8"/>
+      <c r="C624" s="8"/>
+      <c r="E624" s="8"/>
+      <c r="F624" s="8"/>
+      <c r="G624" s="8"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A625" s="8"/>
+      <c r="B625" s="8"/>
+      <c r="C625" s="8"/>
+      <c r="E625" s="8"/>
+      <c r="F625" s="8"/>
+      <c r="G625" s="8"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A626" s="8"/>
+      <c r="B626" s="8"/>
+      <c r="C626" s="8"/>
+      <c r="E626" s="8"/>
+      <c r="F626" s="8"/>
+      <c r="G626" s="8"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A627" s="8"/>
+      <c r="B627" s="8"/>
+      <c r="C627" s="8"/>
+      <c r="E627" s="8"/>
+      <c r="F627" s="8"/>
+      <c r="G627" s="8"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A628" s="8"/>
+      <c r="B628" s="8"/>
+      <c r="C628" s="8"/>
+      <c r="E628" s="8"/>
+      <c r="F628" s="8"/>
+      <c r="G628" s="8"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A629" s="8"/>
+      <c r="B629" s="8"/>
+      <c r="C629" s="8"/>
+      <c r="E629" s="8"/>
+      <c r="F629" s="8"/>
+      <c r="G629" s="8"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A630" s="8"/>
+      <c r="B630" s="8"/>
+      <c r="C630" s="8"/>
+      <c r="E630" s="8"/>
+      <c r="F630" s="8"/>
+      <c r="G630" s="8"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A631" s="8"/>
+      <c r="B631" s="8"/>
+      <c r="C631" s="8"/>
+      <c r="E631" s="8"/>
+      <c r="F631" s="8"/>
+      <c r="G631" s="8"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A632" s="8"/>
+      <c r="B632" s="8"/>
+      <c r="C632" s="8"/>
+      <c r="E632" s="8"/>
+      <c r="F632" s="8"/>
+      <c r="G632" s="8"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A633" s="8"/>
+      <c r="B633" s="8"/>
+      <c r="C633" s="8"/>
+      <c r="E633" s="8"/>
+      <c r="F633" s="8"/>
+      <c r="G633" s="8"/>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A634" s="8"/>
+      <c r="B634" s="8"/>
+      <c r="C634" s="8"/>
+      <c r="E634" s="8"/>
+      <c r="F634" s="8"/>
+      <c r="G634" s="8"/>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A635" s="8"/>
+      <c r="B635" s="8"/>
+      <c r="C635" s="8"/>
+      <c r="E635" s="8"/>
+      <c r="F635" s="8"/>
+      <c r="G635" s="8"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A636" s="8"/>
+      <c r="B636" s="8"/>
+      <c r="C636" s="8"/>
+      <c r="E636" s="8"/>
+      <c r="F636" s="8"/>
+      <c r="G636" s="8"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A637" s="8"/>
+      <c r="B637" s="8"/>
+      <c r="C637" s="8"/>
+      <c r="E637" s="8"/>
+      <c r="F637" s="8"/>
+      <c r="G637" s="8"/>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A638" s="8"/>
+      <c r="B638" s="8"/>
+      <c r="C638" s="8"/>
+      <c r="E638" s="8"/>
+      <c r="F638" s="8"/>
+      <c r="G638" s="8"/>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A639" s="8"/>
+      <c r="B639" s="8"/>
+      <c r="C639" s="8"/>
+      <c r="E639" s="8"/>
+      <c r="F639" s="8"/>
+      <c r="G639" s="8"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A640" s="8"/>
+      <c r="B640" s="8"/>
+      <c r="C640" s="8"/>
+      <c r="E640" s="8"/>
+      <c r="F640" s="8"/>
+      <c r="G640" s="8"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A641" s="8"/>
+      <c r="B641" s="8"/>
+      <c r="C641" s="8"/>
+      <c r="E641" s="8"/>
+      <c r="F641" s="8"/>
+      <c r="G641" s="8"/>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A642" s="8"/>
+      <c r="B642" s="8"/>
+      <c r="C642" s="8"/>
+      <c r="E642" s="8"/>
+      <c r="F642" s="8"/>
+      <c r="G642" s="8"/>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A643" s="8"/>
+      <c r="B643" s="8"/>
+      <c r="C643" s="8"/>
+      <c r="E643" s="8"/>
+      <c r="F643" s="8"/>
+      <c r="G643" s="8"/>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A644" s="8"/>
+      <c r="B644" s="8"/>
+      <c r="C644" s="8"/>
+      <c r="E644" s="8"/>
+      <c r="F644" s="8"/>
+      <c r="G644" s="8"/>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A645" s="8"/>
+      <c r="B645" s="8"/>
+      <c r="C645" s="8"/>
+      <c r="E645" s="8"/>
+      <c r="F645" s="8"/>
+      <c r="G645" s="8"/>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A646" s="8"/>
+      <c r="B646" s="8"/>
+      <c r="C646" s="8"/>
+      <c r="E646" s="8"/>
+      <c r="F646" s="8"/>
+      <c r="G646" s="8"/>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A647" s="8"/>
+      <c r="B647" s="8"/>
+      <c r="C647" s="8"/>
+      <c r="E647" s="8"/>
+      <c r="F647" s="8"/>
+      <c r="G647" s="8"/>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A648" s="8"/>
+      <c r="B648" s="8"/>
+      <c r="C648" s="8"/>
+      <c r="E648" s="8"/>
+      <c r="F648" s="8"/>
+      <c r="G648" s="8"/>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A649" s="8"/>
+      <c r="B649" s="8"/>
+      <c r="C649" s="8"/>
+      <c r="E649" s="8"/>
+      <c r="F649" s="8"/>
+      <c r="G649" s="8"/>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A650" s="8"/>
+      <c r="B650" s="8"/>
+      <c r="C650" s="8"/>
+      <c r="E650" s="8"/>
+      <c r="F650" s="8"/>
+      <c r="G650" s="8"/>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A651" s="8"/>
+      <c r="B651" s="8"/>
+      <c r="C651" s="8"/>
+      <c r="E651" s="8"/>
+      <c r="F651" s="8"/>
+      <c r="G651" s="8"/>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A652" s="8"/>
+      <c r="B652" s="8"/>
+      <c r="C652" s="8"/>
+      <c r="E652" s="8"/>
+      <c r="F652" s="8"/>
+      <c r="G652" s="8"/>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A653" s="8"/>
+      <c r="B653" s="8"/>
+      <c r="C653" s="8"/>
+      <c r="E653" s="8"/>
+      <c r="F653" s="8"/>
+      <c r="G653" s="8"/>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A654" s="8"/>
+      <c r="B654" s="8"/>
+      <c r="C654" s="8"/>
+      <c r="E654" s="8"/>
+      <c r="F654" s="8"/>
+      <c r="G654" s="8"/>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A655" s="8"/>
+      <c r="B655" s="8"/>
+      <c r="C655" s="8"/>
+      <c r="E655" s="8"/>
+      <c r="F655" s="8"/>
+      <c r="G655" s="8"/>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A656" s="8"/>
+      <c r="B656" s="8"/>
+      <c r="C656" s="8"/>
+      <c r="E656" s="8"/>
+      <c r="F656" s="8"/>
+      <c r="G656" s="8"/>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A657" s="8"/>
+      <c r="B657" s="8"/>
+      <c r="C657" s="8"/>
+      <c r="E657" s="8"/>
+      <c r="F657" s="8"/>
+      <c r="G657" s="8"/>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A658" s="8"/>
+      <c r="B658" s="8"/>
+      <c r="C658" s="8"/>
+      <c r="E658" s="8"/>
+      <c r="F658" s="8"/>
+      <c r="G658" s="8"/>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A659" s="8"/>
+      <c r="B659" s="8"/>
+      <c r="C659" s="8"/>
+      <c r="E659" s="8"/>
+      <c r="F659" s="8"/>
+      <c r="G659" s="8"/>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A660" s="8"/>
+      <c r="B660" s="8"/>
+      <c r="C660" s="8"/>
+      <c r="E660" s="8"/>
+      <c r="F660" s="8"/>
+      <c r="G660" s="8"/>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A661" s="8"/>
+      <c r="B661" s="8"/>
+      <c r="C661" s="8"/>
+      <c r="E661" s="8"/>
+      <c r="F661" s="8"/>
+      <c r="G661" s="8"/>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A662" s="8"/>
+      <c r="B662" s="8"/>
+      <c r="C662" s="8"/>
+      <c r="E662" s="8"/>
+      <c r="F662" s="8"/>
+      <c r="G662" s="8"/>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A663" s="8"/>
+      <c r="B663" s="8"/>
+      <c r="C663" s="8"/>
+      <c r="E663" s="8"/>
+      <c r="F663" s="8"/>
+      <c r="G663" s="8"/>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A664" s="8"/>
+      <c r="B664" s="8"/>
+      <c r="C664" s="8"/>
+      <c r="E664" s="8"/>
+      <c r="F664" s="8"/>
+      <c r="G664" s="8"/>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A665" s="8"/>
+      <c r="B665" s="8"/>
+      <c r="C665" s="8"/>
+      <c r="E665" s="8"/>
+      <c r="F665" s="8"/>
+      <c r="G665" s="8"/>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A666" s="8"/>
+      <c r="B666" s="8"/>
+      <c r="C666" s="8"/>
+      <c r="E666" s="8"/>
+      <c r="F666" s="8"/>
+      <c r="G666" s="8"/>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A667" s="8"/>
+      <c r="B667" s="8"/>
+      <c r="C667" s="8"/>
+      <c r="E667" s="8"/>
+      <c r="F667" s="8"/>
+      <c r="G667" s="8"/>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A668" s="8"/>
+      <c r="B668" s="8"/>
+      <c r="C668" s="8"/>
+      <c r="E668" s="8"/>
+      <c r="F668" s="8"/>
+      <c r="G668" s="8"/>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A669" s="8"/>
+      <c r="B669" s="8"/>
+      <c r="C669" s="8"/>
+      <c r="E669" s="8"/>
+      <c r="F669" s="8"/>
+      <c r="G669" s="8"/>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A670" s="8"/>
+      <c r="B670" s="8"/>
+      <c r="C670" s="8"/>
+      <c r="E670" s="8"/>
+      <c r="F670" s="8"/>
+      <c r="G670" s="8"/>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A671" s="8"/>
+      <c r="B671" s="8"/>
+      <c r="C671" s="8"/>
+      <c r="E671" s="8"/>
+      <c r="F671" s="8"/>
+      <c r="G671" s="8"/>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A672" s="8"/>
+      <c r="B672" s="8"/>
+      <c r="C672" s="8"/>
+      <c r="E672" s="8"/>
+      <c r="F672" s="8"/>
+      <c r="G672" s="8"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A673" s="8"/>
+      <c r="B673" s="8"/>
+      <c r="C673" s="8"/>
+      <c r="E673" s="8"/>
+      <c r="F673" s="8"/>
+      <c r="G673" s="8"/>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A674" s="8"/>
+      <c r="B674" s="8"/>
+      <c r="C674" s="8"/>
+      <c r="E674" s="8"/>
+      <c r="F674" s="8"/>
+      <c r="G674" s="8"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A675" s="8"/>
+      <c r="B675" s="8"/>
+      <c r="C675" s="8"/>
+      <c r="E675" s="8"/>
+      <c r="F675" s="8"/>
+      <c r="G675" s="8"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A676" s="8"/>
+      <c r="B676" s="8"/>
+      <c r="C676" s="8"/>
+      <c r="E676" s="8"/>
+      <c r="F676" s="8"/>
+      <c r="G676" s="8"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A677" s="8"/>
+      <c r="B677" s="8"/>
+      <c r="C677" s="8"/>
+      <c r="E677" s="8"/>
+      <c r="F677" s="8"/>
+      <c r="G677" s="8"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A678" s="8"/>
+      <c r="B678" s="8"/>
+      <c r="C678" s="8"/>
+      <c r="E678" s="8"/>
+      <c r="F678" s="8"/>
+      <c r="G678" s="8"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A679" s="8"/>
+      <c r="B679" s="8"/>
+      <c r="C679" s="8"/>
+      <c r="E679" s="8"/>
+      <c r="F679" s="8"/>
+      <c r="G679" s="8"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A680" s="8"/>
+      <c r="B680" s="8"/>
+      <c r="C680" s="8"/>
+      <c r="E680" s="8"/>
+      <c r="F680" s="8"/>
+      <c r="G680" s="8"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A681" s="8"/>
+      <c r="B681" s="8"/>
+      <c r="C681" s="8"/>
+      <c r="E681" s="8"/>
+      <c r="F681" s="8"/>
+      <c r="G681" s="8"/>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A682" s="8"/>
+      <c r="B682" s="8"/>
+      <c r="C682" s="8"/>
+      <c r="E682" s="8"/>
+      <c r="F682" s="8"/>
+      <c r="G682" s="8"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A683" s="8"/>
+      <c r="B683" s="8"/>
+      <c r="C683" s="8"/>
+      <c r="E683" s="8"/>
+      <c r="F683" s="8"/>
+      <c r="G683" s="8"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A684" s="8"/>
+      <c r="B684" s="8"/>
+      <c r="C684" s="8"/>
+      <c r="E684" s="8"/>
+      <c r="F684" s="8"/>
+      <c r="G684" s="8"/>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A685" s="8"/>
+      <c r="B685" s="8"/>
+      <c r="C685" s="8"/>
+      <c r="E685" s="8"/>
+      <c r="F685" s="8"/>
+      <c r="G685" s="8"/>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A686" s="8"/>
+      <c r="B686" s="8"/>
+      <c r="C686" s="8"/>
+      <c r="E686" s="8"/>
+      <c r="F686" s="8"/>
+      <c r="G686" s="8"/>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A687" s="8"/>
+      <c r="B687" s="8"/>
+      <c r="C687" s="8"/>
+      <c r="E687" s="8"/>
+      <c r="F687" s="8"/>
+      <c r="G687" s="8"/>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A688" s="8"/>
+      <c r="B688" s="8"/>
+      <c r="C688" s="8"/>
+      <c r="E688" s="8"/>
+      <c r="F688" s="8"/>
+      <c r="G688" s="8"/>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A689" s="8"/>
+      <c r="B689" s="8"/>
+      <c r="C689" s="8"/>
+      <c r="E689" s="8"/>
+      <c r="F689" s="8"/>
+      <c r="G689" s="8"/>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A690" s="8"/>
+      <c r="B690" s="8"/>
+      <c r="C690" s="8"/>
+      <c r="E690" s="8"/>
+      <c r="F690" s="8"/>
+      <c r="G690" s="8"/>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A691" s="8"/>
+      <c r="B691" s="8"/>
+      <c r="C691" s="8"/>
+      <c r="E691" s="8"/>
+      <c r="F691" s="8"/>
+      <c r="G691" s="8"/>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A692" s="8"/>
+      <c r="B692" s="8"/>
+      <c r="C692" s="8"/>
+      <c r="E692" s="8"/>
+      <c r="F692" s="8"/>
+      <c r="G692" s="8"/>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A693" s="8"/>
+      <c r="B693" s="8"/>
+      <c r="C693" s="8"/>
+      <c r="E693" s="8"/>
+      <c r="F693" s="8"/>
+      <c r="G693" s="8"/>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A694" s="8"/>
+      <c r="B694" s="8"/>
+      <c r="C694" s="8"/>
+      <c r="E694" s="8"/>
+      <c r="F694" s="8"/>
+      <c r="G694" s="8"/>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A695" s="8"/>
+      <c r="B695" s="8"/>
+      <c r="C695" s="8"/>
+      <c r="E695" s="8"/>
+      <c r="F695" s="8"/>
+      <c r="G695" s="8"/>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A696" s="8"/>
+      <c r="B696" s="8"/>
+      <c r="C696" s="8"/>
+      <c r="E696" s="8"/>
+      <c r="F696" s="8"/>
+      <c r="G696" s="8"/>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A697" s="8"/>
+      <c r="B697" s="8"/>
+      <c r="C697" s="8"/>
+      <c r="E697" s="8"/>
+      <c r="F697" s="8"/>
+      <c r="G697" s="8"/>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A698" s="8"/>
+      <c r="B698" s="8"/>
+      <c r="C698" s="8"/>
+      <c r="E698" s="8"/>
+      <c r="F698" s="8"/>
+      <c r="G698" s="8"/>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A699" s="8"/>
+      <c r="B699" s="8"/>
+      <c r="C699" s="8"/>
+      <c r="E699" s="8"/>
+      <c r="F699" s="8"/>
+      <c r="G699" s="8"/>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A700" s="8"/>
+      <c r="B700" s="8"/>
+      <c r="C700" s="8"/>
+      <c r="E700" s="8"/>
+      <c r="F700" s="8"/>
+      <c r="G700" s="8"/>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A701" s="8"/>
+      <c r="B701" s="8"/>
+      <c r="C701" s="8"/>
+      <c r="E701" s="8"/>
+      <c r="F701" s="8"/>
+      <c r="G701" s="8"/>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A702" s="8"/>
+      <c r="B702" s="8"/>
+      <c r="C702" s="8"/>
+      <c r="E702" s="8"/>
+      <c r="F702" s="8"/>
+      <c r="G702" s="8"/>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A703" s="8"/>
+      <c r="B703" s="8"/>
+      <c r="C703" s="8"/>
+      <c r="E703" s="8"/>
+      <c r="F703" s="8"/>
+      <c r="G703" s="8"/>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A704" s="8"/>
+      <c r="B704" s="8"/>
+      <c r="C704" s="8"/>
+      <c r="E704" s="8"/>
+      <c r="F704" s="8"/>
+      <c r="G704" s="8"/>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A705" s="8"/>
+      <c r="B705" s="8"/>
+      <c r="C705" s="8"/>
+      <c r="E705" s="8"/>
+      <c r="F705" s="8"/>
+      <c r="G705" s="8"/>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A706" s="8"/>
+      <c r="B706" s="8"/>
+      <c r="C706" s="8"/>
+      <c r="E706" s="8"/>
+      <c r="F706" s="8"/>
+      <c r="G706" s="8"/>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A707" s="8"/>
+      <c r="B707" s="8"/>
+      <c r="C707" s="8"/>
+      <c r="E707" s="8"/>
+      <c r="F707" s="8"/>
+      <c r="G707" s="8"/>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A708" s="8"/>
+      <c r="B708" s="8"/>
+      <c r="C708" s="8"/>
+      <c r="E708" s="8"/>
+      <c r="F708" s="8"/>
+      <c r="G708" s="8"/>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A709" s="8"/>
+      <c r="B709" s="8"/>
+      <c r="C709" s="8"/>
+      <c r="E709" s="8"/>
+      <c r="F709" s="8"/>
+      <c r="G709" s="8"/>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A710" s="8"/>
+      <c r="B710" s="8"/>
+      <c r="C710" s="8"/>
+      <c r="E710" s="8"/>
+      <c r="F710" s="8"/>
+      <c r="G710" s="8"/>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A711" s="8"/>
+      <c r="B711" s="8"/>
+      <c r="C711" s="8"/>
+      <c r="E711" s="8"/>
+      <c r="F711" s="8"/>
+      <c r="G711" s="8"/>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A712" s="8"/>
+      <c r="B712" s="8"/>
+      <c r="C712" s="8"/>
+      <c r="E712" s="8"/>
+      <c r="F712" s="8"/>
+      <c r="G712" s="8"/>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A713" s="8"/>
+      <c r="B713" s="8"/>
+      <c r="C713" s="8"/>
+      <c r="E713" s="8"/>
+      <c r="F713" s="8"/>
+      <c r="G713" s="8"/>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A714" s="8"/>
+      <c r="B714" s="8"/>
+      <c r="C714" s="8"/>
+      <c r="E714" s="8"/>
+      <c r="F714" s="8"/>
+      <c r="G714" s="8"/>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A715" s="8"/>
+      <c r="B715" s="8"/>
+      <c r="C715" s="8"/>
+      <c r="E715" s="8"/>
+      <c r="F715" s="8"/>
+      <c r="G715" s="8"/>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A716" s="8"/>
+      <c r="B716" s="8"/>
+      <c r="C716" s="8"/>
+      <c r="E716" s="8"/>
+      <c r="F716" s="8"/>
+      <c r="G716" s="8"/>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A717" s="8"/>
+      <c r="B717" s="8"/>
+      <c r="C717" s="8"/>
+      <c r="E717" s="8"/>
+      <c r="F717" s="8"/>
+      <c r="G717" s="8"/>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A718" s="8"/>
+      <c r="B718" s="8"/>
+      <c r="C718" s="8"/>
+      <c r="E718" s="8"/>
+      <c r="F718" s="8"/>
+      <c r="G718" s="8"/>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A719" s="8"/>
+      <c r="B719" s="8"/>
+      <c r="C719" s="8"/>
+      <c r="E719" s="8"/>
+      <c r="F719" s="8"/>
+      <c r="G719" s="8"/>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A720" s="8"/>
+      <c r="B720" s="8"/>
+      <c r="C720" s="8"/>
+      <c r="E720" s="8"/>
+      <c r="F720" s="8"/>
+      <c r="G720" s="8"/>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A721" s="8"/>
+      <c r="B721" s="8"/>
+      <c r="C721" s="8"/>
+      <c r="E721" s="8"/>
+      <c r="F721" s="8"/>
+      <c r="G721" s="8"/>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A722" s="8"/>
+      <c r="B722" s="8"/>
+      <c r="C722" s="8"/>
+      <c r="E722" s="8"/>
+      <c r="F722" s="8"/>
+      <c r="G722" s="8"/>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A723" s="8"/>
+      <c r="B723" s="8"/>
+      <c r="C723" s="8"/>
+      <c r="E723" s="8"/>
+      <c r="F723" s="8"/>
+      <c r="G723" s="8"/>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A724" s="8"/>
+      <c r="B724" s="8"/>
+      <c r="C724" s="8"/>
+      <c r="E724" s="8"/>
+      <c r="F724" s="8"/>
+      <c r="G724" s="8"/>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A725" s="8"/>
+      <c r="B725" s="8"/>
+      <c r="C725" s="8"/>
+      <c r="E725" s="8"/>
+      <c r="F725" s="8"/>
+      <c r="G725" s="8"/>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A726" s="8"/>
+      <c r="B726" s="8"/>
+      <c r="C726" s="8"/>
+      <c r="E726" s="8"/>
+      <c r="F726" s="8"/>
+      <c r="G726" s="8"/>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A727" s="8"/>
+      <c r="B727" s="8"/>
+      <c r="C727" s="8"/>
+      <c r="E727" s="8"/>
+      <c r="F727" s="8"/>
+      <c r="G727" s="8"/>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A728" s="8"/>
+      <c r="B728" s="8"/>
+      <c r="C728" s="8"/>
+      <c r="E728" s="8"/>
+      <c r="F728" s="8"/>
+      <c r="G728" s="8"/>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A729" s="8"/>
+      <c r="B729" s="8"/>
+      <c r="C729" s="8"/>
+      <c r="E729" s="8"/>
+      <c r="F729" s="8"/>
+      <c r="G729" s="8"/>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A730" s="8"/>
+      <c r="B730" s="8"/>
+      <c r="C730" s="8"/>
+      <c r="E730" s="8"/>
+      <c r="F730" s="8"/>
+      <c r="G730" s="8"/>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A731" s="8"/>
+      <c r="B731" s="8"/>
+      <c r="C731" s="8"/>
+      <c r="E731" s="8"/>
+      <c r="F731" s="8"/>
+      <c r="G731" s="8"/>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A732" s="8"/>
+      <c r="B732" s="8"/>
+      <c r="C732" s="8"/>
+      <c r="E732" s="8"/>
+      <c r="F732" s="8"/>
+      <c r="G732" s="8"/>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A733" s="8"/>
+      <c r="B733" s="8"/>
+      <c r="C733" s="8"/>
+      <c r="E733" s="8"/>
+      <c r="F733" s="8"/>
+      <c r="G733" s="8"/>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A734" s="8"/>
+      <c r="B734" s="8"/>
+      <c r="C734" s="8"/>
+      <c r="E734" s="8"/>
+      <c r="F734" s="8"/>
+      <c r="G734" s="8"/>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A735" s="8"/>
+      <c r="B735" s="8"/>
+      <c r="C735" s="8"/>
+      <c r="E735" s="8"/>
+      <c r="F735" s="8"/>
+      <c r="G735" s="8"/>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A736" s="8"/>
+      <c r="B736" s="8"/>
+      <c r="C736" s="8"/>
+      <c r="E736" s="8"/>
+      <c r="F736" s="8"/>
+      <c r="G736" s="8"/>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A737" s="8"/>
+      <c r="B737" s="8"/>
+      <c r="C737" s="8"/>
+      <c r="E737" s="8"/>
+      <c r="F737" s="8"/>
+      <c r="G737" s="8"/>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A738" s="8"/>
+      <c r="B738" s="8"/>
+      <c r="C738" s="8"/>
+      <c r="E738" s="8"/>
+      <c r="F738" s="8"/>
+      <c r="G738" s="8"/>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A739" s="8"/>
+      <c r="B739" s="8"/>
+      <c r="C739" s="8"/>
+      <c r="E739" s="8"/>
+      <c r="F739" s="8"/>
+      <c r="G739" s="8"/>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A740" s="8"/>
+      <c r="B740" s="8"/>
+      <c r="C740" s="8"/>
+      <c r="E740" s="8"/>
+      <c r="F740" s="8"/>
+      <c r="G740" s="8"/>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A741" s="8"/>
+      <c r="B741" s="8"/>
+      <c r="C741" s="8"/>
+      <c r="E741" s="8"/>
+      <c r="F741" s="8"/>
+      <c r="G741" s="8"/>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A742" s="8"/>
+      <c r="B742" s="8"/>
+      <c r="C742" s="8"/>
+      <c r="E742" s="8"/>
+      <c r="F742" s="8"/>
+      <c r="G742" s="8"/>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A743" s="8"/>
+      <c r="B743" s="8"/>
+      <c r="C743" s="8"/>
+      <c r="E743" s="8"/>
+      <c r="F743" s="8"/>
+      <c r="G743" s="8"/>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A744" s="8"/>
+      <c r="B744" s="8"/>
+      <c r="C744" s="8"/>
+      <c r="E744" s="8"/>
+      <c r="F744" s="8"/>
+      <c r="G744" s="8"/>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A745" s="8"/>
+      <c r="B745" s="8"/>
+      <c r="C745" s="8"/>
+      <c r="E745" s="8"/>
+      <c r="F745" s="8"/>
+      <c r="G745" s="8"/>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A746" s="8"/>
+      <c r="B746" s="8"/>
+      <c r="C746" s="8"/>
+      <c r="E746" s="8"/>
+      <c r="F746" s="8"/>
+      <c r="G746" s="8"/>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A747" s="8"/>
+      <c r="B747" s="8"/>
+      <c r="C747" s="8"/>
+      <c r="E747" s="8"/>
+      <c r="F747" s="8"/>
+      <c r="G747" s="8"/>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A748" s="8"/>
+      <c r="B748" s="8"/>
+      <c r="C748" s="8"/>
+      <c r="E748" s="8"/>
+      <c r="F748" s="8"/>
+      <c r="G748" s="8"/>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A749" s="8"/>
+      <c r="B749" s="8"/>
+      <c r="C749" s="8"/>
+      <c r="E749" s="8"/>
+      <c r="F749" s="8"/>
+      <c r="G749" s="8"/>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A750" s="8"/>
+      <c r="B750" s="8"/>
+      <c r="C750" s="8"/>
+      <c r="E750" s="8"/>
+      <c r="F750" s="8"/>
+      <c r="G750" s="8"/>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A751" s="8"/>
+      <c r="B751" s="8"/>
+      <c r="C751" s="8"/>
+      <c r="E751" s="8"/>
+      <c r="F751" s="8"/>
+      <c r="G751" s="8"/>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A752" s="8"/>
+      <c r="B752" s="8"/>
+      <c r="C752" s="8"/>
+      <c r="E752" s="8"/>
+      <c r="F752" s="8"/>
+      <c r="G752" s="8"/>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A753" s="8"/>
+      <c r="B753" s="8"/>
+      <c r="C753" s="8"/>
+      <c r="E753" s="8"/>
+      <c r="F753" s="8"/>
+      <c r="G753" s="8"/>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A754" s="8"/>
+      <c r="B754" s="8"/>
+      <c r="C754" s="8"/>
+      <c r="E754" s="8"/>
+      <c r="F754" s="8"/>
+      <c r="G754" s="8"/>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A755" s="8"/>
+      <c r="B755" s="8"/>
+      <c r="C755" s="8"/>
+      <c r="E755" s="8"/>
+      <c r="F755" s="8"/>
+      <c r="G755" s="8"/>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A756" s="8"/>
+      <c r="B756" s="8"/>
+      <c r="C756" s="8"/>
+      <c r="E756" s="8"/>
+      <c r="F756" s="8"/>
+      <c r="G756" s="8"/>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A757" s="8"/>
+      <c r="B757" s="8"/>
+      <c r="C757" s="8"/>
+      <c r="E757" s="8"/>
+      <c r="F757" s="8"/>
+      <c r="G757" s="8"/>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A758" s="8"/>
+      <c r="B758" s="8"/>
+      <c r="C758" s="8"/>
+      <c r="E758" s="8"/>
+      <c r="F758" s="8"/>
+      <c r="G758" s="8"/>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A759" s="8"/>
+      <c r="B759" s="8"/>
+      <c r="C759" s="8"/>
+      <c r="E759" s="8"/>
+      <c r="F759" s="8"/>
+      <c r="G759" s="8"/>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A760" s="8"/>
+      <c r="B760" s="8"/>
+      <c r="C760" s="8"/>
+      <c r="E760" s="8"/>
+      <c r="F760" s="8"/>
+      <c r="G760" s="8"/>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A761" s="8"/>
+      <c r="B761" s="8"/>
+      <c r="C761" s="8"/>
+      <c r="E761" s="8"/>
+      <c r="F761" s="8"/>
+      <c r="G761" s="8"/>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A762" s="8"/>
+      <c r="B762" s="8"/>
+      <c r="C762" s="8"/>
+      <c r="E762" s="8"/>
+      <c r="F762" s="8"/>
+      <c r="G762" s="8"/>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A763" s="8"/>
+      <c r="B763" s="8"/>
+      <c r="C763" s="8"/>
+      <c r="E763" s="8"/>
+      <c r="F763" s="8"/>
+      <c r="G763" s="8"/>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A764" s="8"/>
+      <c r="B764" s="8"/>
+      <c r="C764" s="8"/>
+      <c r="E764" s="8"/>
+      <c r="F764" s="8"/>
+      <c r="G764" s="8"/>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A765" s="8"/>
+      <c r="B765" s="8"/>
+      <c r="C765" s="8"/>
+      <c r="E765" s="8"/>
+      <c r="F765" s="8"/>
+      <c r="G765" s="8"/>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A766" s="8"/>
+      <c r="B766" s="8"/>
+      <c r="C766" s="8"/>
+      <c r="E766" s="8"/>
+      <c r="F766" s="8"/>
+      <c r="G766" s="8"/>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A767" s="8"/>
+      <c r="B767" s="8"/>
+      <c r="C767" s="8"/>
+      <c r="E767" s="8"/>
+      <c r="F767" s="8"/>
+      <c r="G767" s="8"/>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A768" s="8"/>
+      <c r="B768" s="8"/>
+      <c r="C768" s="8"/>
+      <c r="E768" s="8"/>
+      <c r="F768" s="8"/>
+      <c r="G768" s="8"/>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A769" s="8"/>
+      <c r="B769" s="8"/>
+      <c r="C769" s="8"/>
+      <c r="E769" s="8"/>
+      <c r="F769" s="8"/>
+      <c r="G769" s="8"/>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A770" s="8"/>
+      <c r="B770" s="8"/>
+      <c r="C770" s="8"/>
+      <c r="E770" s="8"/>
+      <c r="F770" s="8"/>
+      <c r="G770" s="8"/>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A771" s="8"/>
+      <c r="B771" s="8"/>
+      <c r="C771" s="8"/>
+      <c r="E771" s="8"/>
+      <c r="F771" s="8"/>
+      <c r="G771" s="8"/>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A772" s="8"/>
+      <c r="B772" s="8"/>
+      <c r="C772" s="8"/>
+      <c r="E772" s="8"/>
+      <c r="F772" s="8"/>
+      <c r="G772" s="8"/>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A773" s="8"/>
+      <c r="B773" s="8"/>
+      <c r="C773" s="8"/>
+      <c r="E773" s="8"/>
+      <c r="F773" s="8"/>
+      <c r="G773" s="8"/>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A774" s="8"/>
+      <c r="B774" s="8"/>
+      <c r="C774" s="8"/>
+      <c r="E774" s="8"/>
+      <c r="F774" s="8"/>
+      <c r="G774" s="8"/>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A775" s="8"/>
+      <c r="B775" s="8"/>
+      <c r="C775" s="8"/>
+      <c r="E775" s="8"/>
+      <c r="F775" s="8"/>
+      <c r="G775" s="8"/>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A776" s="8"/>
+      <c r="B776" s="8"/>
+      <c r="C776" s="8"/>
+      <c r="E776" s="8"/>
+      <c r="F776" s="8"/>
+      <c r="G776" s="8"/>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A777" s="8"/>
+      <c r="B777" s="8"/>
+      <c r="C777" s="8"/>
+      <c r="E777" s="8"/>
+      <c r="F777" s="8"/>
+      <c r="G777" s="8"/>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A778" s="8"/>
+      <c r="B778" s="8"/>
+      <c r="C778" s="8"/>
+      <c r="E778" s="8"/>
+      <c r="F778" s="8"/>
+      <c r="G778" s="8"/>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A779" s="8"/>
+      <c r="B779" s="8"/>
+      <c r="C779" s="8"/>
+      <c r="E779" s="8"/>
+      <c r="F779" s="8"/>
+      <c r="G779" s="8"/>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A780" s="8"/>
+      <c r="B780" s="8"/>
+      <c r="C780" s="8"/>
+      <c r="E780" s="8"/>
+      <c r="F780" s="8"/>
+      <c r="G780" s="8"/>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A781" s="8"/>
+      <c r="B781" s="8"/>
+      <c r="C781" s="8"/>
+      <c r="E781" s="8"/>
+      <c r="F781" s="8"/>
+      <c r="G781" s="8"/>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A782" s="8"/>
+      <c r="B782" s="8"/>
+      <c r="C782" s="8"/>
+      <c r="E782" s="8"/>
+      <c r="F782" s="8"/>
+      <c r="G782" s="8"/>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A783" s="8"/>
+      <c r="B783" s="8"/>
+      <c r="C783" s="8"/>
+      <c r="E783" s="8"/>
+      <c r="F783" s="8"/>
+      <c r="G783" s="8"/>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A784" s="8"/>
+      <c r="B784" s="8"/>
+      <c r="C784" s="8"/>
+      <c r="E784" s="8"/>
+      <c r="F784" s="8"/>
+      <c r="G784" s="8"/>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A785" s="8"/>
+      <c r="B785" s="8"/>
+      <c r="C785" s="8"/>
+      <c r="E785" s="8"/>
+      <c r="F785" s="8"/>
+      <c r="G785" s="8"/>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A786" s="8"/>
+      <c r="B786" s="8"/>
+      <c r="C786" s="8"/>
+      <c r="E786" s="8"/>
+      <c r="F786" s="8"/>
+      <c r="G786" s="8"/>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A787" s="8"/>
+      <c r="B787" s="8"/>
+      <c r="C787" s="8"/>
+      <c r="E787" s="8"/>
+      <c r="F787" s="8"/>
+      <c r="G787" s="8"/>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A788" s="8"/>
+      <c r="B788" s="8"/>
+      <c r="C788" s="8"/>
+      <c r="E788" s="8"/>
+      <c r="F788" s="8"/>
+      <c r="G788" s="8"/>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A789" s="8"/>
+      <c r="B789" s="8"/>
+      <c r="C789" s="8"/>
+      <c r="E789" s="8"/>
+      <c r="F789" s="8"/>
+      <c r="G789" s="8"/>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A790" s="8"/>
+      <c r="B790" s="8"/>
+      <c r="C790" s="8"/>
+      <c r="E790" s="8"/>
+      <c r="F790" s="8"/>
+      <c r="G790" s="8"/>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A791" s="8"/>
+      <c r="B791" s="8"/>
+      <c r="C791" s="8"/>
+      <c r="E791" s="8"/>
+      <c r="F791" s="8"/>
+      <c r="G791" s="8"/>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A792" s="8"/>
+      <c r="B792" s="8"/>
+      <c r="C792" s="8"/>
+      <c r="E792" s="8"/>
+      <c r="F792" s="8"/>
+      <c r="G792" s="8"/>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A793" s="8"/>
+      <c r="B793" s="8"/>
+      <c r="C793" s="8"/>
+      <c r="E793" s="8"/>
+      <c r="F793" s="8"/>
+      <c r="G793" s="8"/>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A794" s="8"/>
+      <c r="B794" s="8"/>
+      <c r="C794" s="8"/>
+      <c r="E794" s="8"/>
+      <c r="F794" s="8"/>
+      <c r="G794" s="8"/>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A795" s="8"/>
+      <c r="B795" s="8"/>
+      <c r="C795" s="8"/>
+      <c r="E795" s="8"/>
+      <c r="F795" s="8"/>
+      <c r="G795" s="8"/>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A796" s="8"/>
+      <c r="B796" s="8"/>
+      <c r="C796" s="8"/>
+      <c r="E796" s="8"/>
+      <c r="F796" s="8"/>
+      <c r="G796" s="8"/>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A797" s="8"/>
+      <c r="B797" s="8"/>
+      <c r="C797" s="8"/>
+      <c r="E797" s="8"/>
+      <c r="F797" s="8"/>
+      <c r="G797" s="8"/>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A798" s="8"/>
+      <c r="B798" s="8"/>
+      <c r="C798" s="8"/>
+      <c r="E798" s="8"/>
+      <c r="F798" s="8"/>
+      <c r="G798" s="8"/>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A799" s="8"/>
+      <c r="B799" s="8"/>
+      <c r="C799" s="8"/>
+      <c r="E799" s="8"/>
+      <c r="F799" s="8"/>
+      <c r="G799" s="8"/>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A800" s="8"/>
+      <c r="B800" s="8"/>
+      <c r="C800" s="8"/>
+      <c r="E800" s="8"/>
+      <c r="F800" s="8"/>
+      <c r="G800" s="8"/>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A801" s="8"/>
+      <c r="B801" s="8"/>
+      <c r="C801" s="8"/>
+      <c r="E801" s="8"/>
+      <c r="F801" s="8"/>
+      <c r="G801" s="8"/>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A802" s="8"/>
+      <c r="B802" s="8"/>
+      <c r="C802" s="8"/>
+      <c r="E802" s="8"/>
+      <c r="F802" s="8"/>
+      <c r="G802" s="8"/>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A803" s="8"/>
+      <c r="B803" s="8"/>
+      <c r="C803" s="8"/>
+      <c r="E803" s="8"/>
+      <c r="F803" s="8"/>
+      <c r="G803" s="8"/>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A804" s="8"/>
+      <c r="B804" s="8"/>
+      <c r="C804" s="8"/>
+      <c r="E804" s="8"/>
+      <c r="F804" s="8"/>
+      <c r="G804" s="8"/>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A805" s="8"/>
+      <c r="B805" s="8"/>
+      <c r="C805" s="8"/>
+      <c r="E805" s="8"/>
+      <c r="F805" s="8"/>
+      <c r="G805" s="8"/>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A806" s="8"/>
+      <c r="B806" s="8"/>
+      <c r="C806" s="8"/>
+      <c r="E806" s="8"/>
+      <c r="F806" s="8"/>
+      <c r="G806" s="8"/>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A807" s="8"/>
+      <c r="B807" s="8"/>
+      <c r="C807" s="8"/>
+      <c r="E807" s="8"/>
+      <c r="F807" s="8"/>
+      <c r="G807" s="8"/>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A808" s="8"/>
+      <c r="B808" s="8"/>
+      <c r="C808" s="8"/>
+      <c r="E808" s="8"/>
+      <c r="F808" s="8"/>
+      <c r="G808" s="8"/>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A809" s="8"/>
+      <c r="B809" s="8"/>
+      <c r="C809" s="8"/>
+      <c r="E809" s="8"/>
+      <c r="F809" s="8"/>
+      <c r="G809" s="8"/>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A810" s="8"/>
+      <c r="B810" s="8"/>
+      <c r="C810" s="8"/>
+      <c r="E810" s="8"/>
+      <c r="F810" s="8"/>
+      <c r="G810" s="8"/>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A811" s="8"/>
+      <c r="B811" s="8"/>
+      <c r="C811" s="8"/>
+      <c r="E811" s="8"/>
+      <c r="F811" s="8"/>
+      <c r="G811" s="8"/>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A812" s="8"/>
+      <c r="B812" s="8"/>
+      <c r="C812" s="8"/>
+      <c r="E812" s="8"/>
+      <c r="F812" s="8"/>
+      <c r="G812" s="8"/>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A813" s="8"/>
+      <c r="B813" s="8"/>
+      <c r="C813" s="8"/>
+      <c r="E813" s="8"/>
+      <c r="F813" s="8"/>
+      <c r="G813" s="8"/>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A814" s="8"/>
+      <c r="B814" s="8"/>
+      <c r="C814" s="8"/>
+      <c r="E814" s="8"/>
+      <c r="F814" s="8"/>
+      <c r="G814" s="8"/>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A815" s="8"/>
+      <c r="B815" s="8"/>
+      <c r="C815" s="8"/>
+      <c r="E815" s="8"/>
+      <c r="F815" s="8"/>
+      <c r="G815" s="8"/>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A816" s="8"/>
+      <c r="B816" s="8"/>
+      <c r="C816" s="8"/>
+      <c r="E816" s="8"/>
+      <c r="F816" s="8"/>
+      <c r="G816" s="8"/>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A817" s="8"/>
+      <c r="B817" s="8"/>
+      <c r="C817" s="8"/>
+      <c r="E817" s="8"/>
+      <c r="F817" s="8"/>
+      <c r="G817" s="8"/>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A818" s="8"/>
+      <c r="B818" s="8"/>
+      <c r="C818" s="8"/>
+      <c r="E818" s="8"/>
+      <c r="F818" s="8"/>
+      <c r="G818" s="8"/>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A819" s="8"/>
+      <c r="B819" s="8"/>
+      <c r="C819" s="8"/>
+      <c r="E819" s="8"/>
+      <c r="F819" s="8"/>
+      <c r="G819" s="8"/>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A820" s="8"/>
+      <c r="B820" s="8"/>
+      <c r="C820" s="8"/>
+      <c r="E820" s="8"/>
+      <c r="F820" s="8"/>
+      <c r="G820" s="8"/>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A821" s="8"/>
+      <c r="B821" s="8"/>
+      <c r="C821" s="8"/>
+      <c r="E821" s="8"/>
+      <c r="F821" s="8"/>
+      <c r="G821" s="8"/>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A822" s="8"/>
+      <c r="B822" s="8"/>
+      <c r="C822" s="8"/>
+      <c r="E822" s="8"/>
+      <c r="F822" s="8"/>
+      <c r="G822" s="8"/>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A823" s="8"/>
+      <c r="B823" s="8"/>
+      <c r="C823" s="8"/>
+      <c r="E823" s="8"/>
+      <c r="F823" s="8"/>
+      <c r="G823" s="8"/>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A824" s="8"/>
+      <c r="B824" s="8"/>
+      <c r="C824" s="8"/>
+      <c r="E824" s="8"/>
+      <c r="F824" s="8"/>
+      <c r="G824" s="8"/>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A825" s="8"/>
+      <c r="B825" s="8"/>
+      <c r="C825" s="8"/>
+      <c r="E825" s="8"/>
+      <c r="F825" s="8"/>
+      <c r="G825" s="8"/>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A826" s="8"/>
+      <c r="B826" s="8"/>
+      <c r="C826" s="8"/>
+      <c r="E826" s="8"/>
+      <c r="F826" s="8"/>
+      <c r="G826" s="8"/>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A827" s="8"/>
+      <c r="B827" s="8"/>
+      <c r="C827" s="8"/>
+      <c r="E827" s="8"/>
+      <c r="F827" s="8"/>
+      <c r="G827" s="8"/>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A828" s="8"/>
+      <c r="B828" s="8"/>
+      <c r="C828" s="8"/>
+      <c r="E828" s="8"/>
+      <c r="F828" s="8"/>
+      <c r="G828" s="8"/>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A829" s="8"/>
+      <c r="B829" s="8"/>
+      <c r="C829" s="8"/>
+      <c r="E829" s="8"/>
+      <c r="F829" s="8"/>
+      <c r="G829" s="8"/>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A830" s="8"/>
+      <c r="B830" s="8"/>
+      <c r="C830" s="8"/>
+      <c r="E830" s="8"/>
+      <c r="F830" s="8"/>
+      <c r="G830" s="8"/>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A831" s="8"/>
+      <c r="B831" s="8"/>
+      <c r="C831" s="8"/>
+      <c r="E831" s="8"/>
+      <c r="F831" s="8"/>
+      <c r="G831" s="8"/>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A832" s="8"/>
+      <c r="B832" s="8"/>
+      <c r="C832" s="8"/>
+      <c r="E832" s="8"/>
+      <c r="F832" s="8"/>
+      <c r="G832" s="8"/>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A833" s="8"/>
+      <c r="B833" s="8"/>
+      <c r="C833" s="8"/>
+      <c r="E833" s="8"/>
+      <c r="F833" s="8"/>
+      <c r="G833" s="8"/>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A834" s="8"/>
+      <c r="B834" s="8"/>
+      <c r="C834" s="8"/>
+      <c r="E834" s="8"/>
+      <c r="F834" s="8"/>
+      <c r="G834" s="8"/>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A835" s="8"/>
+      <c r="B835" s="8"/>
+      <c r="C835" s="8"/>
+      <c r="E835" s="8"/>
+      <c r="F835" s="8"/>
+      <c r="G835" s="8"/>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A836" s="8"/>
+      <c r="B836" s="8"/>
+      <c r="C836" s="8"/>
+      <c r="E836" s="8"/>
+      <c r="F836" s="8"/>
+      <c r="G836" s="8"/>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A837" s="8"/>
+      <c r="B837" s="8"/>
+      <c r="C837" s="8"/>
+      <c r="E837" s="8"/>
+      <c r="F837" s="8"/>
+      <c r="G837" s="8"/>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A838" s="8"/>
+      <c r="B838" s="8"/>
+      <c r="C838" s="8"/>
+      <c r="E838" s="8"/>
+      <c r="F838" s="8"/>
+      <c r="G838" s="8"/>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A839" s="8"/>
+      <c r="B839" s="8"/>
+      <c r="C839" s="8"/>
+      <c r="E839" s="8"/>
+      <c r="F839" s="8"/>
+      <c r="G839" s="8"/>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A840" s="8"/>
+      <c r="B840" s="8"/>
+      <c r="C840" s="8"/>
+      <c r="E840" s="8"/>
+      <c r="F840" s="8"/>
+      <c r="G840" s="8"/>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A841" s="8"/>
+      <c r="B841" s="8"/>
+      <c r="C841" s="8"/>
+      <c r="E841" s="8"/>
+      <c r="F841" s="8"/>
+      <c r="G841" s="8"/>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A842" s="8"/>
+      <c r="B842" s="8"/>
+      <c r="C842" s="8"/>
+      <c r="E842" s="8"/>
+      <c r="F842" s="8"/>
+      <c r="G842" s="8"/>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A843" s="8"/>
+      <c r="B843" s="8"/>
+      <c r="C843" s="8"/>
+      <c r="E843" s="8"/>
+      <c r="F843" s="8"/>
+      <c r="G843" s="8"/>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A844" s="8"/>
+      <c r="B844" s="8"/>
+      <c r="C844" s="8"/>
+      <c r="E844" s="8"/>
+      <c r="F844" s="8"/>
+      <c r="G844" s="8"/>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A845" s="8"/>
+      <c r="B845" s="8"/>
+      <c r="C845" s="8"/>
+      <c r="E845" s="8"/>
+      <c r="F845" s="8"/>
+      <c r="G845" s="8"/>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A846" s="8"/>
+      <c r="B846" s="8"/>
+      <c r="C846" s="8"/>
+      <c r="E846" s="8"/>
+      <c r="F846" s="8"/>
+      <c r="G846" s="8"/>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A847" s="8"/>
+      <c r="B847" s="8"/>
+      <c r="C847" s="8"/>
+      <c r="E847" s="8"/>
+      <c r="F847" s="8"/>
+      <c r="G847" s="8"/>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A848" s="8"/>
+      <c r="B848" s="8"/>
+      <c r="C848" s="8"/>
+      <c r="E848" s="8"/>
+      <c r="F848" s="8"/>
+      <c r="G848" s="8"/>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A849" s="8"/>
+      <c r="B849" s="8"/>
+      <c r="C849" s="8"/>
+      <c r="E849" s="8"/>
+      <c r="F849" s="8"/>
+      <c r="G849" s="8"/>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A850" s="8"/>
+      <c r="B850" s="8"/>
+      <c r="C850" s="8"/>
+      <c r="E850" s="8"/>
+      <c r="F850" s="8"/>
+      <c r="G850" s="8"/>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A851" s="8"/>
+      <c r="B851" s="8"/>
+      <c r="C851" s="8"/>
+      <c r="E851" s="8"/>
+      <c r="F851" s="8"/>
+      <c r="G851" s="8"/>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A852" s="8"/>
+      <c r="B852" s="8"/>
+      <c r="C852" s="8"/>
+      <c r="E852" s="8"/>
+      <c r="F852" s="8"/>
+      <c r="G852" s="8"/>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A853" s="8"/>
+      <c r="B853" s="8"/>
+      <c r="C853" s="8"/>
+      <c r="E853" s="8"/>
+      <c r="F853" s="8"/>
+      <c r="G853" s="8"/>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A854" s="8"/>
+      <c r="B854" s="8"/>
+      <c r="C854" s="8"/>
+      <c r="E854" s="8"/>
+      <c r="F854" s="8"/>
+      <c r="G854" s="8"/>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A855" s="8"/>
+      <c r="B855" s="8"/>
+      <c r="C855" s="8"/>
+      <c r="E855" s="8"/>
+      <c r="F855" s="8"/>
+      <c r="G855" s="8"/>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A856" s="8"/>
+      <c r="B856" s="8"/>
+      <c r="C856" s="8"/>
+      <c r="E856" s="8"/>
+      <c r="F856" s="8"/>
+      <c r="G856" s="8"/>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A857" s="8"/>
+      <c r="B857" s="8"/>
+      <c r="C857" s="8"/>
+      <c r="E857" s="8"/>
+      <c r="F857" s="8"/>
+      <c r="G857" s="8"/>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A858" s="8"/>
+      <c r="B858" s="8"/>
+      <c r="C858" s="8"/>
+      <c r="E858" s="8"/>
+      <c r="F858" s="8"/>
+      <c r="G858" s="8"/>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A859" s="8"/>
+      <c r="B859" s="8"/>
+      <c r="C859" s="8"/>
+      <c r="E859" s="8"/>
+      <c r="F859" s="8"/>
+      <c r="G859" s="8"/>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A860" s="8"/>
+      <c r="B860" s="8"/>
+      <c r="C860" s="8"/>
+      <c r="E860" s="8"/>
+      <c r="F860" s="8"/>
+      <c r="G860" s="8"/>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A861" s="8"/>
+      <c r="B861" s="8"/>
+      <c r="C861" s="8"/>
+      <c r="E861" s="8"/>
+      <c r="F861" s="8"/>
+      <c r="G861" s="8"/>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A862" s="8"/>
+      <c r="B862" s="8"/>
+      <c r="C862" s="8"/>
+      <c r="E862" s="8"/>
+      <c r="F862" s="8"/>
+      <c r="G862" s="8"/>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A863" s="8"/>
+      <c r="B863" s="8"/>
+      <c r="C863" s="8"/>
+      <c r="E863" s="8"/>
+      <c r="F863" s="8"/>
+      <c r="G863" s="8"/>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A864" s="8"/>
+      <c r="B864" s="8"/>
+      <c r="C864" s="8"/>
+      <c r="E864" s="8"/>
+      <c r="F864" s="8"/>
+      <c r="G864" s="8"/>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A865" s="8"/>
+      <c r="B865" s="8"/>
+      <c r="C865" s="8"/>
+      <c r="E865" s="8"/>
+      <c r="F865" s="8"/>
+      <c r="G865" s="8"/>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A866" s="8"/>
+      <c r="B866" s="8"/>
+      <c r="C866" s="8"/>
+      <c r="E866" s="8"/>
+      <c r="F866" s="8"/>
+      <c r="G866" s="8"/>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A867" s="8"/>
+      <c r="B867" s="8"/>
+      <c r="C867" s="8"/>
+      <c r="E867" s="8"/>
+      <c r="F867" s="8"/>
+      <c r="G867" s="8"/>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A868" s="8"/>
+      <c r="B868" s="8"/>
+      <c r="C868" s="8"/>
+      <c r="E868" s="8"/>
+      <c r="F868" s="8"/>
+      <c r="G868" s="8"/>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A869" s="8"/>
+      <c r="B869" s="8"/>
+      <c r="C869" s="8"/>
+      <c r="E869" s="8"/>
+      <c r="F869" s="8"/>
+      <c r="G869" s="8"/>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A870" s="8"/>
+      <c r="B870" s="8"/>
+      <c r="C870" s="8"/>
+      <c r="E870" s="8"/>
+      <c r="F870" s="8"/>
+      <c r="G870" s="8"/>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A871" s="8"/>
+      <c r="B871" s="8"/>
+      <c r="C871" s="8"/>
+      <c r="E871" s="8"/>
+      <c r="F871" s="8"/>
+      <c r="G871" s="8"/>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A872" s="8"/>
+      <c r="B872" s="8"/>
+      <c r="C872" s="8"/>
+      <c r="E872" s="8"/>
+      <c r="F872" s="8"/>
+      <c r="G872" s="8"/>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A873" s="8"/>
+      <c r="B873" s="8"/>
+      <c r="C873" s="8"/>
+      <c r="E873" s="8"/>
+      <c r="F873" s="8"/>
+      <c r="G873" s="8"/>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A874" s="8"/>
+      <c r="B874" s="8"/>
+      <c r="C874" s="8"/>
+      <c r="E874" s="8"/>
+      <c r="F874" s="8"/>
+      <c r="G874" s="8"/>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A875" s="8"/>
+      <c r="B875" s="8"/>
+      <c r="C875" s="8"/>
+      <c r="E875" s="8"/>
+      <c r="F875" s="8"/>
+      <c r="G875" s="8"/>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A876" s="8"/>
+      <c r="B876" s="8"/>
+      <c r="C876" s="8"/>
+      <c r="E876" s="8"/>
+      <c r="F876" s="8"/>
+      <c r="G876" s="8"/>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A877" s="8"/>
+      <c r="B877" s="8"/>
+      <c r="C877" s="8"/>
+      <c r="E877" s="8"/>
+      <c r="F877" s="8"/>
+      <c r="G877" s="8"/>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A878" s="8"/>
+      <c r="B878" s="8"/>
+      <c r="C878" s="8"/>
+      <c r="E878" s="8"/>
+      <c r="F878" s="8"/>
+      <c r="G878" s="8"/>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A879" s="8"/>
+      <c r="B879" s="8"/>
+      <c r="C879" s="8"/>
+      <c r="E879" s="8"/>
+      <c r="F879" s="8"/>
+      <c r="G879" s="8"/>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A880" s="8"/>
+      <c r="B880" s="8"/>
+      <c r="C880" s="8"/>
+      <c r="E880" s="8"/>
+      <c r="F880" s="8"/>
+      <c r="G880" s="8"/>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A881" s="8"/>
+      <c r="B881" s="8"/>
+      <c r="C881" s="8"/>
+      <c r="E881" s="8"/>
+      <c r="F881" s="8"/>
+      <c r="G881" s="8"/>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A882" s="8"/>
+      <c r="B882" s="8"/>
+      <c r="C882" s="8"/>
+      <c r="E882" s="8"/>
+      <c r="F882" s="8"/>
+      <c r="G882" s="8"/>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A883" s="8"/>
+      <c r="B883" s="8"/>
+      <c r="C883" s="8"/>
+      <c r="E883" s="8"/>
+      <c r="F883" s="8"/>
+      <c r="G883" s="8"/>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A884" s="8"/>
+      <c r="B884" s="8"/>
+      <c r="C884" s="8"/>
+      <c r="E884" s="8"/>
+      <c r="F884" s="8"/>
+      <c r="G884" s="8"/>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A885" s="8"/>
+      <c r="B885" s="8"/>
+      <c r="C885" s="8"/>
+      <c r="E885" s="8"/>
+      <c r="F885" s="8"/>
+      <c r="G885" s="8"/>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A886" s="8"/>
+      <c r="B886" s="8"/>
+      <c r="C886" s="8"/>
+      <c r="E886" s="8"/>
+      <c r="F886" s="8"/>
+      <c r="G886" s="8"/>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A887" s="8"/>
+      <c r="B887" s="8"/>
+      <c r="C887" s="8"/>
+      <c r="E887" s="8"/>
+      <c r="F887" s="8"/>
+      <c r="G887" s="8"/>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A888" s="8"/>
+      <c r="B888" s="8"/>
+      <c r="C888" s="8"/>
+      <c r="E888" s="8"/>
+      <c r="F888" s="8"/>
+      <c r="G888" s="8"/>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889" s="8"/>
+      <c r="B889" s="8"/>
+      <c r="C889" s="8"/>
+      <c r="E889" s="8"/>
+      <c r="F889" s="8"/>
+      <c r="G889" s="8"/>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890" s="8"/>
+      <c r="B890" s="8"/>
+      <c r="C890" s="8"/>
+      <c r="E890" s="8"/>
+      <c r="F890" s="8"/>
+      <c r="G890" s="8"/>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A891" s="8"/>
+      <c r="B891" s="8"/>
+      <c r="C891" s="8"/>
+      <c r="E891" s="8"/>
+      <c r="F891" s="8"/>
+      <c r="G891" s="8"/>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A892" s="8"/>
+      <c r="B892" s="8"/>
+      <c r="C892" s="8"/>
+      <c r="E892" s="8"/>
+      <c r="F892" s="8"/>
+      <c r="G892" s="8"/>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A893" s="8"/>
+      <c r="B893" s="8"/>
+      <c r="C893" s="8"/>
+      <c r="E893" s="8"/>
+      <c r="F893" s="8"/>
+      <c r="G893" s="8"/>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A894" s="8"/>
+      <c r="B894" s="8"/>
+      <c r="C894" s="8"/>
+      <c r="E894" s="8"/>
+      <c r="F894" s="8"/>
+      <c r="G894" s="8"/>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A895" s="8"/>
+      <c r="B895" s="8"/>
+      <c r="C895" s="8"/>
+      <c r="E895" s="8"/>
+      <c r="F895" s="8"/>
+      <c r="G895" s="8"/>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A896" s="8"/>
+      <c r="B896" s="8"/>
+      <c r="C896" s="8"/>
+      <c r="E896" s="8"/>
+      <c r="F896" s="8"/>
+      <c r="G896" s="8"/>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A897" s="8"/>
+      <c r="B897" s="8"/>
+      <c r="C897" s="8"/>
+      <c r="E897" s="8"/>
+      <c r="F897" s="8"/>
+      <c r="G897" s="8"/>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A898" s="8"/>
+      <c r="B898" s="8"/>
+      <c r="C898" s="8"/>
+      <c r="E898" s="8"/>
+      <c r="F898" s="8"/>
+      <c r="G898" s="8"/>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A899" s="8"/>
+      <c r="B899" s="8"/>
+      <c r="C899" s="8"/>
+      <c r="E899" s="8"/>
+      <c r="F899" s="8"/>
+      <c r="G899" s="8"/>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A900" s="8"/>
+      <c r="B900" s="8"/>
+      <c r="C900" s="8"/>
+      <c r="E900" s="8"/>
+      <c r="F900" s="8"/>
+      <c r="G900" s="8"/>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A901" s="8"/>
+      <c r="B901" s="8"/>
+      <c r="C901" s="8"/>
+      <c r="E901" s="8"/>
+      <c r="F901" s="8"/>
+      <c r="G901" s="8"/>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A902" s="8"/>
+      <c r="B902" s="8"/>
+      <c r="C902" s="8"/>
+      <c r="E902" s="8"/>
+      <c r="F902" s="8"/>
+      <c r="G902" s="8"/>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A903" s="8"/>
+      <c r="B903" s="8"/>
+      <c r="C903" s="8"/>
+      <c r="E903" s="8"/>
+      <c r="F903" s="8"/>
+      <c r="G903" s="8"/>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A904" s="8"/>
+      <c r="B904" s="8"/>
+      <c r="C904" s="8"/>
+      <c r="E904" s="8"/>
+      <c r="F904" s="8"/>
+      <c r="G904" s="8"/>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A905" s="8"/>
+      <c r="B905" s="8"/>
+      <c r="C905" s="8"/>
+      <c r="E905" s="8"/>
+      <c r="F905" s="8"/>
+      <c r="G905" s="8"/>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A906" s="8"/>
+      <c r="B906" s="8"/>
+      <c r="C906" s="8"/>
+      <c r="E906" s="8"/>
+      <c r="F906" s="8"/>
+      <c r="G906" s="8"/>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A907" s="8"/>
+      <c r="B907" s="8"/>
+      <c r="C907" s="8"/>
+      <c r="E907" s="8"/>
+      <c r="F907" s="8"/>
+      <c r="G907" s="8"/>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A908" s="8"/>
+      <c r="B908" s="8"/>
+      <c r="C908" s="8"/>
+      <c r="E908" s="8"/>
+      <c r="F908" s="8"/>
+      <c r="G908" s="8"/>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A909" s="8"/>
+      <c r="B909" s="8"/>
+      <c r="C909" s="8"/>
+      <c r="E909" s="8"/>
+      <c r="F909" s="8"/>
+      <c r="G909" s="8"/>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A910" s="8"/>
+      <c r="B910" s="8"/>
+      <c r="C910" s="8"/>
+      <c r="E910" s="8"/>
+      <c r="F910" s="8"/>
+      <c r="G910" s="8"/>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A911" s="8"/>
+      <c r="B911" s="8"/>
+      <c r="C911" s="8"/>
+      <c r="E911" s="8"/>
+      <c r="F911" s="8"/>
+      <c r="G911" s="8"/>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A912" s="8"/>
+      <c r="B912" s="8"/>
+      <c r="C912" s="8"/>
+      <c r="E912" s="8"/>
+      <c r="F912" s="8"/>
+      <c r="G912" s="8"/>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A913" s="8"/>
+      <c r="B913" s="8"/>
+      <c r="C913" s="8"/>
+      <c r="E913" s="8"/>
+      <c r="F913" s="8"/>
+      <c r="G913" s="8"/>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A914" s="8"/>
+      <c r="B914" s="8"/>
+      <c r="C914" s="8"/>
+      <c r="E914" s="8"/>
+      <c r="F914" s="8"/>
+      <c r="G914" s="8"/>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A915" s="8"/>
+      <c r="B915" s="8"/>
+      <c r="C915" s="8"/>
+      <c r="E915" s="8"/>
+      <c r="F915" s="8"/>
+      <c r="G915" s="8"/>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A916" s="8"/>
+      <c r="B916" s="8"/>
+      <c r="C916" s="8"/>
+      <c r="E916" s="8"/>
+      <c r="F916" s="8"/>
+      <c r="G916" s="8"/>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A917" s="8"/>
+      <c r="B917" s="8"/>
+      <c r="C917" s="8"/>
+      <c r="E917" s="8"/>
+      <c r="F917" s="8"/>
+      <c r="G917" s="8"/>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A918" s="8"/>
+      <c r="B918" s="8"/>
+      <c r="C918" s="8"/>
+      <c r="E918" s="8"/>
+      <c r="F918" s="8"/>
+      <c r="G918" s="8"/>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A919" s="8"/>
+      <c r="B919" s="8"/>
+      <c r="C919" s="8"/>
+      <c r="E919" s="8"/>
+      <c r="F919" s="8"/>
+      <c r="G919" s="8"/>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A920" s="8"/>
+      <c r="B920" s="8"/>
+      <c r="C920" s="8"/>
+      <c r="E920" s="8"/>
+      <c r="F920" s="8"/>
+      <c r="G920" s="8"/>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A921" s="8"/>
+      <c r="B921" s="8"/>
+      <c r="C921" s="8"/>
+      <c r="E921" s="8"/>
+      <c r="F921" s="8"/>
+      <c r="G921" s="8"/>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A922" s="8"/>
+      <c r="B922" s="8"/>
+      <c r="C922" s="8"/>
+      <c r="E922" s="8"/>
+      <c r="F922" s="8"/>
+      <c r="G922" s="8"/>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A923" s="8"/>
+      <c r="B923" s="8"/>
+      <c r="C923" s="8"/>
+      <c r="E923" s="8"/>
+      <c r="F923" s="8"/>
+      <c r="G923" s="8"/>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A924" s="8"/>
+      <c r="B924" s="8"/>
+      <c r="C924" s="8"/>
+      <c r="E924" s="8"/>
+      <c r="F924" s="8"/>
+      <c r="G924" s="8"/>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A925" s="8"/>
+      <c r="B925" s="8"/>
+      <c r="C925" s="8"/>
+      <c r="E925" s="8"/>
+      <c r="F925" s="8"/>
+      <c r="G925" s="8"/>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A926" s="8"/>
+      <c r="B926" s="8"/>
+      <c r="C926" s="8"/>
+      <c r="E926" s="8"/>
+      <c r="F926" s="8"/>
+      <c r="G926" s="8"/>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A927" s="8"/>
+      <c r="B927" s="8"/>
+      <c r="C927" s="8"/>
+      <c r="E927" s="8"/>
+      <c r="F927" s="8"/>
+      <c r="G927" s="8"/>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A928" s="8"/>
+      <c r="B928" s="8"/>
+      <c r="C928" s="8"/>
+      <c r="E928" s="8"/>
+      <c r="F928" s="8"/>
+      <c r="G928" s="8"/>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A929" s="8"/>
+      <c r="B929" s="8"/>
+      <c r="C929" s="8"/>
+      <c r="E929" s="8"/>
+      <c r="F929" s="8"/>
+      <c r="G929" s="8"/>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A930" s="8"/>
+      <c r="B930" s="8"/>
+      <c r="C930" s="8"/>
+      <c r="E930" s="8"/>
+      <c r="F930" s="8"/>
+      <c r="G930" s="8"/>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A931" s="8"/>
+      <c r="B931" s="8"/>
+      <c r="C931" s="8"/>
+      <c r="E931" s="8"/>
+      <c r="F931" s="8"/>
+      <c r="G931" s="8"/>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A932" s="8"/>
+      <c r="B932" s="8"/>
+      <c r="C932" s="8"/>
+      <c r="E932" s="8"/>
+      <c r="F932" s="8"/>
+      <c r="G932" s="8"/>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A933" s="8"/>
+      <c r="B933" s="8"/>
+      <c r="C933" s="8"/>
+      <c r="E933" s="8"/>
+      <c r="F933" s="8"/>
+      <c r="G933" s="8"/>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A934" s="8"/>
+      <c r="B934" s="8"/>
+      <c r="C934" s="8"/>
+      <c r="E934" s="8"/>
+      <c r="F934" s="8"/>
+      <c r="G934" s="8"/>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A935" s="8"/>
+      <c r="B935" s="8"/>
+      <c r="C935" s="8"/>
+      <c r="E935" s="8"/>
+      <c r="F935" s="8"/>
+      <c r="G935" s="8"/>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A936" s="8"/>
+      <c r="B936" s="8"/>
+      <c r="C936" s="8"/>
+      <c r="E936" s="8"/>
+      <c r="F936" s="8"/>
+      <c r="G936" s="8"/>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A937" s="8"/>
+      <c r="B937" s="8"/>
+      <c r="C937" s="8"/>
+      <c r="E937" s="8"/>
+      <c r="F937" s="8"/>
+      <c r="G937" s="8"/>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A938" s="8"/>
+      <c r="B938" s="8"/>
+      <c r="C938" s="8"/>
+      <c r="E938" s="8"/>
+      <c r="F938" s="8"/>
+      <c r="G938" s="8"/>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A939" s="8"/>
+      <c r="B939" s="8"/>
+      <c r="C939" s="8"/>
+      <c r="E939" s="8"/>
+      <c r="F939" s="8"/>
+      <c r="G939" s="8"/>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A940" s="8"/>
+      <c r="B940" s="8"/>
+      <c r="C940" s="8"/>
+      <c r="E940" s="8"/>
+      <c r="F940" s="8"/>
+      <c r="G940" s="8"/>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A941" s="8"/>
+      <c r="B941" s="8"/>
+      <c r="C941" s="8"/>
+      <c r="E941" s="8"/>
+      <c r="F941" s="8"/>
+      <c r="G941" s="8"/>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A942" s="8"/>
+      <c r="B942" s="8"/>
+      <c r="C942" s="8"/>
+      <c r="E942" s="8"/>
+      <c r="F942" s="8"/>
+      <c r="G942" s="8"/>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A943" s="8"/>
+      <c r="B943" s="8"/>
+      <c r="C943" s="8"/>
+      <c r="E943" s="8"/>
+      <c r="F943" s="8"/>
+      <c r="G943" s="8"/>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A944" s="8"/>
+      <c r="B944" s="8"/>
+      <c r="C944" s="8"/>
+      <c r="E944" s="8"/>
+      <c r="F944" s="8"/>
+      <c r="G944" s="8"/>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945" s="8"/>
+      <c r="B945" s="8"/>
+      <c r="C945" s="8"/>
+      <c r="E945" s="8"/>
+      <c r="F945" s="8"/>
+      <c r="G945" s="8"/>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946" s="8"/>
+      <c r="B946" s="8"/>
+      <c r="C946" s="8"/>
+      <c r="E946" s="8"/>
+      <c r="F946" s="8"/>
+      <c r="G946" s="8"/>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947" s="8"/>
+      <c r="B947" s="8"/>
+      <c r="C947" s="8"/>
+      <c r="E947" s="8"/>
+      <c r="F947" s="8"/>
+      <c r="G947" s="8"/>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948" s="8"/>
+      <c r="B948" s="8"/>
+      <c r="C948" s="8"/>
+      <c r="E948" s="8"/>
+      <c r="F948" s="8"/>
+      <c r="G948" s="8"/>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949" s="8"/>
+      <c r="B949" s="8"/>
+      <c r="C949" s="8"/>
+      <c r="E949" s="8"/>
+      <c r="F949" s="8"/>
+      <c r="G949" s="8"/>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950" s="8"/>
+      <c r="B950" s="8"/>
+      <c r="C950" s="8"/>
+      <c r="E950" s="8"/>
+      <c r="F950" s="8"/>
+      <c r="G950" s="8"/>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951" s="8"/>
+      <c r="B951" s="8"/>
+      <c r="C951" s="8"/>
+      <c r="E951" s="8"/>
+      <c r="F951" s="8"/>
+      <c r="G951" s="8"/>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952" s="8"/>
+      <c r="B952" s="8"/>
+      <c r="C952" s="8"/>
+      <c r="E952" s="8"/>
+      <c r="F952" s="8"/>
+      <c r="G952" s="8"/>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953" s="8"/>
+      <c r="B953" s="8"/>
+      <c r="C953" s="8"/>
+      <c r="E953" s="8"/>
+      <c r="F953" s="8"/>
+      <c r="G953" s="8"/>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954" s="8"/>
+      <c r="B954" s="8"/>
+      <c r="C954" s="8"/>
+      <c r="E954" s="8"/>
+      <c r="F954" s="8"/>
+      <c r="G954" s="8"/>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955" s="8"/>
+      <c r="B955" s="8"/>
+      <c r="C955" s="8"/>
+      <c r="E955" s="8"/>
+      <c r="F955" s="8"/>
+      <c r="G955" s="8"/>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A956" s="8"/>
+      <c r="B956" s="8"/>
+      <c r="C956" s="8"/>
+      <c r="E956" s="8"/>
+      <c r="F956" s="8"/>
+      <c r="G956" s="8"/>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A957" s="8"/>
+      <c r="B957" s="8"/>
+      <c r="C957" s="8"/>
+      <c r="E957" s="8"/>
+      <c r="F957" s="8"/>
+      <c r="G957" s="8"/>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A958" s="8"/>
+      <c r="B958" s="8"/>
+      <c r="C958" s="8"/>
+      <c r="E958" s="8"/>
+      <c r="F958" s="8"/>
+      <c r="G958" s="8"/>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A959" s="8"/>
+      <c r="B959" s="8"/>
+      <c r="C959" s="8"/>
+      <c r="E959" s="8"/>
+      <c r="F959" s="8"/>
+      <c r="G959" s="8"/>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A960" s="8"/>
+      <c r="B960" s="8"/>
+      <c r="C960" s="8"/>
+      <c r="E960" s="8"/>
+      <c r="F960" s="8"/>
+      <c r="G960" s="8"/>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A961" s="8"/>
+      <c r="B961" s="8"/>
+      <c r="C961" s="8"/>
+      <c r="E961" s="8"/>
+      <c r="F961" s="8"/>
+      <c r="G961" s="8"/>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A962" s="8"/>
+      <c r="B962" s="8"/>
+      <c r="C962" s="8"/>
+      <c r="E962" s="8"/>
+      <c r="F962" s="8"/>
+      <c r="G962" s="8"/>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A963" s="8"/>
+      <c r="B963" s="8"/>
+      <c r="C963" s="8"/>
+      <c r="E963" s="8"/>
+      <c r="F963" s="8"/>
+      <c r="G963" s="8"/>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A964" s="8"/>
+      <c r="B964" s="8"/>
+      <c r="C964" s="8"/>
+      <c r="E964" s="8"/>
+      <c r="F964" s="8"/>
+      <c r="G964" s="8"/>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A965" s="8"/>
+      <c r="B965" s="8"/>
+      <c r="C965" s="8"/>
+      <c r="E965" s="8"/>
+      <c r="F965" s="8"/>
+      <c r="G965" s="8"/>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A966" s="8"/>
+      <c r="B966" s="8"/>
+      <c r="C966" s="8"/>
+      <c r="E966" s="8"/>
+      <c r="F966" s="8"/>
+      <c r="G966" s="8"/>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A967" s="8"/>
+      <c r="B967" s="8"/>
+      <c r="C967" s="8"/>
+      <c r="E967" s="8"/>
+      <c r="F967" s="8"/>
+      <c r="G967" s="8"/>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A968" s="8"/>
+      <c r="B968" s="8"/>
+      <c r="C968" s="8"/>
+      <c r="E968" s="8"/>
+      <c r="F968" s="8"/>
+      <c r="G968" s="8"/>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A969" s="8"/>
+      <c r="B969" s="8"/>
+      <c r="C969" s="8"/>
+      <c r="E969" s="8"/>
+      <c r="F969" s="8"/>
+      <c r="G969" s="8"/>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A970" s="8"/>
+      <c r="B970" s="8"/>
+      <c r="C970" s="8"/>
+      <c r="E970" s="8"/>
+      <c r="F970" s="8"/>
+      <c r="G970" s="8"/>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A971" s="8"/>
+      <c r="B971" s="8"/>
+      <c r="C971" s="8"/>
+      <c r="E971" s="8"/>
+      <c r="F971" s="8"/>
+      <c r="G971" s="8"/>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A972" s="8"/>
+      <c r="B972" s="8"/>
+      <c r="C972" s="8"/>
+      <c r="E972" s="8"/>
+      <c r="F972" s="8"/>
+      <c r="G972" s="8"/>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A973" s="8"/>
+      <c r="B973" s="8"/>
+      <c r="C973" s="8"/>
+      <c r="E973" s="8"/>
+      <c r="F973" s="8"/>
+      <c r="G973" s="8"/>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A974" s="8"/>
+      <c r="B974" s="8"/>
+      <c r="C974" s="8"/>
+      <c r="E974" s="8"/>
+      <c r="F974" s="8"/>
+      <c r="G974" s="8"/>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A975" s="8"/>
+      <c r="B975" s="8"/>
+      <c r="C975" s="8"/>
+      <c r="E975" s="8"/>
+      <c r="F975" s="8"/>
+      <c r="G975" s="8"/>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A976" s="8"/>
+      <c r="B976" s="8"/>
+      <c r="C976" s="8"/>
+      <c r="E976" s="8"/>
+      <c r="F976" s="8"/>
+      <c r="G976" s="8"/>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A977" s="8"/>
+      <c r="B977" s="8"/>
+      <c r="C977" s="8"/>
+      <c r="E977" s="8"/>
+      <c r="F977" s="8"/>
+      <c r="G977" s="8"/>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A978" s="8"/>
+      <c r="B978" s="8"/>
+      <c r="C978" s="8"/>
+      <c r="E978" s="8"/>
+      <c r="F978" s="8"/>
+      <c r="G978" s="8"/>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A979" s="8"/>
+      <c r="B979" s="8"/>
+      <c r="C979" s="8"/>
+      <c r="E979" s="8"/>
+      <c r="F979" s="8"/>
+      <c r="G979" s="8"/>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A980" s="8"/>
+      <c r="B980" s="8"/>
+      <c r="C980" s="8"/>
+      <c r="E980" s="8"/>
+      <c r="F980" s="8"/>
+      <c r="G980" s="8"/>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A981" s="8"/>
+      <c r="B981" s="8"/>
+      <c r="C981" s="8"/>
+      <c r="E981" s="8"/>
+      <c r="F981" s="8"/>
+      <c r="G981" s="8"/>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A982" s="8"/>
+      <c r="B982" s="8"/>
+      <c r="C982" s="8"/>
+      <c r="E982" s="8"/>
+      <c r="F982" s="8"/>
+      <c r="G982" s="8"/>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A983" s="8"/>
+      <c r="B983" s="8"/>
+      <c r="C983" s="8"/>
+      <c r="E983" s="8"/>
+      <c r="F983" s="8"/>
+      <c r="G983" s="8"/>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A984" s="8"/>
+      <c r="B984" s="8"/>
+      <c r="C984" s="8"/>
+      <c r="E984" s="8"/>
+      <c r="F984" s="8"/>
+      <c r="G984" s="8"/>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A985" s="8"/>
+      <c r="B985" s="8"/>
+      <c r="C985" s="8"/>
+      <c r="E985" s="8"/>
+      <c r="F985" s="8"/>
+      <c r="G985" s="8"/>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A986" s="8"/>
+      <c r="B986" s="8"/>
+      <c r="C986" s="8"/>
+      <c r="E986" s="8"/>
+      <c r="F986" s="8"/>
+      <c r="G986" s="8"/>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A987" s="8"/>
+      <c r="B987" s="8"/>
+      <c r="C987" s="8"/>
+      <c r="E987" s="8"/>
+      <c r="F987" s="8"/>
+      <c r="G987" s="8"/>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A988" s="8"/>
+      <c r="B988" s="8"/>
+      <c r="C988" s="8"/>
+      <c r="E988" s="8"/>
+      <c r="F988" s="8"/>
+      <c r="G988" s="8"/>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A989" s="8"/>
+      <c r="B989" s="8"/>
+      <c r="C989" s="8"/>
+      <c r="E989" s="8"/>
+      <c r="F989" s="8"/>
+      <c r="G989" s="8"/>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A990" s="8"/>
+      <c r="B990" s="8"/>
+      <c r="C990" s="8"/>
+      <c r="E990" s="8"/>
+      <c r="F990" s="8"/>
+      <c r="G990" s="8"/>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A991" s="8"/>
+      <c r="B991" s="8"/>
+      <c r="C991" s="8"/>
+      <c r="E991" s="8"/>
+      <c r="F991" s="8"/>
+      <c r="G991" s="8"/>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A992" s="8"/>
+      <c r="B992" s="8"/>
+      <c r="C992" s="8"/>
+      <c r="E992" s="8"/>
+      <c r="F992" s="8"/>
+      <c r="G992" s="8"/>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A993" s="8"/>
+      <c r="B993" s="8"/>
+      <c r="C993" s="8"/>
+      <c r="E993" s="8"/>
+      <c r="F993" s="8"/>
+      <c r="G993" s="8"/>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A994" s="8"/>
+      <c r="B994" s="8"/>
+      <c r="C994" s="8"/>
+      <c r="E994" s="8"/>
+      <c r="F994" s="8"/>
+      <c r="G994" s="8"/>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A995" s="8"/>
+      <c r="B995" s="8"/>
+      <c r="C995" s="8"/>
+      <c r="E995" s="8"/>
+      <c r="F995" s="8"/>
+      <c r="G995" s="8"/>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A996" s="8"/>
+      <c r="B996" s="8"/>
+      <c r="C996" s="8"/>
+      <c r="E996" s="8"/>
+      <c r="F996" s="8"/>
+      <c r="G996" s="8"/>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A997" s="8"/>
+      <c r="B997" s="8"/>
+      <c r="C997" s="8"/>
+      <c r="E997" s="8"/>
+      <c r="F997" s="8"/>
+      <c r="G997" s="8"/>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A998" s="8"/>
+      <c r="B998" s="8"/>
+      <c r="C998" s="8"/>
+      <c r="E998" s="8"/>
+      <c r="F998" s="8"/>
+      <c r="G998" s="8"/>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A999" s="8"/>
+      <c r="B999" s="8"/>
+      <c r="C999" s="8"/>
+      <c r="E999" s="8"/>
+      <c r="F999" s="8"/>
+      <c r="G999" s="8"/>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="8"/>
+      <c r="E1000" s="8"/>
+      <c r="F1000" s="8"/>
+      <c r="G1000" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A4:J1048576 A1:A3">
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>IF(OR(INDIRECT("RC[0]",0)="Ký hiệu", INDIRECT("RC[-1]",0)="Ký hiệu", INDIRECT("RC[-2]",0)="Ký hiệu", INDIRECT("RC[-3]",0)="Ký hiệu", INDIRECT("RC[-4]",0)="Ký hiệu", INDIRECT("RC[-5]",0)="Ký hiệu", INDIRECT("RC[-6]",0)="Ký hiệu", INDIRECT("RC[-7]",0)="Ký hiệu", INDIRECT("RC[-8]",0)="Ký hiệu", INDIRECT("RC[-9]",0)="Ký hiệu"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J1048576 A1:A3">
+    <cfRule type="expression" dxfId="15" priority="2">
+      <formula>IF(OR(INDIRECT("RC[0]",0)="HM", INDIRECT("RC[-1]",0)="HM", INDIRECT("RC[-2]",0)="HM", INDIRECT("RC[-3]",0)="HM", INDIRECT("RC[-4]",0)="HM", INDIRECT("RC[-5]",0)="HM", INDIRECT("RC[-6]",0)="HM", INDIRECT("RC[-7]",0)="HM", INDIRECT("RC[-8]",0)="HM", INDIRECT("RC[-9]",0)="HM"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J1048576 A1:A3">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>IF(OR(INDIRECT("RC[0]",0)="#", INDIRECT("RC[-1]",0)="#", INDIRECT("RC[-2]",0)="#", INDIRECT("RC[-3]",0)="#", INDIRECT("RC[-4]",0)="#", INDIRECT("RC[-5]",0)="#", INDIRECT("RC[-6]",0)="#", INDIRECT("RC[-7]",0)="#", INDIRECT("RC[-8]",0)="#", INDIRECT("RC[-9]",0)="#"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J1048576 A1:A3">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>IF(OR(INDIRECT("RC[0]",0)="+", INDIRECT("RC[-1]",0)="+", INDIRECT("RC[-2]",0)="+", INDIRECT("RC[-3]",0)="+", INDIRECT("RC[-4]",0)="+", INDIRECT("RC[-5]",0)="+", INDIRECT("RC[-6]",0)="+", INDIRECT("RC[-7]",0)="+", INDIRECT("RC[-8]",0)="+", INDIRECT("RC[-9]",0)="+"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:J1048576 A1:A3">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>IF(OR(INDIRECT("RC[0]",0)="-", INDIRECT("RC[-1]",0)="-", INDIRECT("RC[-2]",0)="-", INDIRECT("RC[-3]",0)="-", INDIRECT("RC[-4]",0)="-", INDIRECT("RC[-5]",0)="-", INDIRECT("RC[-6]",0)="-", INDIRECT("RC[-7]",0)="-", INDIRECT("RC[-8]",0)="-", INDIRECT("RC[-9]",0)="-"),TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C60AED-7DC9-4B28-839F-09BA378B48E1}">
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="b">
-        <f ca="1">IF(B8&gt;INDIRECT("RC[-1]",0),TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B1">
+        <f t="shared" ref="B1:B59" ca="1" si="0">INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))&lt;&gt;""),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>{1;2;3;4;5}</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f ca="1">INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))&lt;&gt;""),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" t="e">
+        <f ca="1">INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW()))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <f ca="1">INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))))))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12">
+        <f>_xldudf_SCRIPTLAB_BASICCUSTOMFUNCTION_SPHEREVOLUME(A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <f ca="1">_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))&lt;&gt;"")))</f>
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mau.xlsx
+++ b/Mau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\nvexcel-react\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\localhost\Users\Thiep\Documents\GitHub\nvexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA90D46-593E-4E45-8F5E-0CD929EAF656}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969FE480-DD56-4C26-AB91-32677E9A3300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{257AB335-7A00-4FE0-AC24-7A3D3259B442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{257AB335-7A00-4FE0-AC24-7A3D3259B442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -683,7 +685,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
@@ -729,23 +731,23 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="22.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -792,7 +794,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -901,12 +903,12 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -915,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -939,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -951,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -960,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -969,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
@@ -979,19 +981,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1000,19 +1002,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -1025,12 +1027,12 @@
         <f ca="1">INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))))))</f>
         <v>#N/A</v>
       </c>
-      <c r="H12">
-        <f>_xldudf_SCRIPTLAB_BASICCUSTOMFUNCTION_SPHEREVOLUME(A3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" t="e">
+        <f ca="1">_xldudf_SCRIPTLAB_BASICCUSTOMFUNCTION_SPHEREVOLUME(A3)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -1040,37 +1042,37 @@
         <v>A1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1079,91 +1081,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1172,97 +1174,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1271,55 +1273,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1338,24 +1340,24 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" style="7" customWidth="1"/>
-    <col min="9" max="10" width="14.77734375" style="7" customWidth="1"/>
-    <col min="11" max="26" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="7" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="7" customWidth="1"/>
+    <col min="11" max="26" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1371,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1385,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1399,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1409,7 +1411,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1441,12 +1443,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="str">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ref="B6:B13" ca="1" si="0">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
         <v>HM</v>
       </c>
       <c r="C6" s="6"/>
@@ -1454,12 +1456,12 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="str">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>I</v>
       </c>
       <c r="C7" s="6"/>
@@ -1467,12 +1469,12 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
@@ -1480,12 +1482,12 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
@@ -1493,12 +1495,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="6">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="6"/>
@@ -1506,12 +1508,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="6"/>
@@ -1519,12 +1521,12 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="6"/>
@@ -1532,12 +1534,12 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6">
-        <f ca="1">IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="+",COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"+"),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="#",ROMAN(COUNTIF(INDIRECT(_xlfn.CONCAT("A",LOOKUP(2,1/(INDIRECT(_xlfn.CONCAT("A1:A",ROW()))="HM"),ROW(INDIRECT(_xlfn.CONCAT("A1:A",ROW())))),":A",ROW())),"#")),IF(INDIRECT(_xlfn.CONCAT("A",ROW()))="HM","HM","")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="6"/>
@@ -1545,7 +1547,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1553,7 +1555,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1561,7 +1563,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1569,7 +1571,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1577,7 +1579,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1585,7 +1587,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1593,7 +1595,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1601,7 +1603,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1609,7 +1611,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1617,7 +1619,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1625,7 +1627,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1633,7 +1635,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1641,7 +1643,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1649,7 +1651,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1657,7 +1659,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1665,7 +1667,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1673,7 +1675,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1681,7 +1683,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1689,7 +1691,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1697,7 +1699,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1705,7 +1707,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1713,7 +1715,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1721,7 +1723,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1729,7 +1731,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1737,7 +1739,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1745,7 +1747,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1753,7 +1755,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1761,7 +1763,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1769,7 +1771,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1777,7 +1779,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1785,7 +1787,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1793,7 +1795,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1801,7 +1803,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1809,7 +1811,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1817,7 +1819,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1825,7 +1827,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1833,7 +1835,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1841,7 +1843,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1849,7 +1851,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1857,7 +1859,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1865,7 +1867,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1873,7 +1875,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1881,7 +1883,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1889,7 +1891,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1897,7 +1899,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1905,7 +1907,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1913,7 +1915,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1921,7 +1923,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1929,7 +1931,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1937,7 +1939,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1945,7 +1947,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1953,7 +1955,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1961,7 +1963,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1969,7 +1971,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1977,7 +1979,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1985,7 +1987,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1993,7 +1995,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2001,7 +2003,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2009,7 +2011,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2017,7 +2019,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2025,7 +2027,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2033,7 +2035,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2041,7 +2043,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2049,7 +2051,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2057,7 +2059,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2065,7 +2067,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2073,7 +2075,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2081,7 +2083,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2089,7 +2091,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2097,7 +2099,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2105,7 +2107,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2113,7 +2115,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2121,7 +2123,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2129,7 +2131,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2137,7 +2139,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2145,7 +2147,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2153,7 +2155,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2161,7 +2163,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2169,7 +2171,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2177,7 +2179,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2185,7 +2187,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2193,7 +2195,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2201,7 +2203,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2209,7 +2211,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2217,7 +2219,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2225,7 +2227,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2233,7 +2235,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2241,7 +2243,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2249,7 +2251,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2257,7 +2259,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2265,7 +2267,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2273,7 +2275,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2281,7 +2283,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2289,7 +2291,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2297,7 +2299,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -2305,7 +2307,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2313,7 +2315,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -2321,7 +2323,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -2329,7 +2331,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -2337,7 +2339,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -2345,7 +2347,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -2353,7 +2355,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -2361,7 +2363,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -2369,7 +2371,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -2377,7 +2379,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -2385,7 +2387,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -2393,7 +2395,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -2401,7 +2403,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -2409,7 +2411,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -2417,7 +2419,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -2425,7 +2427,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -2433,7 +2435,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -2441,7 +2443,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -2449,7 +2451,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -2457,7 +2459,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -2465,7 +2467,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -2473,7 +2475,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -2481,7 +2483,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -2489,7 +2491,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -2497,7 +2499,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -2505,7 +2507,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -2513,7 +2515,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -2521,7 +2523,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -2529,7 +2531,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -2537,7 +2539,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -2545,7 +2547,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2553,7 +2555,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -2561,7 +2563,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -2569,7 +2571,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -2577,7 +2579,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -2585,7 +2587,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -2593,7 +2595,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -2601,7 +2603,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -2609,7 +2611,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -2617,7 +2619,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -2625,7 +2627,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -2633,7 +2635,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -2641,7 +2643,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -2649,7 +2651,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -2657,7 +2659,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -2665,7 +2667,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -2673,7 +2675,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -2681,7 +2683,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -2689,7 +2691,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -2697,7 +2699,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -2705,7 +2707,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -2713,7 +2715,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -2721,7 +2723,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -2729,7 +2731,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -2737,7 +2739,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -2745,7 +2747,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -2753,7 +2755,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -2761,7 +2763,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -2769,7 +2771,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -2777,7 +2779,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -2785,7 +2787,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -2793,7 +2795,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -2801,7 +2803,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -2809,7 +2811,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -2817,7 +2819,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -2825,7 +2827,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -2833,7 +2835,7 @@
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -2841,7 +2843,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -2849,7 +2851,7 @@
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -2857,7 +2859,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -2865,7 +2867,7 @@
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -2873,7 +2875,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -2881,7 +2883,7 @@
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -2889,7 +2891,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -2897,7 +2899,7 @@
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -2905,7 +2907,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -2913,7 +2915,7 @@
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -2921,7 +2923,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -2929,7 +2931,7 @@
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -2937,7 +2939,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -2945,7 +2947,7 @@
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -2953,7 +2955,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -2961,7 +2963,7 @@
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -2969,7 +2971,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -2977,7 +2979,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -2985,7 +2987,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -2993,7 +2995,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -3001,7 +3003,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -3009,7 +3011,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -3017,7 +3019,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -3025,7 +3027,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -3033,7 +3035,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -3041,7 +3043,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -3049,7 +3051,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -3057,7 +3059,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -3065,7 +3067,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -3073,7 +3075,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -3081,7 +3083,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -3089,7 +3091,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -3097,7 +3099,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -3105,7 +3107,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -3113,7 +3115,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -3121,7 +3123,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -3129,7 +3131,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -3137,7 +3139,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -3145,7 +3147,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -3153,7 +3155,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -3161,7 +3163,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -3169,7 +3171,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -3177,7 +3179,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -3185,7 +3187,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -3193,7 +3195,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -3201,7 +3203,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -3209,7 +3211,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -3217,7 +3219,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -3225,7 +3227,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -3233,7 +3235,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -3241,7 +3243,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -3249,7 +3251,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -3257,7 +3259,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -3265,7 +3267,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -3273,7 +3275,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -3281,7 +3283,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -3289,7 +3291,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -3297,7 +3299,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -3305,7 +3307,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -3313,7 +3315,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -3321,7 +3323,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -3329,7 +3331,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -3337,7 +3339,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -3345,7 +3347,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -3353,7 +3355,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -3361,7 +3363,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -3369,7 +3371,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -3377,7 +3379,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -3385,7 +3387,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -3393,7 +3395,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -3401,7 +3403,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -3409,7 +3411,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -3417,7 +3419,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -3425,7 +3427,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -3433,7 +3435,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -3441,7 +3443,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -3449,7 +3451,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -3457,7 +3459,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -3465,7 +3467,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -3473,7 +3475,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -3481,7 +3483,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -3489,7 +3491,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -3497,7 +3499,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -3505,7 +3507,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -3513,7 +3515,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -3521,7 +3523,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -3529,7 +3531,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -3537,7 +3539,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -3545,7 +3547,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -3553,7 +3555,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -3561,7 +3563,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -3569,7 +3571,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -3577,7 +3579,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -3585,7 +3587,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -3593,7 +3595,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -3601,7 +3603,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -3609,7 +3611,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -3617,7 +3619,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -3625,7 +3627,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -3633,7 +3635,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -3641,7 +3643,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -3649,7 +3651,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -3657,7 +3659,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -3665,7 +3667,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -3673,7 +3675,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -3681,7 +3683,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -3689,7 +3691,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -3697,7 +3699,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -3705,7 +3707,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -3713,7 +3715,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -3721,7 +3723,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -3729,7 +3731,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -3737,7 +3739,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -3745,7 +3747,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -3753,7 +3755,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -3761,7 +3763,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -3769,7 +3771,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -3777,7 +3779,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -3785,7 +3787,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -3793,7 +3795,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -3801,7 +3803,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -3809,7 +3811,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -3817,7 +3819,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -3825,7 +3827,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -3833,7 +3835,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -3841,7 +3843,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -3849,7 +3851,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -3857,7 +3859,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -3865,7 +3867,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -3873,7 +3875,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -3881,7 +3883,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -3889,7 +3891,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -3897,7 +3899,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -3905,7 +3907,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -3913,7 +3915,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -3921,7 +3923,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -3929,7 +3931,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -3937,7 +3939,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -3945,7 +3947,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -3953,7 +3955,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -3961,7 +3963,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -3969,7 +3971,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -3977,7 +3979,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -3985,7 +3987,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -3993,7 +3995,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -4001,7 +4003,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -4009,7 +4011,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -4017,7 +4019,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -4025,7 +4027,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -4033,7 +4035,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -4041,7 +4043,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -4049,7 +4051,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -4057,7 +4059,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -4065,7 +4067,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -4073,7 +4075,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -4081,7 +4083,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -4089,7 +4091,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -4097,7 +4099,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -4105,7 +4107,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -4113,7 +4115,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -4121,7 +4123,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -4129,7 +4131,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -4137,7 +4139,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -4145,7 +4147,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -4153,7 +4155,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -4161,7 +4163,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -4169,7 +4171,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -4177,7 +4179,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -4185,7 +4187,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -4193,7 +4195,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -4201,7 +4203,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -4209,7 +4211,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -4217,7 +4219,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -4225,7 +4227,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -4233,7 +4235,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -4241,7 +4243,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -4249,7 +4251,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -4257,7 +4259,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -4265,7 +4267,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -4273,7 +4275,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -4281,7 +4283,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -4289,7 +4291,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -4297,7 +4299,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -4305,7 +4307,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -4313,7 +4315,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -4321,7 +4323,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -4329,7 +4331,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -4337,7 +4339,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -4345,7 +4347,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -4353,7 +4355,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -4361,7 +4363,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -4369,7 +4371,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -4377,7 +4379,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -4385,7 +4387,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -4393,7 +4395,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -4401,7 +4403,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -4409,7 +4411,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -4417,7 +4419,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -4425,7 +4427,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -4433,7 +4435,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -4441,7 +4443,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -4449,7 +4451,7 @@
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -4457,7 +4459,7 @@
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -4465,7 +4467,7 @@
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -4473,7 +4475,7 @@
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -4481,7 +4483,7 @@
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -4489,7 +4491,7 @@
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -4497,7 +4499,7 @@
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -4505,7 +4507,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -4513,7 +4515,7 @@
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -4521,7 +4523,7 @@
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -4529,7 +4531,7 @@
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -4537,7 +4539,7 @@
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -4545,7 +4547,7 @@
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -4553,7 +4555,7 @@
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -4561,7 +4563,7 @@
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -4569,7 +4571,7 @@
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -4577,7 +4579,7 @@
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -4585,7 +4587,7 @@
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -4593,7 +4595,7 @@
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -4601,7 +4603,7 @@
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -4609,7 +4611,7 @@
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -4617,7 +4619,7 @@
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -4625,7 +4627,7 @@
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -4633,7 +4635,7 @@
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -4641,7 +4643,7 @@
       <c r="F400" s="6"/>
       <c r="G400" s="6"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -4649,7 +4651,7 @@
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -4657,7 +4659,7 @@
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -4665,7 +4667,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -4673,7 +4675,7 @@
       <c r="F404" s="6"/>
       <c r="G404" s="6"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -4681,7 +4683,7 @@
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -4689,7 +4691,7 @@
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -4697,7 +4699,7 @@
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -4705,7 +4707,7 @@
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -4713,7 +4715,7 @@
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -4721,7 +4723,7 @@
       <c r="F410" s="6"/>
       <c r="G410" s="6"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -4729,7 +4731,7 @@
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -4737,7 +4739,7 @@
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -4745,7 +4747,7 @@
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -4753,7 +4755,7 @@
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -4761,7 +4763,7 @@
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -4769,7 +4771,7 @@
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -4777,7 +4779,7 @@
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -4785,7 +4787,7 @@
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -4793,7 +4795,7 @@
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -4801,7 +4803,7 @@
       <c r="F420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -4809,7 +4811,7 @@
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -4817,7 +4819,7 @@
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -4825,7 +4827,7 @@
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -4833,7 +4835,7 @@
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -4841,7 +4843,7 @@
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -4849,7 +4851,7 @@
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -4857,7 +4859,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -4865,7 +4867,7 @@
       <c r="F428" s="6"/>
       <c r="G428" s="6"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -4873,7 +4875,7 @@
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -4881,7 +4883,7 @@
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -4889,7 +4891,7 @@
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -4897,7 +4899,7 @@
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -4905,7 +4907,7 @@
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -4913,7 +4915,7 @@
       <c r="F434" s="6"/>
       <c r="G434" s="6"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -4921,7 +4923,7 @@
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -4929,7 +4931,7 @@
       <c r="F436" s="6"/>
       <c r="G436" s="6"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -4937,7 +4939,7 @@
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -4945,7 +4947,7 @@
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -4953,7 +4955,7 @@
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -4961,7 +4963,7 @@
       <c r="F440" s="6"/>
       <c r="G440" s="6"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -4969,7 +4971,7 @@
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -4977,7 +4979,7 @@
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -4985,7 +4987,7 @@
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -4993,7 +4995,7 @@
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -5001,7 +5003,7 @@
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -5009,7 +5011,7 @@
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -5017,7 +5019,7 @@
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -5025,7 +5027,7 @@
       <c r="F448" s="6"/>
       <c r="G448" s="6"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -5033,7 +5035,7 @@
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -5041,7 +5043,7 @@
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -5049,7 +5051,7 @@
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -5057,7 +5059,7 @@
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -5065,7 +5067,7 @@
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -5073,7 +5075,7 @@
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -5081,7 +5083,7 @@
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -5089,7 +5091,7 @@
       <c r="F456" s="6"/>
       <c r="G456" s="6"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -5097,7 +5099,7 @@
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -5105,7 +5107,7 @@
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -5113,7 +5115,7 @@
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -5121,7 +5123,7 @@
       <c r="F460" s="6"/>
       <c r="G460" s="6"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -5129,7 +5131,7 @@
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -5137,7 +5139,7 @@
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -5145,7 +5147,7 @@
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -5153,7 +5155,7 @@
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -5161,7 +5163,7 @@
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -5169,7 +5171,7 @@
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -5177,7 +5179,7 @@
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -5185,7 +5187,7 @@
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -5193,7 +5195,7 @@
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -5201,7 +5203,7 @@
       <c r="F470" s="6"/>
       <c r="G470" s="6"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -5209,7 +5211,7 @@
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -5217,7 +5219,7 @@
       <c r="F472" s="6"/>
       <c r="G472" s="6"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -5225,7 +5227,7 @@
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -5233,7 +5235,7 @@
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -5241,7 +5243,7 @@
       <c r="F475" s="6"/>
       <c r="G475" s="6"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -5249,7 +5251,7 @@
       <c r="F476" s="6"/>
       <c r="G476" s="6"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -5257,7 +5259,7 @@
       <c r="F477" s="6"/>
       <c r="G477" s="6"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -5265,7 +5267,7 @@
       <c r="F478" s="6"/>
       <c r="G478" s="6"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -5273,7 +5275,7 @@
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -5281,7 +5283,7 @@
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -5289,7 +5291,7 @@
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -5297,7 +5299,7 @@
       <c r="F482" s="6"/>
       <c r="G482" s="6"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -5305,7 +5307,7 @@
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -5313,7 +5315,7 @@
       <c r="F484" s="6"/>
       <c r="G484" s="6"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -5321,7 +5323,7 @@
       <c r="F485" s="6"/>
       <c r="G485" s="6"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -5329,7 +5331,7 @@
       <c r="F486" s="6"/>
       <c r="G486" s="6"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -5337,7 +5339,7 @@
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -5345,7 +5347,7 @@
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -5353,7 +5355,7 @@
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -5361,7 +5363,7 @@
       <c r="F490" s="6"/>
       <c r="G490" s="6"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -5369,7 +5371,7 @@
       <c r="F491" s="6"/>
       <c r="G491" s="6"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -5377,7 +5379,7 @@
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -5385,7 +5387,7 @@
       <c r="F493" s="6"/>
       <c r="G493" s="6"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -5393,7 +5395,7 @@
       <c r="F494" s="6"/>
       <c r="G494" s="6"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -5401,7 +5403,7 @@
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -5409,7 +5411,7 @@
       <c r="F496" s="6"/>
       <c r="G496" s="6"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -5417,7 +5419,7 @@
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -5425,7 +5427,7 @@
       <c r="F498" s="6"/>
       <c r="G498" s="6"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -5433,7 +5435,7 @@
       <c r="F499" s="6"/>
       <c r="G499" s="6"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -5441,7 +5443,7 @@
       <c r="F500" s="6"/>
       <c r="G500" s="6"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -5449,7 +5451,7 @@
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -5457,7 +5459,7 @@
       <c r="F502" s="6"/>
       <c r="G502" s="6"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -5465,7 +5467,7 @@
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -5473,7 +5475,7 @@
       <c r="F504" s="6"/>
       <c r="G504" s="6"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -5481,7 +5483,7 @@
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -5489,7 +5491,7 @@
       <c r="F506" s="6"/>
       <c r="G506" s="6"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -5497,7 +5499,7 @@
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -5505,7 +5507,7 @@
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -5513,7 +5515,7 @@
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -5521,7 +5523,7 @@
       <c r="F510" s="6"/>
       <c r="G510" s="6"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -5529,7 +5531,7 @@
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -5537,7 +5539,7 @@
       <c r="F512" s="6"/>
       <c r="G512" s="6"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -5545,7 +5547,7 @@
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -5553,7 +5555,7 @@
       <c r="F514" s="6"/>
       <c r="G514" s="6"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -5561,7 +5563,7 @@
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -5569,7 +5571,7 @@
       <c r="F516" s="6"/>
       <c r="G516" s="6"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -5577,7 +5579,7 @@
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -5585,7 +5587,7 @@
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -5593,7 +5595,7 @@
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -5601,7 +5603,7 @@
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -5609,7 +5611,7 @@
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -5617,7 +5619,7 @@
       <c r="F522" s="6"/>
       <c r="G522" s="6"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -5625,7 +5627,7 @@
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -5633,7 +5635,7 @@
       <c r="F524" s="6"/>
       <c r="G524" s="6"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -5641,7 +5643,7 @@
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -5649,7 +5651,7 @@
       <c r="F526" s="6"/>
       <c r="G526" s="6"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -5657,7 +5659,7 @@
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -5665,7 +5667,7 @@
       <c r="F528" s="6"/>
       <c r="G528" s="6"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -5673,7 +5675,7 @@
       <c r="F529" s="6"/>
       <c r="G529" s="6"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -5681,7 +5683,7 @@
       <c r="F530" s="6"/>
       <c r="G530" s="6"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -5689,7 +5691,7 @@
       <c r="F531" s="6"/>
       <c r="G531" s="6"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -5697,7 +5699,7 @@
       <c r="F532" s="6"/>
       <c r="G532" s="6"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -5705,7 +5707,7 @@
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -5713,7 +5715,7 @@
       <c r="F534" s="6"/>
       <c r="G534" s="6"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -5721,7 +5723,7 @@
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -5729,7 +5731,7 @@
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -5737,7 +5739,7 @@
       <c r="F537" s="6"/>
       <c r="G537" s="6"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -5745,7 +5747,7 @@
       <c r="F538" s="6"/>
       <c r="G538" s="6"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -5753,7 +5755,7 @@
       <c r="F539" s="6"/>
       <c r="G539" s="6"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -5761,7 +5763,7 @@
       <c r="F540" s="6"/>
       <c r="G540" s="6"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -5769,7 +5771,7 @@
       <c r="F541" s="6"/>
       <c r="G541" s="6"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -5777,7 +5779,7 @@
       <c r="F542" s="6"/>
       <c r="G542" s="6"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -5785,7 +5787,7 @@
       <c r="F543" s="6"/>
       <c r="G543" s="6"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -5793,7 +5795,7 @@
       <c r="F544" s="6"/>
       <c r="G544" s="6"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -5801,7 +5803,7 @@
       <c r="F545" s="6"/>
       <c r="G545" s="6"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -5809,7 +5811,7 @@
       <c r="F546" s="6"/>
       <c r="G546" s="6"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -5817,7 +5819,7 @@
       <c r="F547" s="6"/>
       <c r="G547" s="6"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -5825,7 +5827,7 @@
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -5833,7 +5835,7 @@
       <c r="F549" s="6"/>
       <c r="G549" s="6"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -5841,7 +5843,7 @@
       <c r="F550" s="6"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -5849,7 +5851,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -5857,7 +5859,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="6"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -5865,7 +5867,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="6"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -5873,7 +5875,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="6"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -5881,7 +5883,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -5889,7 +5891,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="6"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -5897,7 +5899,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -5905,7 +5907,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -5913,7 +5915,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -5921,7 +5923,7 @@
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -5929,7 +5931,7 @@
       <c r="F561" s="6"/>
       <c r="G561" s="6"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -5937,7 +5939,7 @@
       <c r="F562" s="6"/>
       <c r="G562" s="6"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -5945,7 +5947,7 @@
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -5953,7 +5955,7 @@
       <c r="F564" s="6"/>
       <c r="G564" s="6"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -5961,7 +5963,7 @@
       <c r="F565" s="6"/>
       <c r="G565" s="6"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -5969,7 +5971,7 @@
       <c r="F566" s="6"/>
       <c r="G566" s="6"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -5977,7 +5979,7 @@
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -5985,7 +5987,7 @@
       <c r="F568" s="6"/>
       <c r="G568" s="6"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -5993,7 +5995,7 @@
       <c r="F569" s="6"/>
       <c r="G569" s="6"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -6001,7 +6003,7 @@
       <c r="F570" s="6"/>
       <c r="G570" s="6"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -6009,7 +6011,7 @@
       <c r="F571" s="6"/>
       <c r="G571" s="6"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -6017,7 +6019,7 @@
       <c r="F572" s="6"/>
       <c r="G572" s="6"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -6025,7 +6027,7 @@
       <c r="F573" s="6"/>
       <c r="G573" s="6"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -6033,7 +6035,7 @@
       <c r="F574" s="6"/>
       <c r="G574" s="6"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -6041,7 +6043,7 @@
       <c r="F575" s="6"/>
       <c r="G575" s="6"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -6049,7 +6051,7 @@
       <c r="F576" s="6"/>
       <c r="G576" s="6"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -6057,7 +6059,7 @@
       <c r="F577" s="6"/>
       <c r="G577" s="6"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -6065,7 +6067,7 @@
       <c r="F578" s="6"/>
       <c r="G578" s="6"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -6073,7 +6075,7 @@
       <c r="F579" s="6"/>
       <c r="G579" s="6"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -6081,7 +6083,7 @@
       <c r="F580" s="6"/>
       <c r="G580" s="6"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -6089,7 +6091,7 @@
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -6097,7 +6099,7 @@
       <c r="F582" s="6"/>
       <c r="G582" s="6"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -6105,7 +6107,7 @@
       <c r="F583" s="6"/>
       <c r="G583" s="6"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -6113,7 +6115,7 @@
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -6121,7 +6123,7 @@
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -6129,7 +6131,7 @@
       <c r="F586" s="6"/>
       <c r="G586" s="6"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -6137,7 +6139,7 @@
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -6145,7 +6147,7 @@
       <c r="F588" s="6"/>
       <c r="G588" s="6"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -6153,7 +6155,7 @@
       <c r="F589" s="6"/>
       <c r="G589" s="6"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -6161,7 +6163,7 @@
       <c r="F590" s="6"/>
       <c r="G590" s="6"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -6169,7 +6171,7 @@
       <c r="F591" s="6"/>
       <c r="G591" s="6"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -6177,7 +6179,7 @@
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -6185,7 +6187,7 @@
       <c r="F593" s="6"/>
       <c r="G593" s="6"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -6193,7 +6195,7 @@
       <c r="F594" s="6"/>
       <c r="G594" s="6"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -6201,7 +6203,7 @@
       <c r="F595" s="6"/>
       <c r="G595" s="6"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -6209,7 +6211,7 @@
       <c r="F596" s="6"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -6217,7 +6219,7 @@
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -6225,7 +6227,7 @@
       <c r="F598" s="6"/>
       <c r="G598" s="6"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -6233,7 +6235,7 @@
       <c r="F599" s="6"/>
       <c r="G599" s="6"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -6241,7 +6243,7 @@
       <c r="F600" s="6"/>
       <c r="G600" s="6"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -6249,7 +6251,7 @@
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -6257,7 +6259,7 @@
       <c r="F602" s="6"/>
       <c r="G602" s="6"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -6265,7 +6267,7 @@
       <c r="F603" s="6"/>
       <c r="G603" s="6"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -6273,7 +6275,7 @@
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -6281,7 +6283,7 @@
       <c r="F605" s="6"/>
       <c r="G605" s="6"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -6289,7 +6291,7 @@
       <c r="F606" s="6"/>
       <c r="G606" s="6"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -6297,7 +6299,7 @@
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -6305,7 +6307,7 @@
       <c r="F608" s="6"/>
       <c r="G608" s="6"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -6313,7 +6315,7 @@
       <c r="F609" s="6"/>
       <c r="G609" s="6"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
@@ -6321,7 +6323,7 @@
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -6329,7 +6331,7 @@
       <c r="F611" s="6"/>
       <c r="G611" s="6"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -6337,7 +6339,7 @@
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -6345,7 +6347,7 @@
       <c r="F613" s="6"/>
       <c r="G613" s="6"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -6353,7 +6355,7 @@
       <c r="F614" s="6"/>
       <c r="G614" s="6"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -6361,7 +6363,7 @@
       <c r="F615" s="6"/>
       <c r="G615" s="6"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -6369,7 +6371,7 @@
       <c r="F616" s="6"/>
       <c r="G616" s="6"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -6377,7 +6379,7 @@
       <c r="F617" s="6"/>
       <c r="G617" s="6"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -6385,7 +6387,7 @@
       <c r="F618" s="6"/>
       <c r="G618" s="6"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -6393,7 +6395,7 @@
       <c r="F619" s="6"/>
       <c r="G619" s="6"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -6401,7 +6403,7 @@
       <c r="F620" s="6"/>
       <c r="G620" s="6"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -6409,7 +6411,7 @@
       <c r="F621" s="6"/>
       <c r="G621" s="6"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -6417,7 +6419,7 @@
       <c r="F622" s="6"/>
       <c r="G622" s="6"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -6425,7 +6427,7 @@
       <c r="F623" s="6"/>
       <c r="G623" s="6"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -6433,7 +6435,7 @@
       <c r="F624" s="6"/>
       <c r="G624" s="6"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
@@ -6441,7 +6443,7 @@
       <c r="F625" s="6"/>
       <c r="G625" s="6"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
@@ -6449,7 +6451,7 @@
       <c r="F626" s="6"/>
       <c r="G626" s="6"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
@@ -6457,7 +6459,7 @@
       <c r="F627" s="6"/>
       <c r="G627" s="6"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -6465,7 +6467,7 @@
       <c r="F628" s="6"/>
       <c r="G628" s="6"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -6473,7 +6475,7 @@
       <c r="F629" s="6"/>
       <c r="G629" s="6"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -6481,7 +6483,7 @@
       <c r="F630" s="6"/>
       <c r="G630" s="6"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -6489,7 +6491,7 @@
       <c r="F631" s="6"/>
       <c r="G631" s="6"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
@@ -6497,7 +6499,7 @@
       <c r="F632" s="6"/>
       <c r="G632" s="6"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -6505,7 +6507,7 @@
       <c r="F633" s="6"/>
       <c r="G633" s="6"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -6513,7 +6515,7 @@
       <c r="F634" s="6"/>
       <c r="G634" s="6"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
@@ -6521,7 +6523,7 @@
       <c r="F635" s="6"/>
       <c r="G635" s="6"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -6529,7 +6531,7 @@
       <c r="F636" s="6"/>
       <c r="G636" s="6"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -6537,7 +6539,7 @@
       <c r="F637" s="6"/>
       <c r="G637" s="6"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -6545,7 +6547,7 @@
       <c r="F638" s="6"/>
       <c r="G638" s="6"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -6553,7 +6555,7 @@
       <c r="F639" s="6"/>
       <c r="G639" s="6"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -6561,7 +6563,7 @@
       <c r="F640" s="6"/>
       <c r="G640" s="6"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -6569,7 +6571,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="6"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
@@ -6577,7 +6579,7 @@
       <c r="F642" s="6"/>
       <c r="G642" s="6"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
@@ -6585,7 +6587,7 @@
       <c r="F643" s="6"/>
       <c r="G643" s="6"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
@@ -6593,7 +6595,7 @@
       <c r="F644" s="6"/>
       <c r="G644" s="6"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -6601,7 +6603,7 @@
       <c r="F645" s="6"/>
       <c r="G645" s="6"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
@@ -6609,7 +6611,7 @@
       <c r="F646" s="6"/>
       <c r="G646" s="6"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -6617,7 +6619,7 @@
       <c r="F647" s="6"/>
       <c r="G647" s="6"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
@@ -6625,7 +6627,7 @@
       <c r="F648" s="6"/>
       <c r="G648" s="6"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -6633,7 +6635,7 @@
       <c r="F649" s="6"/>
       <c r="G649" s="6"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
@@ -6641,7 +6643,7 @@
       <c r="F650" s="6"/>
       <c r="G650" s="6"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -6649,7 +6651,7 @@
       <c r="F651" s="6"/>
       <c r="G651" s="6"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -6657,7 +6659,7 @@
       <c r="F652" s="6"/>
       <c r="G652" s="6"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -6665,7 +6667,7 @@
       <c r="F653" s="6"/>
       <c r="G653" s="6"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -6673,7 +6675,7 @@
       <c r="F654" s="6"/>
       <c r="G654" s="6"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
@@ -6681,7 +6683,7 @@
       <c r="F655" s="6"/>
       <c r="G655" s="6"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
@@ -6689,7 +6691,7 @@
       <c r="F656" s="6"/>
       <c r="G656" s="6"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
@@ -6697,7 +6699,7 @@
       <c r="F657" s="6"/>
       <c r="G657" s="6"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
@@ -6705,7 +6707,7 @@
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
@@ -6713,7 +6715,7 @@
       <c r="F659" s="6"/>
       <c r="G659" s="6"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
@@ -6721,7 +6723,7 @@
       <c r="F660" s="6"/>
       <c r="G660" s="6"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
@@ -6729,7 +6731,7 @@
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -6737,7 +6739,7 @@
       <c r="F662" s="6"/>
       <c r="G662" s="6"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
@@ -6745,7 +6747,7 @@
       <c r="F663" s="6"/>
       <c r="G663" s="6"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
@@ -6753,7 +6755,7 @@
       <c r="F664" s="6"/>
       <c r="G664" s="6"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -6761,7 +6763,7 @@
       <c r="F665" s="6"/>
       <c r="G665" s="6"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -6769,7 +6771,7 @@
       <c r="F666" s="6"/>
       <c r="G666" s="6"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -6777,7 +6779,7 @@
       <c r="F667" s="6"/>
       <c r="G667" s="6"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
@@ -6785,7 +6787,7 @@
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
@@ -6793,7 +6795,7 @@
       <c r="F669" s="6"/>
       <c r="G669" s="6"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
@@ -6801,7 +6803,7 @@
       <c r="F670" s="6"/>
       <c r="G670" s="6"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
@@ -6809,7 +6811,7 @@
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
@@ -6817,7 +6819,7 @@
       <c r="F672" s="6"/>
       <c r="G672" s="6"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
@@ -6825,7 +6827,7 @@
       <c r="F673" s="6"/>
       <c r="G673" s="6"/>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
@@ -6833,7 +6835,7 @@
       <c r="F674" s="6"/>
       <c r="G674" s="6"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -6841,7 +6843,7 @@
       <c r="F675" s="6"/>
       <c r="G675" s="6"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -6849,7 +6851,7 @@
       <c r="F676" s="6"/>
       <c r="G676" s="6"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
@@ -6857,7 +6859,7 @@
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
@@ -6865,7 +6867,7 @@
       <c r="F678" s="6"/>
       <c r="G678" s="6"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -6873,7 +6875,7 @@
       <c r="F679" s="6"/>
       <c r="G679" s="6"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
@@ -6881,7 +6883,7 @@
       <c r="F680" s="6"/>
       <c r="G680" s="6"/>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
@@ -6889,7 +6891,7 @@
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
@@ -6897,7 +6899,7 @@
       <c r="F682" s="6"/>
       <c r="G682" s="6"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
@@ -6905,7 +6907,7 @@
       <c r="F683" s="6"/>
       <c r="G683" s="6"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
@@ -6913,7 +6915,7 @@
       <c r="F684" s="6"/>
       <c r="G684" s="6"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -6921,7 +6923,7 @@
       <c r="F685" s="6"/>
       <c r="G685" s="6"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
@@ -6929,7 +6931,7 @@
       <c r="F686" s="6"/>
       <c r="G686" s="6"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
@@ -6937,7 +6939,7 @@
       <c r="F687" s="6"/>
       <c r="G687" s="6"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
@@ -6945,7 +6947,7 @@
       <c r="F688" s="6"/>
       <c r="G688" s="6"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
@@ -6953,7 +6955,7 @@
       <c r="F689" s="6"/>
       <c r="G689" s="6"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
@@ -6961,7 +6963,7 @@
       <c r="F690" s="6"/>
       <c r="G690" s="6"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
@@ -6969,7 +6971,7 @@
       <c r="F691" s="6"/>
       <c r="G691" s="6"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
@@ -6977,7 +6979,7 @@
       <c r="F692" s="6"/>
       <c r="G692" s="6"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -6985,7 +6987,7 @@
       <c r="F693" s="6"/>
       <c r="G693" s="6"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
@@ -6993,7 +6995,7 @@
       <c r="F694" s="6"/>
       <c r="G694" s="6"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -7001,7 +7003,7 @@
       <c r="F695" s="6"/>
       <c r="G695" s="6"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -7009,7 +7011,7 @@
       <c r="F696" s="6"/>
       <c r="G696" s="6"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -7017,7 +7019,7 @@
       <c r="F697" s="6"/>
       <c r="G697" s="6"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -7025,7 +7027,7 @@
       <c r="F698" s="6"/>
       <c r="G698" s="6"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -7033,7 +7035,7 @@
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -7041,7 +7043,7 @@
       <c r="F700" s="6"/>
       <c r="G700" s="6"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -7049,7 +7051,7 @@
       <c r="F701" s="6"/>
       <c r="G701" s="6"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -7057,7 +7059,7 @@
       <c r="F702" s="6"/>
       <c r="G702" s="6"/>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -7065,7 +7067,7 @@
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -7073,7 +7075,7 @@
       <c r="F704" s="6"/>
       <c r="G704" s="6"/>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -7081,7 +7083,7 @@
       <c r="F705" s="6"/>
       <c r="G705" s="6"/>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -7089,7 +7091,7 @@
       <c r="F706" s="6"/>
       <c r="G706" s="6"/>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -7097,7 +7099,7 @@
       <c r="F707" s="6"/>
       <c r="G707" s="6"/>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -7105,7 +7107,7 @@
       <c r="F708" s="6"/>
       <c r="G708" s="6"/>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -7113,7 +7115,7 @@
       <c r="F709" s="6"/>
       <c r="G709" s="6"/>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -7121,7 +7123,7 @@
       <c r="F710" s="6"/>
       <c r="G710" s="6"/>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -7129,7 +7131,7 @@
       <c r="F711" s="6"/>
       <c r="G711" s="6"/>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -7137,7 +7139,7 @@
       <c r="F712" s="6"/>
       <c r="G712" s="6"/>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -7145,7 +7147,7 @@
       <c r="F713" s="6"/>
       <c r="G713" s="6"/>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -7153,7 +7155,7 @@
       <c r="F714" s="6"/>
       <c r="G714" s="6"/>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -7161,7 +7163,7 @@
       <c r="F715" s="6"/>
       <c r="G715" s="6"/>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -7169,7 +7171,7 @@
       <c r="F716" s="6"/>
       <c r="G716" s="6"/>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -7177,7 +7179,7 @@
       <c r="F717" s="6"/>
       <c r="G717" s="6"/>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -7185,7 +7187,7 @@
       <c r="F718" s="6"/>
       <c r="G718" s="6"/>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -7193,7 +7195,7 @@
       <c r="F719" s="6"/>
       <c r="G719" s="6"/>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -7201,7 +7203,7 @@
       <c r="F720" s="6"/>
       <c r="G720" s="6"/>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -7209,7 +7211,7 @@
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -7217,7 +7219,7 @@
       <c r="F722" s="6"/>
       <c r="G722" s="6"/>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -7225,7 +7227,7 @@
       <c r="F723" s="6"/>
       <c r="G723" s="6"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -7233,7 +7235,7 @@
       <c r="F724" s="6"/>
       <c r="G724" s="6"/>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -7241,7 +7243,7 @@
       <c r="F725" s="6"/>
       <c r="G725" s="6"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -7249,7 +7251,7 @@
       <c r="F726" s="6"/>
       <c r="G726" s="6"/>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -7257,7 +7259,7 @@
       <c r="F727" s="6"/>
       <c r="G727" s="6"/>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -7265,7 +7267,7 @@
       <c r="F728" s="6"/>
       <c r="G728" s="6"/>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -7273,7 +7275,7 @@
       <c r="F729" s="6"/>
       <c r="G729" s="6"/>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -7281,7 +7283,7 @@
       <c r="F730" s="6"/>
       <c r="G730" s="6"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -7289,7 +7291,7 @@
       <c r="F731" s="6"/>
       <c r="G731" s="6"/>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -7297,7 +7299,7 @@
       <c r="F732" s="6"/>
       <c r="G732" s="6"/>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -7305,7 +7307,7 @@
       <c r="F733" s="6"/>
       <c r="G733" s="6"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -7313,7 +7315,7 @@
       <c r="F734" s="6"/>
       <c r="G734" s="6"/>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -7321,7 +7323,7 @@
       <c r="F735" s="6"/>
       <c r="G735" s="6"/>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -7329,7 +7331,7 @@
       <c r="F736" s="6"/>
       <c r="G736" s="6"/>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -7337,7 +7339,7 @@
       <c r="F737" s="6"/>
       <c r="G737" s="6"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -7345,7 +7347,7 @@
       <c r="F738" s="6"/>
       <c r="G738" s="6"/>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -7353,7 +7355,7 @@
       <c r="F739" s="6"/>
       <c r="G739" s="6"/>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -7361,7 +7363,7 @@
       <c r="F740" s="6"/>
       <c r="G740" s="6"/>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -7369,7 +7371,7 @@
       <c r="F741" s="6"/>
       <c r="G741" s="6"/>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -7377,7 +7379,7 @@
       <c r="F742" s="6"/>
       <c r="G742" s="6"/>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -7385,7 +7387,7 @@
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -7393,7 +7395,7 @@
       <c r="F744" s="6"/>
       <c r="G744" s="6"/>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -7401,7 +7403,7 @@
       <c r="F745" s="6"/>
       <c r="G745" s="6"/>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -7409,7 +7411,7 @@
       <c r="F746" s="6"/>
       <c r="G746" s="6"/>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -7417,7 +7419,7 @@
       <c r="F747" s="6"/>
       <c r="G747" s="6"/>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -7425,7 +7427,7 @@
       <c r="F748" s="6"/>
       <c r="G748" s="6"/>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -7433,7 +7435,7 @@
       <c r="F749" s="6"/>
       <c r="G749" s="6"/>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -7441,7 +7443,7 @@
       <c r="F750" s="6"/>
       <c r="G750" s="6"/>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -7449,7 +7451,7 @@
       <c r="F751" s="6"/>
       <c r="G751" s="6"/>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -7457,7 +7459,7 @@
       <c r="F752" s="6"/>
       <c r="G752" s="6"/>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -7465,7 +7467,7 @@
       <c r="F753" s="6"/>
       <c r="G753" s="6"/>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -7473,7 +7475,7 @@
       <c r="F754" s="6"/>
       <c r="G754" s="6"/>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -7481,7 +7483,7 @@
       <c r="F755" s="6"/>
       <c r="G755" s="6"/>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -7489,7 +7491,7 @@
       <c r="F756" s="6"/>
       <c r="G756" s="6"/>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -7497,7 +7499,7 @@
       <c r="F757" s="6"/>
       <c r="G757" s="6"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -7505,7 +7507,7 @@
       <c r="F758" s="6"/>
       <c r="G758" s="6"/>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -7513,7 +7515,7 @@
       <c r="F759" s="6"/>
       <c r="G759" s="6"/>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
@@ -7521,7 +7523,7 @@
       <c r="F760" s="6"/>
       <c r="G760" s="6"/>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
@@ -7529,7 +7531,7 @@
       <c r="F761" s="6"/>
       <c r="G761" s="6"/>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
@@ -7537,7 +7539,7 @@
       <c r="F762" s="6"/>
       <c r="G762" s="6"/>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
@@ -7545,7 +7547,7 @@
       <c r="F763" s="6"/>
       <c r="G763" s="6"/>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
@@ -7553,7 +7555,7 @@
       <c r="F764" s="6"/>
       <c r="G764" s="6"/>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
@@ -7561,7 +7563,7 @@
       <c r="F765" s="6"/>
       <c r="G765" s="6"/>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
@@ -7569,7 +7571,7 @@
       <c r="F766" s="6"/>
       <c r="G766" s="6"/>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
@@ -7577,7 +7579,7 @@
       <c r="F767" s="6"/>
       <c r="G767" s="6"/>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
@@ -7585,7 +7587,7 @@
       <c r="F768" s="6"/>
       <c r="G768" s="6"/>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -7593,7 +7595,7 @@
       <c r="F769" s="6"/>
       <c r="G769" s="6"/>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
@@ -7601,7 +7603,7 @@
       <c r="F770" s="6"/>
       <c r="G770" s="6"/>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
@@ -7609,7 +7611,7 @@
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
@@ -7617,7 +7619,7 @@
       <c r="F772" s="6"/>
       <c r="G772" s="6"/>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
@@ -7625,7 +7627,7 @@
       <c r="F773" s="6"/>
       <c r="G773" s="6"/>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
@@ -7633,7 +7635,7 @@
       <c r="F774" s="6"/>
       <c r="G774" s="6"/>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
@@ -7641,7 +7643,7 @@
       <c r="F775" s="6"/>
       <c r="G775" s="6"/>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
@@ -7649,7 +7651,7 @@
       <c r="F776" s="6"/>
       <c r="G776" s="6"/>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
@@ -7657,7 +7659,7 @@
       <c r="F777" s="6"/>
       <c r="G777" s="6"/>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
@@ -7665,7 +7667,7 @@
       <c r="F778" s="6"/>
       <c r="G778" s="6"/>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
@@ -7673,7 +7675,7 @@
       <c r="F779" s="6"/>
       <c r="G779" s="6"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -7681,7 +7683,7 @@
       <c r="F780" s="6"/>
       <c r="G780" s="6"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
@@ -7689,7 +7691,7 @@
       <c r="F781" s="6"/>
       <c r="G781" s="6"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
@@ -7697,7 +7699,7 @@
       <c r="F782" s="6"/>
       <c r="G782" s="6"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -7705,7 +7707,7 @@
       <c r="F783" s="6"/>
       <c r="G783" s="6"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -7713,7 +7715,7 @@
       <c r="F784" s="6"/>
       <c r="G784" s="6"/>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -7721,7 +7723,7 @@
       <c r="F785" s="6"/>
       <c r="G785" s="6"/>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -7729,7 +7731,7 @@
       <c r="F786" s="6"/>
       <c r="G786" s="6"/>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -7737,7 +7739,7 @@
       <c r="F787" s="6"/>
       <c r="G787" s="6"/>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -7745,7 +7747,7 @@
       <c r="F788" s="6"/>
       <c r="G788" s="6"/>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -7753,7 +7755,7 @@
       <c r="F789" s="6"/>
       <c r="G789" s="6"/>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -7761,7 +7763,7 @@
       <c r="F790" s="6"/>
       <c r="G790" s="6"/>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -7769,7 +7771,7 @@
       <c r="F791" s="6"/>
       <c r="G791" s="6"/>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -7777,7 +7779,7 @@
       <c r="F792" s="6"/>
       <c r="G792" s="6"/>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -7785,7 +7787,7 @@
       <c r="F793" s="6"/>
       <c r="G793" s="6"/>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -7793,7 +7795,7 @@
       <c r="F794" s="6"/>
       <c r="G794" s="6"/>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -7801,7 +7803,7 @@
       <c r="F795" s="6"/>
       <c r="G795" s="6"/>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -7809,7 +7811,7 @@
       <c r="F796" s="6"/>
       <c r="G796" s="6"/>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -7817,7 +7819,7 @@
       <c r="F797" s="6"/>
       <c r="G797" s="6"/>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -7825,7 +7827,7 @@
       <c r="F798" s="6"/>
       <c r="G798" s="6"/>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -7833,7 +7835,7 @@
       <c r="F799" s="6"/>
       <c r="G799" s="6"/>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -7841,7 +7843,7 @@
       <c r="F800" s="6"/>
       <c r="G800" s="6"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -7849,7 +7851,7 @@
       <c r="F801" s="6"/>
       <c r="G801" s="6"/>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -7857,7 +7859,7 @@
       <c r="F802" s="6"/>
       <c r="G802" s="6"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -7865,7 +7867,7 @@
       <c r="F803" s="6"/>
       <c r="G803" s="6"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -7873,7 +7875,7 @@
       <c r="F804" s="6"/>
       <c r="G804" s="6"/>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -7881,7 +7883,7 @@
       <c r="F805" s="6"/>
       <c r="G805" s="6"/>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -7889,7 +7891,7 @@
       <c r="F806" s="6"/>
       <c r="G806" s="6"/>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -7897,7 +7899,7 @@
       <c r="F807" s="6"/>
       <c r="G807" s="6"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -7905,7 +7907,7 @@
       <c r="F808" s="6"/>
       <c r="G808" s="6"/>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -7913,7 +7915,7 @@
       <c r="F809" s="6"/>
       <c r="G809" s="6"/>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -7921,7 +7923,7 @@
       <c r="F810" s="6"/>
       <c r="G810" s="6"/>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -7929,7 +7931,7 @@
       <c r="F811" s="6"/>
       <c r="G811" s="6"/>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -7937,7 +7939,7 @@
       <c r="F812" s="6"/>
       <c r="G812" s="6"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -7945,7 +7947,7 @@
       <c r="F813" s="6"/>
       <c r="G813" s="6"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -7953,7 +7955,7 @@
       <c r="F814" s="6"/>
       <c r="G814" s="6"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -7961,7 +7963,7 @@
       <c r="F815" s="6"/>
       <c r="G815" s="6"/>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -7969,7 +7971,7 @@
       <c r="F816" s="6"/>
       <c r="G816" s="6"/>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -7977,7 +7979,7 @@
       <c r="F817" s="6"/>
       <c r="G817" s="6"/>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -7985,7 +7987,7 @@
       <c r="F818" s="6"/>
       <c r="G818" s="6"/>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -7993,7 +7995,7 @@
       <c r="F819" s="6"/>
       <c r="G819" s="6"/>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -8001,7 +8003,7 @@
       <c r="F820" s="6"/>
       <c r="G820" s="6"/>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -8009,7 +8011,7 @@
       <c r="F821" s="6"/>
       <c r="G821" s="6"/>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -8017,7 +8019,7 @@
       <c r="F822" s="6"/>
       <c r="G822" s="6"/>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -8025,7 +8027,7 @@
       <c r="F823" s="6"/>
       <c r="G823" s="6"/>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -8033,7 +8035,7 @@
       <c r="F824" s="6"/>
       <c r="G824" s="6"/>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -8041,7 +8043,7 @@
       <c r="F825" s="6"/>
       <c r="G825" s="6"/>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -8049,7 +8051,7 @@
       <c r="F826" s="6"/>
       <c r="G826" s="6"/>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -8057,7 +8059,7 @@
       <c r="F827" s="6"/>
       <c r="G827" s="6"/>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -8065,7 +8067,7 @@
       <c r="F828" s="6"/>
       <c r="G828" s="6"/>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -8073,7 +8075,7 @@
       <c r="F829" s="6"/>
       <c r="G829" s="6"/>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -8081,7 +8083,7 @@
       <c r="F830" s="6"/>
       <c r="G830" s="6"/>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -8089,7 +8091,7 @@
       <c r="F831" s="6"/>
       <c r="G831" s="6"/>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -8097,7 +8099,7 @@
       <c r="F832" s="6"/>
       <c r="G832" s="6"/>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -8105,7 +8107,7 @@
       <c r="F833" s="6"/>
       <c r="G833" s="6"/>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -8113,7 +8115,7 @@
       <c r="F834" s="6"/>
       <c r="G834" s="6"/>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -8121,7 +8123,7 @@
       <c r="F835" s="6"/>
       <c r="G835" s="6"/>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -8129,7 +8131,7 @@
       <c r="F836" s="6"/>
       <c r="G836" s="6"/>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -8137,7 +8139,7 @@
       <c r="F837" s="6"/>
       <c r="G837" s="6"/>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -8145,7 +8147,7 @@
       <c r="F838" s="6"/>
       <c r="G838" s="6"/>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -8153,7 +8155,7 @@
       <c r="F839" s="6"/>
       <c r="G839" s="6"/>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -8161,7 +8163,7 @@
       <c r="F840" s="6"/>
       <c r="G840" s="6"/>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -8169,7 +8171,7 @@
       <c r="F841" s="6"/>
       <c r="G841" s="6"/>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -8177,7 +8179,7 @@
       <c r="F842" s="6"/>
       <c r="G842" s="6"/>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -8185,7 +8187,7 @@
       <c r="F843" s="6"/>
       <c r="G843" s="6"/>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -8193,7 +8195,7 @@
       <c r="F844" s="6"/>
       <c r="G844" s="6"/>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -8201,7 +8203,7 @@
       <c r="F845" s="6"/>
       <c r="G845" s="6"/>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -8209,7 +8211,7 @@
       <c r="F846" s="6"/>
       <c r="G846" s="6"/>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -8217,7 +8219,7 @@
       <c r="F847" s="6"/>
       <c r="G847" s="6"/>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -8225,7 +8227,7 @@
       <c r="F848" s="6"/>
       <c r="G848" s="6"/>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -8233,7 +8235,7 @@
       <c r="F849" s="6"/>
       <c r="G849" s="6"/>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -8241,7 +8243,7 @@
       <c r="F850" s="6"/>
       <c r="G850" s="6"/>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -8249,7 +8251,7 @@
       <c r="F851" s="6"/>
       <c r="G851" s="6"/>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -8257,7 +8259,7 @@
       <c r="F852" s="6"/>
       <c r="G852" s="6"/>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -8265,7 +8267,7 @@
       <c r="F853" s="6"/>
       <c r="G853" s="6"/>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -8273,7 +8275,7 @@
       <c r="F854" s="6"/>
       <c r="G854" s="6"/>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -8281,7 +8283,7 @@
       <c r="F855" s="6"/>
       <c r="G855" s="6"/>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -8289,7 +8291,7 @@
       <c r="F856" s="6"/>
       <c r="G856" s="6"/>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -8297,7 +8299,7 @@
       <c r="F857" s="6"/>
       <c r="G857" s="6"/>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -8305,7 +8307,7 @@
       <c r="F858" s="6"/>
       <c r="G858" s="6"/>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -8313,7 +8315,7 @@
       <c r="F859" s="6"/>
       <c r="G859" s="6"/>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -8321,7 +8323,7 @@
       <c r="F860" s="6"/>
       <c r="G860" s="6"/>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -8329,7 +8331,7 @@
       <c r="F861" s="6"/>
       <c r="G861" s="6"/>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -8337,7 +8339,7 @@
       <c r="F862" s="6"/>
       <c r="G862" s="6"/>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -8345,7 +8347,7 @@
       <c r="F863" s="6"/>
       <c r="G863" s="6"/>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -8353,7 +8355,7 @@
       <c r="F864" s="6"/>
       <c r="G864" s="6"/>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -8361,7 +8363,7 @@
       <c r="F865" s="6"/>
       <c r="G865" s="6"/>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -8369,7 +8371,7 @@
       <c r="F866" s="6"/>
       <c r="G866" s="6"/>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -8377,7 +8379,7 @@
       <c r="F867" s="6"/>
       <c r="G867" s="6"/>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -8385,7 +8387,7 @@
       <c r="F868" s="6"/>
       <c r="G868" s="6"/>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -8393,7 +8395,7 @@
       <c r="F869" s="6"/>
       <c r="G869" s="6"/>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -8401,7 +8403,7 @@
       <c r="F870" s="6"/>
       <c r="G870" s="6"/>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -8409,7 +8411,7 @@
       <c r="F871" s="6"/>
       <c r="G871" s="6"/>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -8417,7 +8419,7 @@
       <c r="F872" s="6"/>
       <c r="G872" s="6"/>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -8425,7 +8427,7 @@
       <c r="F873" s="6"/>
       <c r="G873" s="6"/>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -8433,7 +8435,7 @@
       <c r="F874" s="6"/>
       <c r="G874" s="6"/>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -8441,7 +8443,7 @@
       <c r="F875" s="6"/>
       <c r="G875" s="6"/>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -8449,7 +8451,7 @@
       <c r="F876" s="6"/>
       <c r="G876" s="6"/>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
@@ -8457,7 +8459,7 @@
       <c r="F877" s="6"/>
       <c r="G877" s="6"/>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
@@ -8465,7 +8467,7 @@
       <c r="F878" s="6"/>
       <c r="G878" s="6"/>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -8473,7 +8475,7 @@
       <c r="F879" s="6"/>
       <c r="G879" s="6"/>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -8481,7 +8483,7 @@
       <c r="F880" s="6"/>
       <c r="G880" s="6"/>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -8489,7 +8491,7 @@
       <c r="F881" s="6"/>
       <c r="G881" s="6"/>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -8497,7 +8499,7 @@
       <c r="F882" s="6"/>
       <c r="G882" s="6"/>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
@@ -8505,7 +8507,7 @@
       <c r="F883" s="6"/>
       <c r="G883" s="6"/>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
@@ -8513,7 +8515,7 @@
       <c r="F884" s="6"/>
       <c r="G884" s="6"/>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
@@ -8521,7 +8523,7 @@
       <c r="F885" s="6"/>
       <c r="G885" s="6"/>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
@@ -8529,7 +8531,7 @@
       <c r="F886" s="6"/>
       <c r="G886" s="6"/>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
@@ -8537,7 +8539,7 @@
       <c r="F887" s="6"/>
       <c r="G887" s="6"/>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
@@ -8545,7 +8547,7 @@
       <c r="F888" s="6"/>
       <c r="G888" s="6"/>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
@@ -8553,7 +8555,7 @@
       <c r="F889" s="6"/>
       <c r="G889" s="6"/>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -8561,7 +8563,7 @@
       <c r="F890" s="6"/>
       <c r="G890" s="6"/>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
@@ -8569,7 +8571,7 @@
       <c r="F891" s="6"/>
       <c r="G891" s="6"/>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
@@ -8577,7 +8579,7 @@
       <c r="F892" s="6"/>
       <c r="G892" s="6"/>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
@@ -8585,7 +8587,7 @@
       <c r="F893" s="6"/>
       <c r="G893" s="6"/>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
@@ -8593,7 +8595,7 @@
       <c r="F894" s="6"/>
       <c r="G894" s="6"/>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
@@ -8601,7 +8603,7 @@
       <c r="F895" s="6"/>
       <c r="G895" s="6"/>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
@@ -8609,7 +8611,7 @@
       <c r="F896" s="6"/>
       <c r="G896" s="6"/>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
@@ -8617,7 +8619,7 @@
       <c r="F897" s="6"/>
       <c r="G897" s="6"/>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
@@ -8625,7 +8627,7 @@
       <c r="F898" s="6"/>
       <c r="G898" s="6"/>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
@@ -8633,7 +8635,7 @@
       <c r="F899" s="6"/>
       <c r="G899" s="6"/>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
@@ -8641,7 +8643,7 @@
       <c r="F900" s="6"/>
       <c r="G900" s="6"/>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -8649,7 +8651,7 @@
       <c r="F901" s="6"/>
       <c r="G901" s="6"/>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
@@ -8657,7 +8659,7 @@
       <c r="F902" s="6"/>
       <c r="G902" s="6"/>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
@@ -8665,7 +8667,7 @@
       <c r="F903" s="6"/>
       <c r="G903" s="6"/>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
@@ -8673,7 +8675,7 @@
       <c r="F904" s="6"/>
       <c r="G904" s="6"/>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
@@ -8681,7 +8683,7 @@
       <c r="F905" s="6"/>
       <c r="G905" s="6"/>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
@@ -8689,7 +8691,7 @@
       <c r="F906" s="6"/>
       <c r="G906" s="6"/>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
@@ -8697,7 +8699,7 @@
       <c r="F907" s="6"/>
       <c r="G907" s="6"/>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -8705,7 +8707,7 @@
       <c r="F908" s="6"/>
       <c r="G908" s="6"/>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
@@ -8713,7 +8715,7 @@
       <c r="F909" s="6"/>
       <c r="G909" s="6"/>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
@@ -8721,7 +8723,7 @@
       <c r="F910" s="6"/>
       <c r="G910" s="6"/>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
@@ -8729,7 +8731,7 @@
       <c r="F911" s="6"/>
       <c r="G911" s="6"/>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -8737,7 +8739,7 @@
       <c r="F912" s="6"/>
       <c r="G912" s="6"/>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
@@ -8745,7 +8747,7 @@
       <c r="F913" s="6"/>
       <c r="G913" s="6"/>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
@@ -8753,7 +8755,7 @@
       <c r="F914" s="6"/>
       <c r="G914" s="6"/>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
@@ -8761,7 +8763,7 @@
       <c r="F915" s="6"/>
       <c r="G915" s="6"/>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
@@ -8769,7 +8771,7 @@
       <c r="F916" s="6"/>
       <c r="G916" s="6"/>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
@@ -8777,7 +8779,7 @@
       <c r="F917" s="6"/>
       <c r="G917" s="6"/>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
@@ -8785,7 +8787,7 @@
       <c r="F918" s="6"/>
       <c r="G918" s="6"/>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
@@ -8793,7 +8795,7 @@
       <c r="F919" s="6"/>
       <c r="G919" s="6"/>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
@@ -8801,7 +8803,7 @@
       <c r="F920" s="6"/>
       <c r="G920" s="6"/>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
@@ -8809,7 +8811,7 @@
       <c r="F921" s="6"/>
       <c r="G921" s="6"/>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
@@ -8817,7 +8819,7 @@
       <c r="F922" s="6"/>
       <c r="G922" s="6"/>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
@@ -8825,7 +8827,7 @@
       <c r="F923" s="6"/>
       <c r="G923" s="6"/>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -8833,7 +8835,7 @@
       <c r="F924" s="6"/>
       <c r="G924" s="6"/>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
@@ -8841,7 +8843,7 @@
       <c r="F925" s="6"/>
       <c r="G925" s="6"/>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
@@ -8849,7 +8851,7 @@
       <c r="F926" s="6"/>
       <c r="G926" s="6"/>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
@@ -8857,7 +8859,7 @@
       <c r="F927" s="6"/>
       <c r="G927" s="6"/>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
@@ -8865,7 +8867,7 @@
       <c r="F928" s="6"/>
       <c r="G928" s="6"/>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
@@ -8873,7 +8875,7 @@
       <c r="F929" s="6"/>
       <c r="G929" s="6"/>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
@@ -8881,7 +8883,7 @@
       <c r="F930" s="6"/>
       <c r="G930" s="6"/>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
@@ -8889,7 +8891,7 @@
       <c r="F931" s="6"/>
       <c r="G931" s="6"/>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
@@ -8897,7 +8899,7 @@
       <c r="F932" s="6"/>
       <c r="G932" s="6"/>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
@@ -8905,7 +8907,7 @@
       <c r="F933" s="6"/>
       <c r="G933" s="6"/>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
@@ -8913,7 +8915,7 @@
       <c r="F934" s="6"/>
       <c r="G934" s="6"/>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -8921,7 +8923,7 @@
       <c r="F935" s="6"/>
       <c r="G935" s="6"/>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
@@ -8929,7 +8931,7 @@
       <c r="F936" s="6"/>
       <c r="G936" s="6"/>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
@@ -8937,7 +8939,7 @@
       <c r="F937" s="6"/>
       <c r="G937" s="6"/>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
@@ -8945,7 +8947,7 @@
       <c r="F938" s="6"/>
       <c r="G938" s="6"/>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
@@ -8953,7 +8955,7 @@
       <c r="F939" s="6"/>
       <c r="G939" s="6"/>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
@@ -8961,7 +8963,7 @@
       <c r="F940" s="6"/>
       <c r="G940" s="6"/>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
@@ -8969,7 +8971,7 @@
       <c r="F941" s="6"/>
       <c r="G941" s="6"/>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
@@ -8977,7 +8979,7 @@
       <c r="F942" s="6"/>
       <c r="G942" s="6"/>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
@@ -8985,7 +8987,7 @@
       <c r="F943" s="6"/>
       <c r="G943" s="6"/>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
@@ -8993,7 +8995,7 @@
       <c r="F944" s="6"/>
       <c r="G944" s="6"/>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
@@ -9001,7 +9003,7 @@
       <c r="F945" s="6"/>
       <c r="G945" s="6"/>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -9009,7 +9011,7 @@
       <c r="F946" s="6"/>
       <c r="G946" s="6"/>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
@@ -9017,7 +9019,7 @@
       <c r="F947" s="6"/>
       <c r="G947" s="6"/>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
@@ -9025,7 +9027,7 @@
       <c r="F948" s="6"/>
       <c r="G948" s="6"/>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
@@ -9033,7 +9035,7 @@
       <c r="F949" s="6"/>
       <c r="G949" s="6"/>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
@@ -9041,7 +9043,7 @@
       <c r="F950" s="6"/>
       <c r="G950" s="6"/>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
@@ -9049,7 +9051,7 @@
       <c r="F951" s="6"/>
       <c r="G951" s="6"/>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
@@ -9057,7 +9059,7 @@
       <c r="F952" s="6"/>
       <c r="G952" s="6"/>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
@@ -9065,7 +9067,7 @@
       <c r="F953" s="6"/>
       <c r="G953" s="6"/>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
@@ -9073,7 +9075,7 @@
       <c r="F954" s="6"/>
       <c r="G954" s="6"/>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
@@ -9081,7 +9083,7 @@
       <c r="F955" s="6"/>
       <c r="G955" s="6"/>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
@@ -9089,7 +9091,7 @@
       <c r="F956" s="6"/>
       <c r="G956" s="6"/>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
@@ -9097,7 +9099,7 @@
       <c r="F957" s="6"/>
       <c r="G957" s="6"/>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -9105,7 +9107,7 @@
       <c r="F958" s="6"/>
       <c r="G958" s="6"/>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
       <c r="C959" s="6"/>
@@ -9113,7 +9115,7 @@
       <c r="F959" s="6"/>
       <c r="G959" s="6"/>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
       <c r="C960" s="6"/>
@@ -9121,7 +9123,7 @@
       <c r="F960" s="6"/>
       <c r="G960" s="6"/>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
       <c r="C961" s="6"/>
@@ -9129,7 +9131,7 @@
       <c r="F961" s="6"/>
       <c r="G961" s="6"/>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
       <c r="C962" s="6"/>
@@ -9137,7 +9139,7 @@
       <c r="F962" s="6"/>
       <c r="G962" s="6"/>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
       <c r="C963" s="6"/>
@@ -9145,7 +9147,7 @@
       <c r="F963" s="6"/>
       <c r="G963" s="6"/>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
       <c r="C964" s="6"/>
@@ -9153,7 +9155,7 @@
       <c r="F964" s="6"/>
       <c r="G964" s="6"/>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
       <c r="C965" s="6"/>
@@ -9161,7 +9163,7 @@
       <c r="F965" s="6"/>
       <c r="G965" s="6"/>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
       <c r="C966" s="6"/>
@@ -9169,7 +9171,7 @@
       <c r="F966" s="6"/>
       <c r="G966" s="6"/>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
       <c r="C967" s="6"/>
@@ -9177,7 +9179,7 @@
       <c r="F967" s="6"/>
       <c r="G967" s="6"/>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
       <c r="C968" s="6"/>
@@ -9185,7 +9187,7 @@
       <c r="F968" s="6"/>
       <c r="G968" s="6"/>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -9193,7 +9195,7 @@
       <c r="F969" s="6"/>
       <c r="G969" s="6"/>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
       <c r="C970" s="6"/>
@@ -9201,7 +9203,7 @@
       <c r="F970" s="6"/>
       <c r="G970" s="6"/>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
       <c r="C971" s="6"/>
@@ -9209,7 +9211,7 @@
       <c r="F971" s="6"/>
       <c r="G971" s="6"/>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
       <c r="C972" s="6"/>
@@ -9217,7 +9219,7 @@
       <c r="F972" s="6"/>
       <c r="G972" s="6"/>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
       <c r="C973" s="6"/>
@@ -9225,7 +9227,7 @@
       <c r="F973" s="6"/>
       <c r="G973" s="6"/>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
       <c r="C974" s="6"/>
@@ -9233,7 +9235,7 @@
       <c r="F974" s="6"/>
       <c r="G974" s="6"/>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
       <c r="C975" s="6"/>
@@ -9241,7 +9243,7 @@
       <c r="F975" s="6"/>
       <c r="G975" s="6"/>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
       <c r="C976" s="6"/>
@@ -9249,7 +9251,7 @@
       <c r="F976" s="6"/>
       <c r="G976" s="6"/>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
       <c r="C977" s="6"/>
@@ -9257,7 +9259,7 @@
       <c r="F977" s="6"/>
       <c r="G977" s="6"/>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
       <c r="C978" s="6"/>
@@ -9265,7 +9267,7 @@
       <c r="F978" s="6"/>
       <c r="G978" s="6"/>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
       <c r="C979" s="6"/>
@@ -9273,7 +9275,7 @@
       <c r="F979" s="6"/>
       <c r="G979" s="6"/>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
       <c r="C980" s="6"/>
@@ -9281,7 +9283,7 @@
       <c r="F980" s="6"/>
       <c r="G980" s="6"/>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -9289,7 +9291,7 @@
       <c r="F981" s="6"/>
       <c r="G981" s="6"/>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
       <c r="C982" s="6"/>
@@ -9297,7 +9299,7 @@
       <c r="F982" s="6"/>
       <c r="G982" s="6"/>
     </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
       <c r="C983" s="6"/>
@@ -9305,7 +9307,7 @@
       <c r="F983" s="6"/>
       <c r="G983" s="6"/>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
       <c r="C984" s="6"/>
@@ -9313,7 +9315,7 @@
       <c r="F984" s="6"/>
       <c r="G984" s="6"/>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
       <c r="C985" s="6"/>
@@ -9321,7 +9323,7 @@
       <c r="F985" s="6"/>
       <c r="G985" s="6"/>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
       <c r="C986" s="6"/>
@@ -9329,7 +9331,7 @@
       <c r="F986" s="6"/>
       <c r="G986" s="6"/>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
       <c r="C987" s="6"/>
@@ -9337,7 +9339,7 @@
       <c r="F987" s="6"/>
       <c r="G987" s="6"/>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
       <c r="C988" s="6"/>
@@ -9345,7 +9347,7 @@
       <c r="F988" s="6"/>
       <c r="G988" s="6"/>
     </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
       <c r="C989" s="6"/>
@@ -9353,7 +9355,7 @@
       <c r="F989" s="6"/>
       <c r="G989" s="6"/>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
       <c r="C990" s="6"/>
@@ -9361,7 +9363,7 @@
       <c r="F990" s="6"/>
       <c r="G990" s="6"/>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
       <c r="C991" s="6"/>
@@ -9369,7 +9371,7 @@
       <c r="F991" s="6"/>
       <c r="G991" s="6"/>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
       <c r="C992" s="6"/>
@@ -9377,7 +9379,7 @@
       <c r="F992" s="6"/>
       <c r="G992" s="6"/>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
@@ -9385,7 +9387,7 @@
       <c r="F993" s="6"/>
       <c r="G993" s="6"/>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
       <c r="C994" s="6"/>
@@ -9393,7 +9395,7 @@
       <c r="F994" s="6"/>
       <c r="G994" s="6"/>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
       <c r="C995" s="6"/>
@@ -9401,7 +9403,7 @@
       <c r="F995" s="6"/>
       <c r="G995" s="6"/>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
       <c r="C996" s="6"/>
@@ -9409,7 +9411,7 @@
       <c r="F996" s="6"/>
       <c r="G996" s="6"/>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
       <c r="C997" s="6"/>
@@ -9417,7 +9419,7 @@
       <c r="F997" s="6"/>
       <c r="G997" s="6"/>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
       <c r="C998" s="6"/>
@@ -9425,7 +9427,7 @@
       <c r="F998" s="6"/>
       <c r="G998" s="6"/>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
       <c r="C999" s="6"/>
@@ -9433,7 +9435,7 @@
       <c r="F999" s="6"/>
       <c r="G999" s="6"/>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="6"/>
